--- a/tests/results/diagrams.xlsx
+++ b/tests/results/diagrams.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="insert" sheetId="1" r:id="rId1"/>
+    <sheet name="insert columns" sheetId="1" r:id="rId1"/>
+    <sheet name="insert rows" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">insert!$A$1:$F$192</definedName>
-    <definedName name="times_insert" localSheetId="0">insert!$A$2:$D$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'insert columns'!$A$1:$F$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'insert rows'!$A$1:$D$193</definedName>
+    <definedName name="times_insert" localSheetId="0">'insert columns'!$A$2:$D$192</definedName>
+    <definedName name="times_insert" localSheetId="1">'insert rows'!$A$1:$D$193</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -42,11 +45,21 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="times_insert1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/build/times_insert.csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>rows</t>
   </si>
@@ -58,6 +71,12 @@
   </si>
   <si>
     <t>col time</t>
+  </si>
+  <si>
+    <t>time ns row store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> time ns col store</t>
   </si>
 </sst>
 </file>
@@ -154,7 +173,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -195,7 +213,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>insert!$A$1</c:f>
+              <c:f>'insert columns'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -230,7 +248,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>insert!$B$2:$B$192</c:f>
+              <c:f>'insert columns'!$B$2:$B$192</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -452,7 +470,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>insert!$A$2:$A$192</c:f>
+              <c:f>'insert columns'!$A$2:$A$192</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -679,7 +697,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>insert!$C$1</c:f>
+              <c:f>'insert columns'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -714,7 +732,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>insert!$B$2:$B$192</c:f>
+              <c:f>'insert columns'!$B$2:$B$192</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -936,7 +954,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>insert!$C$2:$C$192</c:f>
+              <c:f>'insert columns'!$C$2:$C$192</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -1163,7 +1181,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>insert!$D$1</c:f>
+              <c:f>'insert columns'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1198,7 +1216,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>insert!$B$2:$B$192</c:f>
+              <c:f>'insert columns'!$B$2:$B$192</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -1420,7 +1438,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>insert!$D$2:$D$192</c:f>
+              <c:f>'insert columns'!$D$2:$D$192</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -1652,11 +1670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-739207376"/>
-        <c:axId val="-739205600"/>
+        <c:axId val="1886872400"/>
+        <c:axId val="1886874448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-739207376"/>
+        <c:axId val="1886872400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,7 +1717,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-739205600"/>
+        <c:crossAx val="1886874448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1707,7 +1725,1471 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-739205600"/>
+        <c:axId val="1886874448"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time log(10)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886872400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insert rows'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'insert rows'!$A$2:$A$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.097152E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.194304E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.388608E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insert rows'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>columns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'insert rows'!$B$2:$B$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insert rows'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time ns row store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'insert rows'!$C$2:$C$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5939.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24179.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38376.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25824.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57230.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106607.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>238222.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>461808.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>748715.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.356438E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.130891E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.784235E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.698346E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4320113E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3662145E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5424923E7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5107619E8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.07353725E8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.45208405E8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.040651651E9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.84591031E9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.978604324E9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.885520998E9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1005671812E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insert rows'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'insert rows'!$D$2:$D$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4331.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8962.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9704.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17601.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56992.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88137.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>189611.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>476962.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>787655.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.939701E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.267477E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.947681E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7508378E7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.505299E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0781913E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.31958478E8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.63384482E8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2465472E8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.150823107E9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.352567917E9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.101430442E9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.687774663E9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7633443865E10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6451145329E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1886925936"/>
+        <c:axId val="1886929200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1886925936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886929200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1886929200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886925936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insert rows'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'insert rows'!$A$2:$A$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.097152E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.194304E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.388608E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insert rows'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>columns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'insert rows'!$B$2:$B$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insert rows'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time ns row store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'insert rows'!$C$2:$C$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5939.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24179.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38376.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25824.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57230.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106607.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>238222.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>461808.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>748715.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.356438E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.130891E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.784235E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.698346E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4320113E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3662145E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5424923E7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5107619E8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.07353725E8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.45208405E8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.040651651E9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.84591031E9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.978604324E9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.885520998E9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1005671812E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insert rows'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'insert rows'!$D$2:$D$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4331.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8962.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9704.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17601.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56992.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88137.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>189611.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>476962.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>787655.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.939701E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.267477E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.947681E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7508378E7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.505299E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0781913E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.31958478E8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.63384482E8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2465472E8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.150823107E9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.352567917E9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.101430442E9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.687774663E9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7633443865E10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6451145329E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1886972432"/>
+        <c:axId val="1886975696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1886972432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886975696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1886975696"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1814,7 +3296,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-739207376"/>
+        <c:crossAx val="1886972432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1903,6 +3385,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2445,6 +4007,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2480,8 +5074,77 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2750,7 +5413,7 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
@@ -5465,4 +8128,2737 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:D193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="61" workbookViewId="0">
+      <selection activeCell="F194" sqref="F194"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>12917</v>
+      </c>
+      <c r="D2">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3372</v>
+      </c>
+      <c r="D3">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3602</v>
+      </c>
+      <c r="D4">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2341</v>
+      </c>
+      <c r="D5">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>2626</v>
+      </c>
+      <c r="D6">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>2500</v>
+      </c>
+      <c r="D7">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>4629</v>
+      </c>
+      <c r="D8">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>5939</v>
+      </c>
+      <c r="D9">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2175</v>
+      </c>
+      <c r="D10">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2161</v>
+      </c>
+      <c r="D11">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>2229</v>
+      </c>
+      <c r="D12">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>2297</v>
+      </c>
+      <c r="D13">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>2528</v>
+      </c>
+      <c r="D14">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>4745</v>
+      </c>
+      <c r="D15">
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>6153</v>
+      </c>
+      <c r="D16">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>24179</v>
+      </c>
+      <c r="D17">
+        <v>8962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>17370</v>
+      </c>
+      <c r="D18">
+        <v>11543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3913</v>
+      </c>
+      <c r="D19">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>4039</v>
+      </c>
+      <c r="D20">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>5068</v>
+      </c>
+      <c r="D21">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>5400</v>
+      </c>
+      <c r="D22">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>6430</v>
+      </c>
+      <c r="D23">
+        <v>6568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>10642</v>
+      </c>
+      <c r="D24">
+        <v>9047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>128</v>
+      </c>
+      <c r="C25">
+        <v>38376</v>
+      </c>
+      <c r="D25">
+        <v>9704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>8477</v>
+      </c>
+      <c r="D26">
+        <v>4885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>5312</v>
+      </c>
+      <c r="D27">
+        <v>4716</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>4927</v>
+      </c>
+      <c r="D28">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>8433</v>
+      </c>
+      <c r="D29">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>4445</v>
+      </c>
+      <c r="D30">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>7671</v>
+      </c>
+      <c r="D31">
+        <v>9356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>24241</v>
+      </c>
+      <c r="D32">
+        <v>22339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>128</v>
+      </c>
+      <c r="C33">
+        <v>25824</v>
+      </c>
+      <c r="D33">
+        <v>17601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>8995</v>
+      </c>
+      <c r="D34">
+        <v>5791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>6288</v>
+      </c>
+      <c r="D35">
+        <v>6474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>7182</v>
+      </c>
+      <c r="D36">
+        <v>7265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>8323</v>
+      </c>
+      <c r="D37">
+        <v>8702</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>10941</v>
+      </c>
+      <c r="D38">
+        <v>11643</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <v>27276</v>
+      </c>
+      <c r="D39">
+        <v>17553</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>64</v>
+      </c>
+      <c r="C40">
+        <v>30490</v>
+      </c>
+      <c r="D40">
+        <v>19499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>128</v>
+      </c>
+      <c r="C41">
+        <v>57230</v>
+      </c>
+      <c r="D41">
+        <v>56992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>9330</v>
+      </c>
+      <c r="D42">
+        <v>8274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>32</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>6881</v>
+      </c>
+      <c r="D43">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>32</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>5809</v>
+      </c>
+      <c r="D44">
+        <v>6703</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>12580</v>
+      </c>
+      <c r="D45">
+        <v>9898</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <v>11788</v>
+      </c>
+      <c r="D46">
+        <v>11651</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>32</v>
+      </c>
+      <c r="B47">
+        <v>32</v>
+      </c>
+      <c r="C47">
+        <v>28687</v>
+      </c>
+      <c r="D47">
+        <v>36728</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>32</v>
+      </c>
+      <c r="B48">
+        <v>64</v>
+      </c>
+      <c r="C48">
+        <v>51030</v>
+      </c>
+      <c r="D48">
+        <v>139468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>32</v>
+      </c>
+      <c r="B49">
+        <v>128</v>
+      </c>
+      <c r="C49">
+        <v>106607</v>
+      </c>
+      <c r="D49">
+        <v>88137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>64</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>20966</v>
+      </c>
+      <c r="D50">
+        <v>16472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>64</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>8421</v>
+      </c>
+      <c r="D51">
+        <v>12503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>64</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>22877</v>
+      </c>
+      <c r="D52">
+        <v>15974</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>64</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>18929</v>
+      </c>
+      <c r="D53">
+        <v>38122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>64</v>
+      </c>
+      <c r="B54">
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <v>40655</v>
+      </c>
+      <c r="D54">
+        <v>36141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>32</v>
+      </c>
+      <c r="C55">
+        <v>57151</v>
+      </c>
+      <c r="D55">
+        <v>56764</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>64</v>
+      </c>
+      <c r="C56">
+        <v>89419</v>
+      </c>
+      <c r="D56">
+        <v>80613</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <v>128</v>
+      </c>
+      <c r="C57">
+        <v>238222</v>
+      </c>
+      <c r="D57">
+        <v>189611</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>128</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>32477</v>
+      </c>
+      <c r="D58">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>128</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>159627</v>
+      </c>
+      <c r="D59">
+        <v>70354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>128</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>54414</v>
+      </c>
+      <c r="D60">
+        <v>39674</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>128</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>45943</v>
+      </c>
+      <c r="D61">
+        <v>46486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>128</v>
+      </c>
+      <c r="B62">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>98664</v>
+      </c>
+      <c r="D62">
+        <v>128746</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>128</v>
+      </c>
+      <c r="B63">
+        <v>32</v>
+      </c>
+      <c r="C63">
+        <v>109076</v>
+      </c>
+      <c r="D63">
+        <v>101872</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>128</v>
+      </c>
+      <c r="B64">
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <v>220749</v>
+      </c>
+      <c r="D64">
+        <v>199791</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>128</v>
+      </c>
+      <c r="B65">
+        <v>128</v>
+      </c>
+      <c r="C65">
+        <v>461808</v>
+      </c>
+      <c r="D65">
+        <v>476962</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>256</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>73524</v>
+      </c>
+      <c r="D66">
+        <v>42729</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>256</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>55991</v>
+      </c>
+      <c r="D67">
+        <v>43321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>256</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>56106</v>
+      </c>
+      <c r="D68">
+        <v>68591</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>256</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>92869</v>
+      </c>
+      <c r="D69">
+        <v>104097</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>256</v>
+      </c>
+      <c r="B70">
+        <v>16</v>
+      </c>
+      <c r="C70">
+        <v>141387</v>
+      </c>
+      <c r="D70">
+        <v>198015</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>256</v>
+      </c>
+      <c r="B71">
+        <v>32</v>
+      </c>
+      <c r="C71">
+        <v>232049</v>
+      </c>
+      <c r="D71">
+        <v>291855</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>256</v>
+      </c>
+      <c r="B72">
+        <v>64</v>
+      </c>
+      <c r="C72">
+        <v>437099</v>
+      </c>
+      <c r="D72">
+        <v>306303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>256</v>
+      </c>
+      <c r="B73">
+        <v>128</v>
+      </c>
+      <c r="C73">
+        <v>748715</v>
+      </c>
+      <c r="D73">
+        <v>787655</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>512</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>82836</v>
+      </c>
+      <c r="D74">
+        <v>68917</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>512</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>86292</v>
+      </c>
+      <c r="D75">
+        <v>97628</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>512</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>124411</v>
+      </c>
+      <c r="D76">
+        <v>135563</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>512</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>138479</v>
+      </c>
+      <c r="D77">
+        <v>129043</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>512</v>
+      </c>
+      <c r="B78">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>389654</v>
+      </c>
+      <c r="D78">
+        <v>316012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>512</v>
+      </c>
+      <c r="B79">
+        <v>32</v>
+      </c>
+      <c r="C79">
+        <v>562651</v>
+      </c>
+      <c r="D79">
+        <v>523197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>512</v>
+      </c>
+      <c r="B80">
+        <v>64</v>
+      </c>
+      <c r="C80">
+        <v>849832</v>
+      </c>
+      <c r="D80">
+        <v>1148310</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>512</v>
+      </c>
+      <c r="B81">
+        <v>128</v>
+      </c>
+      <c r="C81">
+        <v>1356438</v>
+      </c>
+      <c r="D81">
+        <v>1939701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1024</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>134717</v>
+      </c>
+      <c r="D82">
+        <v>145009</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1024</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>129829</v>
+      </c>
+      <c r="D83">
+        <v>128641</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1024</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>145579</v>
+      </c>
+      <c r="D84">
+        <v>167709</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1024</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>181432</v>
+      </c>
+      <c r="D85">
+        <v>186881</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1024</v>
+      </c>
+      <c r="B86">
+        <v>16</v>
+      </c>
+      <c r="C86">
+        <v>385924</v>
+      </c>
+      <c r="D86">
+        <v>426441</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1024</v>
+      </c>
+      <c r="B87">
+        <v>32</v>
+      </c>
+      <c r="C87">
+        <v>910975</v>
+      </c>
+      <c r="D87">
+        <v>1701290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1024</v>
+      </c>
+      <c r="B88">
+        <v>64</v>
+      </c>
+      <c r="C88">
+        <v>1422570</v>
+      </c>
+      <c r="D88">
+        <v>1699254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1024</v>
+      </c>
+      <c r="B89">
+        <v>128</v>
+      </c>
+      <c r="C89">
+        <v>3130891</v>
+      </c>
+      <c r="D89">
+        <v>4267477</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2048</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>298447</v>
+      </c>
+      <c r="D90">
+        <v>309713</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2048</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>394967</v>
+      </c>
+      <c r="D91">
+        <v>302314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2048</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>273977</v>
+      </c>
+      <c r="D92">
+        <v>278368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2048</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>360659</v>
+      </c>
+      <c r="D93">
+        <v>405532</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2048</v>
+      </c>
+      <c r="B94">
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>653761</v>
+      </c>
+      <c r="D94">
+        <v>839072</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2048</v>
+      </c>
+      <c r="B95">
+        <v>32</v>
+      </c>
+      <c r="C95">
+        <v>1231541</v>
+      </c>
+      <c r="D95">
+        <v>2268381</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2048</v>
+      </c>
+      <c r="B96">
+        <v>64</v>
+      </c>
+      <c r="C96">
+        <v>3152923</v>
+      </c>
+      <c r="D96">
+        <v>3422460</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2048</v>
+      </c>
+      <c r="B97">
+        <v>128</v>
+      </c>
+      <c r="C97">
+        <v>4784235</v>
+      </c>
+      <c r="D97">
+        <v>8947681</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>4096</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>400422</v>
+      </c>
+      <c r="D98">
+        <v>390479</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>4096</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>401410</v>
+      </c>
+      <c r="D99">
+        <v>454246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>4096</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>579974</v>
+      </c>
+      <c r="D100">
+        <v>580464</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>4096</v>
+      </c>
+      <c r="B101">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>761042</v>
+      </c>
+      <c r="D101">
+        <v>780059</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>4096</v>
+      </c>
+      <c r="B102">
+        <v>16</v>
+      </c>
+      <c r="C102">
+        <v>1603060</v>
+      </c>
+      <c r="D102">
+        <v>1821155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>4096</v>
+      </c>
+      <c r="B103">
+        <v>32</v>
+      </c>
+      <c r="C103">
+        <v>2472216</v>
+      </c>
+      <c r="D103">
+        <v>3071639</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>4096</v>
+      </c>
+      <c r="B104">
+        <v>64</v>
+      </c>
+      <c r="C104">
+        <v>4844801</v>
+      </c>
+      <c r="D104">
+        <v>8293217</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>4096</v>
+      </c>
+      <c r="B105">
+        <v>128</v>
+      </c>
+      <c r="C105">
+        <v>9698346</v>
+      </c>
+      <c r="D105">
+        <v>17508378</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>8192</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>842921</v>
+      </c>
+      <c r="D106">
+        <v>751148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>8192</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>983224</v>
+      </c>
+      <c r="D107">
+        <v>860779</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>8192</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>1131881</v>
+      </c>
+      <c r="D108">
+        <v>1410313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>8192</v>
+      </c>
+      <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>2190752</v>
+      </c>
+      <c r="D109">
+        <v>2034690</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>8192</v>
+      </c>
+      <c r="B110">
+        <v>16</v>
+      </c>
+      <c r="C110">
+        <v>2956960</v>
+      </c>
+      <c r="D110">
+        <v>3273604</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>8192</v>
+      </c>
+      <c r="B111">
+        <v>32</v>
+      </c>
+      <c r="C111">
+        <v>5274463</v>
+      </c>
+      <c r="D111">
+        <v>7934891</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>8192</v>
+      </c>
+      <c r="B112">
+        <v>64</v>
+      </c>
+      <c r="C112">
+        <v>10077985</v>
+      </c>
+      <c r="D112">
+        <v>16644699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>8192</v>
+      </c>
+      <c r="B113">
+        <v>128</v>
+      </c>
+      <c r="C113">
+        <v>24320113</v>
+      </c>
+      <c r="D113">
+        <v>35052990</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>16384</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1717727</v>
+      </c>
+      <c r="D114">
+        <v>1938938</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>16384</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>1840599</v>
+      </c>
+      <c r="D115">
+        <v>1816572</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>16384</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>2486444</v>
+      </c>
+      <c r="D116">
+        <v>2291711</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>16384</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>3705395</v>
+      </c>
+      <c r="D117">
+        <v>3816886</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>16384</v>
+      </c>
+      <c r="B118">
+        <v>16</v>
+      </c>
+      <c r="C118">
+        <v>6901154</v>
+      </c>
+      <c r="D118">
+        <v>8518767</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>16384</v>
+      </c>
+      <c r="B119">
+        <v>32</v>
+      </c>
+      <c r="C119">
+        <v>14561505</v>
+      </c>
+      <c r="D119">
+        <v>16270800</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>16384</v>
+      </c>
+      <c r="B120">
+        <v>64</v>
+      </c>
+      <c r="C120">
+        <v>23099681</v>
+      </c>
+      <c r="D120">
+        <v>34883416</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>16384</v>
+      </c>
+      <c r="B121">
+        <v>128</v>
+      </c>
+      <c r="C121">
+        <v>43662145</v>
+      </c>
+      <c r="D121">
+        <v>70781913</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>32768</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>3319101</v>
+      </c>
+      <c r="D122">
+        <v>3109194</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>32768</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>3519016</v>
+      </c>
+      <c r="D123">
+        <v>3881180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>32768</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>4641781</v>
+      </c>
+      <c r="D124">
+        <v>4457812</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>32768</v>
+      </c>
+      <c r="B125">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>6932428</v>
+      </c>
+      <c r="D125">
+        <v>7252776</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>32768</v>
+      </c>
+      <c r="B126">
+        <v>16</v>
+      </c>
+      <c r="C126">
+        <v>11711801</v>
+      </c>
+      <c r="D126">
+        <v>15451524</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>32768</v>
+      </c>
+      <c r="B127">
+        <v>32</v>
+      </c>
+      <c r="C127">
+        <v>19270740</v>
+      </c>
+      <c r="D127">
+        <v>28523864</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>32768</v>
+      </c>
+      <c r="B128">
+        <v>64</v>
+      </c>
+      <c r="C128">
+        <v>43698220</v>
+      </c>
+      <c r="D128">
+        <v>66527833</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>32768</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129">
+        <v>85424923</v>
+      </c>
+      <c r="D129">
+        <v>131958478</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>65536</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>6365283</v>
+      </c>
+      <c r="D130">
+        <v>6389573</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>65536</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>8039568</v>
+      </c>
+      <c r="D131">
+        <v>7967879</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>65536</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>9188374</v>
+      </c>
+      <c r="D132">
+        <v>10434703</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>65536</v>
+      </c>
+      <c r="B133">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>13211886</v>
+      </c>
+      <c r="D133">
+        <v>15135357</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>65536</v>
+      </c>
+      <c r="B134">
+        <v>16</v>
+      </c>
+      <c r="C134">
+        <v>22972016</v>
+      </c>
+      <c r="D134">
+        <v>27334150</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>65536</v>
+      </c>
+      <c r="B135">
+        <v>32</v>
+      </c>
+      <c r="C135">
+        <v>40830410</v>
+      </c>
+      <c r="D135">
+        <v>53774760</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>65536</v>
+      </c>
+      <c r="B136">
+        <v>64</v>
+      </c>
+      <c r="C136">
+        <v>82404384</v>
+      </c>
+      <c r="D136">
+        <v>125470690</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>65536</v>
+      </c>
+      <c r="B137">
+        <v>128</v>
+      </c>
+      <c r="C137">
+        <v>151076190</v>
+      </c>
+      <c r="D137">
+        <v>263384482</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>131072</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>12703600</v>
+      </c>
+      <c r="D138">
+        <v>13225633</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>131072</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>14277002</v>
+      </c>
+      <c r="D139">
+        <v>14333312</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>131072</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>17476804</v>
+      </c>
+      <c r="D140">
+        <v>18361082</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>131072</v>
+      </c>
+      <c r="B141">
+        <v>8</v>
+      </c>
+      <c r="C141">
+        <v>24947108</v>
+      </c>
+      <c r="D141">
+        <v>26240045</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>131072</v>
+      </c>
+      <c r="B142">
+        <v>16</v>
+      </c>
+      <c r="C142">
+        <v>45341168</v>
+      </c>
+      <c r="D142">
+        <v>55906019</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>131072</v>
+      </c>
+      <c r="B143">
+        <v>32</v>
+      </c>
+      <c r="C143">
+        <v>79820559</v>
+      </c>
+      <c r="D143">
+        <v>102519469</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>131072</v>
+      </c>
+      <c r="B144">
+        <v>64</v>
+      </c>
+      <c r="C144">
+        <v>163992203</v>
+      </c>
+      <c r="D144">
+        <v>239145431</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>131072</v>
+      </c>
+      <c r="B145">
+        <v>128</v>
+      </c>
+      <c r="C145">
+        <v>307353725</v>
+      </c>
+      <c r="D145">
+        <v>524654720</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>262144</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>26338201</v>
+      </c>
+      <c r="D146">
+        <v>25934523</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>262144</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147">
+        <v>29506953</v>
+      </c>
+      <c r="D147">
+        <v>29154066</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>262144</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>36353512</v>
+      </c>
+      <c r="D148">
+        <v>36850684</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>262144</v>
+      </c>
+      <c r="B149">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>55020392</v>
+      </c>
+      <c r="D149">
+        <v>57781509</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>262144</v>
+      </c>
+      <c r="B150">
+        <v>16</v>
+      </c>
+      <c r="C150">
+        <v>92523748</v>
+      </c>
+      <c r="D150">
+        <v>110148111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>262144</v>
+      </c>
+      <c r="B151">
+        <v>32</v>
+      </c>
+      <c r="C151">
+        <v>166249215</v>
+      </c>
+      <c r="D151">
+        <v>205518365</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>262144</v>
+      </c>
+      <c r="B152">
+        <v>64</v>
+      </c>
+      <c r="C152">
+        <v>323363757</v>
+      </c>
+      <c r="D152">
+        <v>471853394</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>262144</v>
+      </c>
+      <c r="B153">
+        <v>128</v>
+      </c>
+      <c r="C153">
+        <v>645208405</v>
+      </c>
+      <c r="D153">
+        <v>1150823107</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>524288</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>67056444</v>
+      </c>
+      <c r="D154">
+        <v>61872403</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>524288</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>71769102</v>
+      </c>
+      <c r="D155">
+        <v>73273517</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>524288</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>96187192</v>
+      </c>
+      <c r="D156">
+        <v>93592367</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>524288</v>
+      </c>
+      <c r="B157">
+        <v>8</v>
+      </c>
+      <c r="C157">
+        <v>132337852</v>
+      </c>
+      <c r="D157">
+        <v>135911661</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>524288</v>
+      </c>
+      <c r="B158">
+        <v>16</v>
+      </c>
+      <c r="C158">
+        <v>210987376</v>
+      </c>
+      <c r="D158">
+        <v>248062312</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>524288</v>
+      </c>
+      <c r="B159">
+        <v>32</v>
+      </c>
+      <c r="C159">
+        <v>328885940</v>
+      </c>
+      <c r="D159">
+        <v>447466976</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>524288</v>
+      </c>
+      <c r="B160">
+        <v>64</v>
+      </c>
+      <c r="C160">
+        <v>919797635</v>
+      </c>
+      <c r="D160">
+        <v>1735712027</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>524288</v>
+      </c>
+      <c r="B161">
+        <v>128</v>
+      </c>
+      <c r="C161">
+        <v>2040651651</v>
+      </c>
+      <c r="D161">
+        <v>2352567917</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>1048576</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>111112493</v>
+      </c>
+      <c r="D162">
+        <v>108319239</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>1048576</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>165142477</v>
+      </c>
+      <c r="D163">
+        <v>200263117</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>1048576</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>430721464</v>
+      </c>
+      <c r="D164">
+        <v>179203590</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>1048576</v>
+      </c>
+      <c r="B165">
+        <v>8</v>
+      </c>
+      <c r="C165">
+        <v>253937289</v>
+      </c>
+      <c r="D165">
+        <v>226021956</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>1048576</v>
+      </c>
+      <c r="B166">
+        <v>16</v>
+      </c>
+      <c r="C166">
+        <v>377006898</v>
+      </c>
+      <c r="D166">
+        <v>433362902</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>1048576</v>
+      </c>
+      <c r="B167">
+        <v>32</v>
+      </c>
+      <c r="C167">
+        <v>698643489</v>
+      </c>
+      <c r="D167">
+        <v>913464529</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>1048576</v>
+      </c>
+      <c r="B168">
+        <v>64</v>
+      </c>
+      <c r="C168">
+        <v>1368454166</v>
+      </c>
+      <c r="D168">
+        <v>1758761041</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>1048576</v>
+      </c>
+      <c r="B169">
+        <v>128</v>
+      </c>
+      <c r="C169">
+        <v>2845910310</v>
+      </c>
+      <c r="D169">
+        <v>5101430442</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>2097152</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>210577286</v>
+      </c>
+      <c r="D170">
+        <v>214319001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>2097152</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>233776333</v>
+      </c>
+      <c r="D171">
+        <v>221885763</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>2097152</v>
+      </c>
+      <c r="B172">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>286991859</v>
+      </c>
+      <c r="D172">
+        <v>326760827</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>2097152</v>
+      </c>
+      <c r="B173">
+        <v>8</v>
+      </c>
+      <c r="C173">
+        <v>426389957</v>
+      </c>
+      <c r="D173">
+        <v>454766260</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>2097152</v>
+      </c>
+      <c r="B174">
+        <v>16</v>
+      </c>
+      <c r="C174">
+        <v>796769452</v>
+      </c>
+      <c r="D174">
+        <v>906524626</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>2097152</v>
+      </c>
+      <c r="B175">
+        <v>32</v>
+      </c>
+      <c r="C175">
+        <v>1391350852</v>
+      </c>
+      <c r="D175">
+        <v>1858187783</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>2097152</v>
+      </c>
+      <c r="B176">
+        <v>64</v>
+      </c>
+      <c r="C176">
+        <v>3702771082</v>
+      </c>
+      <c r="D176">
+        <v>3323353290</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>2097152</v>
+      </c>
+      <c r="B177">
+        <v>128</v>
+      </c>
+      <c r="C177">
+        <v>4978604324</v>
+      </c>
+      <c r="D177">
+        <v>8687774663</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>4194304</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>411507442</v>
+      </c>
+      <c r="D178">
+        <v>431575740</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>4194304</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>446421270</v>
+      </c>
+      <c r="D179">
+        <v>439444456</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>4194304</v>
+      </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>557813576</v>
+      </c>
+      <c r="D180">
+        <v>571280947</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>4194304</v>
+      </c>
+      <c r="B181">
+        <v>8</v>
+      </c>
+      <c r="C181">
+        <v>846128584</v>
+      </c>
+      <c r="D181">
+        <v>880361782</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>4194304</v>
+      </c>
+      <c r="B182">
+        <v>16</v>
+      </c>
+      <c r="C182">
+        <v>1486413867</v>
+      </c>
+      <c r="D182">
+        <v>1783637673</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>4194304</v>
+      </c>
+      <c r="B183">
+        <v>32</v>
+      </c>
+      <c r="C183">
+        <v>2737043497</v>
+      </c>
+      <c r="D183">
+        <v>3477438846</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>4194304</v>
+      </c>
+      <c r="B184">
+        <v>64</v>
+      </c>
+      <c r="C184">
+        <v>5266701789</v>
+      </c>
+      <c r="D184">
+        <v>7095574950</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>4194304</v>
+      </c>
+      <c r="B185">
+        <v>128</v>
+      </c>
+      <c r="C185">
+        <v>9885520998</v>
+      </c>
+      <c r="D185">
+        <v>17633443865</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>8388608</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>798264758</v>
+      </c>
+      <c r="D186">
+        <v>794098612</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>8388608</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>919566813</v>
+      </c>
+      <c r="D187">
+        <v>877870812</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>8388608</v>
+      </c>
+      <c r="B188">
+        <v>4</v>
+      </c>
+      <c r="C188">
+        <v>1137244469</v>
+      </c>
+      <c r="D188">
+        <v>1197426353</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>8388608</v>
+      </c>
+      <c r="B189">
+        <v>8</v>
+      </c>
+      <c r="C189">
+        <v>1723878021</v>
+      </c>
+      <c r="D189">
+        <v>1843294446</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>8388608</v>
+      </c>
+      <c r="B190">
+        <v>16</v>
+      </c>
+      <c r="C190">
+        <v>2989449606</v>
+      </c>
+      <c r="D190">
+        <v>3497100849</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>8388608</v>
+      </c>
+      <c r="B191">
+        <v>32</v>
+      </c>
+      <c r="C191">
+        <v>5388403407</v>
+      </c>
+      <c r="D191">
+        <v>6705726092</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>8388608</v>
+      </c>
+      <c r="B192">
+        <v>64</v>
+      </c>
+      <c r="C192">
+        <v>10736889688</v>
+      </c>
+      <c r="D192">
+        <v>14494464267</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>8388608</v>
+      </c>
+      <c r="B193">
+        <v>128</v>
+      </c>
+      <c r="C193">
+        <v>21005671812</v>
+      </c>
+      <c r="D193">
+        <v>36451145329</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D193">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="128"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/tests/results/diagrams.xlsx
+++ b/tests/results/diagrams.xlsx
@@ -9,17 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="insert columns" sheetId="1" r:id="rId1"/>
     <sheet name="insert rows" sheetId="2" r:id="rId2"/>
+    <sheet name="scan test" sheetId="3" r:id="rId3"/>
+    <sheet name="scan test 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'insert columns'!$A$1:$F$192</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'insert rows'!$A$1:$D$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'scan test'!$A$1:$D$32</definedName>
     <definedName name="times_insert" localSheetId="0">'insert columns'!$A$2:$D$192</definedName>
     <definedName name="times_insert" localSheetId="1">'insert rows'!$A$1:$D$193</definedName>
+    <definedName name="times_scan" localSheetId="2">'scan test'!$A$1:$D$32</definedName>
+    <definedName name="times_scan_2" localSheetId="3">'scan test 2'!$A$1:$D$38</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -55,11 +60,31 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" name="times_scan" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/build/times_scan.csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="times_scan_2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/times_scan_2.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>rows</t>
   </si>
@@ -77,6 +102,18 @@
   </si>
   <si>
     <t xml:space="preserve"> time ns col store</t>
+  </si>
+  <si>
+    <t>ns rowstore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ns columnstore</t>
+  </si>
+  <si>
+    <t>ms rowstore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ms columnstore</t>
   </si>
 </sst>
 </file>
@@ -1670,11 +1707,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1886872400"/>
-        <c:axId val="1886874448"/>
+        <c:axId val="-2087890496"/>
+        <c:axId val="-2045486320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1886872400"/>
+        <c:axId val="-2087890496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1717,7 +1754,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1886874448"/>
+        <c:crossAx val="-2045486320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1725,7 +1762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1886874448"/>
+        <c:axId val="-2045486320"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1831,7 +1868,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1886872400"/>
+        <c:crossAx val="-2087890496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1934,7 +1971,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2415,11 +2451,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1886925936"/>
-        <c:axId val="1886929200"/>
+        <c:axId val="-2087853152"/>
+        <c:axId val="-2087849888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1886925936"/>
+        <c:axId val="-2087853152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2461,7 +2497,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1886929200"/>
+        <c:crossAx val="-2087849888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2469,7 +2505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1886929200"/>
+        <c:axId val="-2087849888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2490,7 +2526,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2550,7 +2585,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1886925936"/>
+        <c:crossAx val="-2087853152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2653,7 +2688,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3134,11 +3168,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1886972432"/>
-        <c:axId val="1886975696"/>
+        <c:axId val="-2045432688"/>
+        <c:axId val="-2045429424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1886972432"/>
+        <c:axId val="-2045432688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3181,7 +3215,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1886975696"/>
+        <c:crossAx val="-2045429424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3189,7 +3223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1886975696"/>
+        <c:axId val="-2045429424"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3232,6 +3266,1639 @@
                 <a:r>
                   <a:rPr lang="de-DE"/>
                   <a:t>time log(10)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2045432688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scan test'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'scan test'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scan test'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>columns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'scan test'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scan test'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ns rowstore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'scan test'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>127667.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91218.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316374.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>257667.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>171064.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>311943.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>273827.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>335823.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>735733.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>740795.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>744105.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.056576E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>803633.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.310539E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.023489E6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.329688E6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.916773E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.54524E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.076502E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.910592E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.139595E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3675266E7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9401879E7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.37589243E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scan test'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> ns columnstore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'scan test'!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>119573.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86262.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>314968.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>264395.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90577.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92318.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140895.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>726453.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>738634.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>732948.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>928705.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>714267.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.547643E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>736448.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>832385.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.891878E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.939015E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.845846E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.016562E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.12565E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.320613E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.097884E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.719518E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2045391360"/>
+        <c:axId val="-2045388368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2045391360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2045388368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2045388368"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2045391360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>scan times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scan test'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'scan test'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scan test'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>columns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'scan test'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scan test'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ns rowstore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'scan test'!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>127667.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91218.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316374.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>257667.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>171064.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>311943.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>273827.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>335823.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>735733.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>740795.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>744105.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.056576E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>803633.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.310539E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.023489E6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.329688E6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.916773E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.54524E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.076502E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.910592E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.139595E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3675266E7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9401879E7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.37589243E8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.5492836E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.1188488E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.0005907E7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0581398E7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.07182683E8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.27859585E8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.219642085E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scan test'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> ns columnstore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'scan test'!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>119573.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86262.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>314968.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>264395.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90577.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92318.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140895.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>726453.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>738634.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>732948.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>928705.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>714267.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.547643E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>736448.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>832385.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.891878E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.939015E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.845846E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.016562E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.12565E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.320613E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.097884E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.719518E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.2894966E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.5978122E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9316769E7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.4286861E7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.4534277E7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.30795599E8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.43625981E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2087820448"/>
+        <c:axId val="-2087817456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2087820448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2087817456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2087817456"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time ns log10</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3296,7 +4963,982 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1886972432"/>
+        <c:crossAx val="-2087820448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>scan times log 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scan test 2'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'scan test 2'!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0E8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0E8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0E8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0E8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scan test 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>columns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'scan test 2'!$B$2:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scan test 2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ms rowstore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'scan test 2'!$C$2:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>152414.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104160.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>456611.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>258318.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136339.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>206254.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>511840.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>325473.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>729020.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>737080.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>756309.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>921609.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>870426.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.710449E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.42317E6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.417053E6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.499305E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.441937E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.37442E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.103219E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.249223E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4486135E7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9483935E7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1775681E7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.8683849E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.1689E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.0224596E7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.884852E7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5074613E7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.34762507E8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.27078984E8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.745727835E9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.96091772E8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.92127232E8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.92496299E8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.594324844E9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6877487088E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scan test 2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> ms columnstore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'scan test 2'!$D$2:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>128719.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86854.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>391373.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252625.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125173.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88433.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157203.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138087.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>952859.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>734020.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>999517.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>906483.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>755057.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.556252E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>764816.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>899283.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.065658E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.008872E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.972235E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.314533E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.851194E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.357861E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.906123E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.087767E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.8892694E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.830399E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9403348E7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.8223126E7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.0637029E7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.9643404E7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.09855449E8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.36729126E8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.89844956E8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.93127908E8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.04085979E8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.65163035E8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.227162058E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1977505168"/>
+        <c:axId val="-1977387056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1977505168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1977387056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1977387056"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>nanoseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1977505168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3504,6 +6146,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4686,6 +7448,1515 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5139,12 +9410,120 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>745067</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8135,7 +12514,7 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="61" workbookViewId="0">
+    <sheetView zoomScale="61" workbookViewId="0">
       <selection activeCell="F194" sqref="F194"/>
     </sheetView>
   </sheetViews>
@@ -10861,4 +15240,1030 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>127667</v>
+      </c>
+      <c r="D2">
+        <v>119573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>91218</v>
+      </c>
+      <c r="D3">
+        <v>86262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>316374</v>
+      </c>
+      <c r="D4">
+        <v>314968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>257667</v>
+      </c>
+      <c r="D5">
+        <v>264395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>171064</v>
+      </c>
+      <c r="D6">
+        <v>127004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>311943</v>
+      </c>
+      <c r="D7">
+        <v>90577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10000</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>273827</v>
+      </c>
+      <c r="D8">
+        <v>92318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>335823</v>
+      </c>
+      <c r="D9">
+        <v>140895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>100000</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>735733</v>
+      </c>
+      <c r="D10">
+        <v>726453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100000</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>740795</v>
+      </c>
+      <c r="D11">
+        <v>738634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100000</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>744105</v>
+      </c>
+      <c r="D12">
+        <v>732948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>100000</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1056576</v>
+      </c>
+      <c r="D13">
+        <v>928705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>100000</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>803633</v>
+      </c>
+      <c r="D14">
+        <v>714267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100000</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>2310539</v>
+      </c>
+      <c r="D15">
+        <v>1547643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>100000</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>2023489</v>
+      </c>
+      <c r="D16">
+        <v>736448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100000</v>
+      </c>
+      <c r="B17">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>2329688</v>
+      </c>
+      <c r="D17">
+        <v>832385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1000000</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>6916773</v>
+      </c>
+      <c r="D18">
+        <v>7891878</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1000000</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>7545240</v>
+      </c>
+      <c r="D19">
+        <v>8939015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1000000</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>7076502</v>
+      </c>
+      <c r="D20">
+        <v>6845846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1000000</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>7910592</v>
+      </c>
+      <c r="D21">
+        <v>7016562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1000000</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>9139595</v>
+      </c>
+      <c r="D22">
+        <v>7125650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1000000</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>13675266</v>
+      </c>
+      <c r="D23">
+        <v>7320613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1000000</v>
+      </c>
+      <c r="B24">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>19401879</v>
+      </c>
+      <c r="D24">
+        <v>7097884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1000000</v>
+      </c>
+      <c r="B25">
+        <v>128</v>
+      </c>
+      <c r="C25">
+        <v>337589243</v>
+      </c>
+      <c r="D25">
+        <v>7719518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10000000</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>85492836</v>
+      </c>
+      <c r="D26">
+        <v>72894966</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10000000</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>81188488</v>
+      </c>
+      <c r="D27">
+        <v>75978122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10000000</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>70005907</v>
+      </c>
+      <c r="D28">
+        <v>69316769</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10000000</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>90581398</v>
+      </c>
+      <c r="D29">
+        <v>94286861</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10000000</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>107182683</v>
+      </c>
+      <c r="D30">
+        <v>74534277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10000000</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>527859585</v>
+      </c>
+      <c r="D31">
+        <v>130795599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10000000</v>
+      </c>
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>4219642085</v>
+      </c>
+      <c r="D32">
+        <v>143625981</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D32"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>152414</v>
+      </c>
+      <c r="D2">
+        <v>128719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>104160</v>
+      </c>
+      <c r="D3">
+        <v>86854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>456611</v>
+      </c>
+      <c r="D4">
+        <v>391373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>258318</v>
+      </c>
+      <c r="D5">
+        <v>252625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>136339</v>
+      </c>
+      <c r="D6">
+        <v>125173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>206254</v>
+      </c>
+      <c r="D7">
+        <v>88433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10000</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>511840</v>
+      </c>
+      <c r="D8">
+        <v>157203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>325473</v>
+      </c>
+      <c r="D9">
+        <v>138087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>100000</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>729020</v>
+      </c>
+      <c r="D10">
+        <v>952859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100000</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>737080</v>
+      </c>
+      <c r="D11">
+        <v>734020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100000</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>756309</v>
+      </c>
+      <c r="D12">
+        <v>999517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>100000</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>921609</v>
+      </c>
+      <c r="D13">
+        <v>906483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>100000</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>870426</v>
+      </c>
+      <c r="D14">
+        <v>755057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100000</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>2710449</v>
+      </c>
+      <c r="D15">
+        <v>1556252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>100000</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>2423170</v>
+      </c>
+      <c r="D16">
+        <v>764816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100000</v>
+      </c>
+      <c r="B17">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>3417053</v>
+      </c>
+      <c r="D17">
+        <v>899283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1000000</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>7499305</v>
+      </c>
+      <c r="D18">
+        <v>8065658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1000000</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>7441937</v>
+      </c>
+      <c r="D19">
+        <v>9008872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1000000</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>7374420</v>
+      </c>
+      <c r="D20">
+        <v>6972235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1000000</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>8103219</v>
+      </c>
+      <c r="D21">
+        <v>7314533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1000000</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>7249223</v>
+      </c>
+      <c r="D22">
+        <v>6851194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1000000</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>14486135</v>
+      </c>
+      <c r="D23">
+        <v>7357861</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1000000</v>
+      </c>
+      <c r="B24">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>19483935</v>
+      </c>
+      <c r="D24">
+        <v>6906123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1000000</v>
+      </c>
+      <c r="B25">
+        <v>128</v>
+      </c>
+      <c r="C25">
+        <v>21775681</v>
+      </c>
+      <c r="D25">
+        <v>7087767</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10000000</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>68683849</v>
+      </c>
+      <c r="D26">
+        <v>68892694</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10000000</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>71689000</v>
+      </c>
+      <c r="D27">
+        <v>68303990</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10000000</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>70224596</v>
+      </c>
+      <c r="D28">
+        <v>69403348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10000000</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>68848520</v>
+      </c>
+      <c r="D29">
+        <v>68223126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10000000</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>75074613</v>
+      </c>
+      <c r="D30">
+        <v>70637029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10000000</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>134762507</v>
+      </c>
+      <c r="D31">
+        <v>69643404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10000000</v>
+      </c>
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>927078984</v>
+      </c>
+      <c r="D32">
+        <v>109855449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10000000</v>
+      </c>
+      <c r="B33">
+        <v>128</v>
+      </c>
+      <c r="C33">
+        <v>9745727835</v>
+      </c>
+      <c r="D33">
+        <v>136729126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>100000000</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>696091772</v>
+      </c>
+      <c r="D34">
+        <v>689844956</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>100000000</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>692127232</v>
+      </c>
+      <c r="D35">
+        <v>693127908</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>100000000</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>692496299</v>
+      </c>
+      <c r="D36">
+        <v>704085979</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>100000000</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>2594324844</v>
+      </c>
+      <c r="D37">
+        <v>965163035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>100000000</v>
+      </c>
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>36877487088</v>
+      </c>
+      <c r="D38">
+        <v>2227162058</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/tests/results/diagrams.xlsx
+++ b/tests/results/diagrams.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="insert columns" sheetId="1" r:id="rId1"/>
     <sheet name="insert rows" sheetId="2" r:id="rId2"/>
     <sheet name="scan test" sheetId="3" r:id="rId3"/>
     <sheet name="scan test 2" sheetId="4" r:id="rId4"/>
+    <sheet name="insert 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'insert columns'!$A$1:$F$192</definedName>
@@ -23,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'scan test'!$A$1:$D$32</definedName>
     <definedName name="times_insert" localSheetId="0">'insert columns'!$A$2:$D$192</definedName>
     <definedName name="times_insert" localSheetId="1">'insert rows'!$A$1:$D$193</definedName>
+    <definedName name="times_insert_5" localSheetId="4">'insert 5'!$A$1:$D$33</definedName>
     <definedName name="times_scan" localSheetId="2">'scan test'!$A$1:$D$32</definedName>
     <definedName name="times_scan_2" localSheetId="3">'scan test 2'!$A$1:$D$38</definedName>
   </definedNames>
@@ -50,7 +52,17 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="times_insert1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="2" name="times_insert_5" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/times_insert_5.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="times_insert1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/build/times_insert.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
@@ -60,7 +72,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="times_scan" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="4" name="times_scan" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/build/times_scan.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
@@ -70,8 +82,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="times_scan_2" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/times_scan_2.csv" decimal="," thousands="." comma="1">
+  <connection id="5" name="times_scan_2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/times_scan_2.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -84,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>rows</t>
   </si>
@@ -210,6 +222,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1707,11 +1720,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2087890496"/>
-        <c:axId val="-2045486320"/>
+        <c:axId val="1116613744"/>
+        <c:axId val="1116615792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2087890496"/>
+        <c:axId val="1116613744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,7 +1767,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045486320"/>
+        <c:crossAx val="1116615792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1762,7 +1775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2045486320"/>
+        <c:axId val="1116615792"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1809,6 +1822,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1868,7 +1882,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087890496"/>
+        <c:crossAx val="1116613744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1971,6 +1985,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2451,11 +2466,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2087853152"/>
-        <c:axId val="-2087849888"/>
+        <c:axId val="1090281040"/>
+        <c:axId val="1090284304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2087853152"/>
+        <c:axId val="1090281040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2512,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087849888"/>
+        <c:crossAx val="1090284304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2505,7 +2520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087849888"/>
+        <c:axId val="1090284304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,6 +2541,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2585,7 +2601,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087853152"/>
+        <c:crossAx val="1090281040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2688,6 +2704,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3168,11 +3185,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2045432688"/>
-        <c:axId val="-2045429424"/>
+        <c:axId val="1090323600"/>
+        <c:axId val="1090326864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2045432688"/>
+        <c:axId val="1090323600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3215,7 +3232,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045429424"/>
+        <c:crossAx val="1090326864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3223,7 +3240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2045429424"/>
+        <c:axId val="1090326864"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3270,6 +3287,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3329,7 +3347,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045432688"/>
+        <c:crossAx val="1090323600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3432,7 +3450,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3962,11 +3979,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2045391360"/>
-        <c:axId val="-2045388368"/>
+        <c:axId val="1090372352"/>
+        <c:axId val="1090375344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2045391360"/>
+        <c:axId val="1090372352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4008,7 +4025,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045388368"/>
+        <c:crossAx val="1090375344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4016,7 +4033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2045388368"/>
+        <c:axId val="1090375344"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4067,7 +4084,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045391360"/>
+        <c:crossAx val="1090372352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4081,7 +4098,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4188,7 +4204,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4802,11 +4817,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2087820448"/>
-        <c:axId val="-2087817456"/>
+        <c:axId val="1116643776"/>
+        <c:axId val="1116646768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2087820448"/>
+        <c:axId val="1116643776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4848,7 +4863,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087817456"/>
+        <c:crossAx val="1116646768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4856,7 +4871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087817456"/>
+        <c:axId val="1116646768"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4903,7 +4918,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4963,7 +4977,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087820448"/>
+        <c:crossAx val="1116643776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5777,11 +5791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1977505168"/>
-        <c:axId val="-1977387056"/>
+        <c:axId val="1090404704"/>
+        <c:axId val="1090407696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1977505168"/>
+        <c:axId val="1090404704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5823,7 +5837,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1977387056"/>
+        <c:crossAx val="1090407696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5831,7 +5845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1977387056"/>
+        <c:axId val="1090407696"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5938,7 +5952,922 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1977505168"/>
+        <c:crossAx val="1090404704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>insert times log 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insert 5'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'insert 5'!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insert 5'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>columns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'insert 5'!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insert 5'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time ns row store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'insert 5'!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>154727.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250548.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>457944.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>809444.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.751449E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.68482E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.925534E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.427056E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.465905E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.063025E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.928647E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.737293E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1407276E7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5064737E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.9179602E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.20881931E8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5586307E7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5640436E7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3082305E7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.2718188E7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.72682419E8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.21828179E8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.65501677E8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.177243846E9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.44247025E8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.16567485E8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.33952302E8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.00583818E8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.669610514E9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.086104072E9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.472902193E9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4019349069E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insert 5'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'insert 5'!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>150687.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245398.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>407599.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>760965.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.084969E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.191693E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.502476E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3642793E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.390489E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.037878E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.585513E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.672413E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1702356E7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2041173E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.3198691E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.32713594E8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6929671E7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1140951E7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0667203E7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.7500585E7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.88413044E8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.30064916E8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.58537841E8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2031513E9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.42970209E8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.07294945E8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.33326423E8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.95151588E8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.690094804E9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.77082698E9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.726094553E9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5722238615E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1285608080"/>
+        <c:axId val="1285617152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1285608080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285617152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1285617152"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>nanoseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285608080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6266,6 +7195,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -8808,6 +9777,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9510,20 +10982,59 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_5" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15718,7 +17229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+    <sheetView zoomScale="50" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -16266,4 +17777,488 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>154727</v>
+      </c>
+      <c r="D2">
+        <v>150687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>250548</v>
+      </c>
+      <c r="D3">
+        <v>245398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>457944</v>
+      </c>
+      <c r="D4">
+        <v>407599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>809444</v>
+      </c>
+      <c r="D5">
+        <v>760965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>1751449</v>
+      </c>
+      <c r="D6">
+        <v>2084969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>3684820</v>
+      </c>
+      <c r="D7">
+        <v>3191693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10000</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>6925534</v>
+      </c>
+      <c r="D8">
+        <v>8502476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>14270560</v>
+      </c>
+      <c r="D9">
+        <v>13642793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>100000</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1465905</v>
+      </c>
+      <c r="D10">
+        <v>1390489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100000</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2063025</v>
+      </c>
+      <c r="D11">
+        <v>2037878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100000</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>4928647</v>
+      </c>
+      <c r="D12">
+        <v>3585513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>100000</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>7737293</v>
+      </c>
+      <c r="D13">
+        <v>7672413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>100000</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>21407276</v>
+      </c>
+      <c r="D14">
+        <v>21702356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100000</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>35064737</v>
+      </c>
+      <c r="D15">
+        <v>32041173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>100000</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>69179602</v>
+      </c>
+      <c r="D16">
+        <v>63198691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100000</v>
+      </c>
+      <c r="B17">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>120881931</v>
+      </c>
+      <c r="D17">
+        <v>132713594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1000000</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>15586307</v>
+      </c>
+      <c r="D18">
+        <v>16929671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1000000</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>25640436</v>
+      </c>
+      <c r="D19">
+        <v>31140951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1000000</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>43082305</v>
+      </c>
+      <c r="D20">
+        <v>40667203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1000000</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>72718188</v>
+      </c>
+      <c r="D21">
+        <v>67500585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1000000</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>172682419</v>
+      </c>
+      <c r="D22">
+        <v>188413044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1000000</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>321828179</v>
+      </c>
+      <c r="D23">
+        <v>330064916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1000000</v>
+      </c>
+      <c r="B24">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>665501677</v>
+      </c>
+      <c r="D24">
+        <v>658537841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1000000</v>
+      </c>
+      <c r="B25">
+        <v>128</v>
+      </c>
+      <c r="C25">
+        <v>1177243846</v>
+      </c>
+      <c r="D25">
+        <v>1203151300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10000000</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>144247025</v>
+      </c>
+      <c r="D26">
+        <v>142970209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10000000</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>216567485</v>
+      </c>
+      <c r="D27">
+        <v>207294945</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10000000</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>433952302</v>
+      </c>
+      <c r="D28">
+        <v>433326423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10000000</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>800583818</v>
+      </c>
+      <c r="D29">
+        <v>795151588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10000000</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>1669610514</v>
+      </c>
+      <c r="D30">
+        <v>1690094804</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10000000</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>3086104072</v>
+      </c>
+      <c r="D31">
+        <v>3770826980</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10000000</v>
+      </c>
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>6472902193</v>
+      </c>
+      <c r="D32">
+        <v>7726094553</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10000000</v>
+      </c>
+      <c r="B33">
+        <v>128</v>
+      </c>
+      <c r="C33">
+        <v>14019349069</v>
+      </c>
+      <c r="D33">
+        <v>15722238615</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/tests/results/diagrams.xlsx
+++ b/tests/results/diagrams.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="insert columns" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,10 @@
     <sheet name="scan test" sheetId="3" r:id="rId3"/>
     <sheet name="scan test 2" sheetId="4" r:id="rId4"/>
     <sheet name="insert 5" sheetId="5" r:id="rId5"/>
+    <sheet name="O2-insert" sheetId="6" r:id="rId6"/>
+    <sheet name="O2-scan" sheetId="7" r:id="rId7"/>
+    <sheet name="O3-insert" sheetId="8" r:id="rId8"/>
+    <sheet name="O3-scan" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'insert columns'!$A$1:$F$192</definedName>
@@ -24,7 +28,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'scan test'!$A$1:$D$32</definedName>
     <definedName name="times_insert" localSheetId="0">'insert columns'!$A$2:$D$192</definedName>
     <definedName name="times_insert" localSheetId="1">'insert rows'!$A$1:$D$193</definedName>
+    <definedName name="times_insert" localSheetId="5">'O2-insert'!$A$1:$D$33</definedName>
+    <definedName name="times_insert" localSheetId="7">'O3-insert'!$A$1:$D$33</definedName>
     <definedName name="times_insert_5" localSheetId="4">'insert 5'!$A$1:$D$33</definedName>
+    <definedName name="times_scan" localSheetId="6">'O2-scan'!$A$1:$D$33</definedName>
+    <definedName name="times_scan" localSheetId="8">'O3-scan'!$A$1:$D$33</definedName>
     <definedName name="times_scan" localSheetId="2">'scan test'!$A$1:$D$32</definedName>
     <definedName name="times_scan_2" localSheetId="3">'scan test 2'!$A$1:$D$38</definedName>
   </definedNames>
@@ -53,7 +61,7 @@
     </textPr>
   </connection>
   <connection id="2" name="times_insert_5" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/times_insert_5.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/times_insert_5.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -72,7 +80,27 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="times_scan" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="4" name="times_insert2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/O2/times_insert.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="times_insert3" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/O3/times_insert.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="times_scan" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/build/times_scan.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
@@ -82,8 +110,28 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="times_scan_2" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="7" name="times_scan_2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/times_scan_2.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="times_scan1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/O2/times_scan.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="times_scan2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/O3/times_scan.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -96,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>rows</t>
   </si>
@@ -222,7 +270,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1720,11 +1767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1116613744"/>
-        <c:axId val="1116615792"/>
+        <c:axId val="1644392304"/>
+        <c:axId val="1644394368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1116613744"/>
+        <c:axId val="1644392304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +1814,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1116615792"/>
+        <c:crossAx val="1644394368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1775,7 +1822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1116615792"/>
+        <c:axId val="1644394368"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1818,6 +1865,1836 @@
                 <a:r>
                   <a:rPr lang="de-DE"/>
                   <a:t>time log(10)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1644392304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>insert O3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O3-insert'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'O3-insert'!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O3-insert'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>columns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'O3-insert'!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O3-insert'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time ns row store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'O3-insert'!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>111952.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150945.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230190.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376221.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>902158.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.788347E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.989239E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.822983E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>824273.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>965572.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.506539E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.250877E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1111334E7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3223926E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8876021E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.1945505E7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.146136E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0065632E7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.951958E7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9234747E7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.4743537E7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.56765789E8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.63960913E8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.81389931E8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2024136E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.2238062E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.20418873E8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.83261483E8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.07746746E8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.487219248E9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.822563948E9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.354297775E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O3-insert'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'O3-insert'!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>75431.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136592.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>208130.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>425442.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>795216.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.531869E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.271018E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1171E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>671049.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>940296.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.550008E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.643144E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3986794E7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1658771E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8443995E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8399973E7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.684437E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.722559E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7391645E7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.883094E7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.5943913E7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.54283052E8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.63867072E8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.97694855E8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.1689393E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.8221018E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.12742862E8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.94143995E8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.60100042E8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.534500582E9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.497000992E9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3377616221E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1693384800"/>
+        <c:axId val="1798284912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1693384800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1798284912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1798284912"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1693384800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>scan O3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O3-scan'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'O3-scan'!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O3-scan'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>columns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'O3-scan'!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O3-scan'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ms rowstore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'O3-scan'!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>58566.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53336.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87574.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97737.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60027.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128459.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>366815.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199155.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>340700.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>313198.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>285772.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>459747.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>795651.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.977552E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.255176E6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.429018E6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.761686E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.593117E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.781466E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.73232E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.861333E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2077317E7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4419596E7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6195894E7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8464471E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7924052E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8068011E7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3918182E7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6242585E7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.47797689E8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.514645296E9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4697590291E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O3-scan'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> ms columnstore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'O3-scan'!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>48235.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53222.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54447.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99529.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48147.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34754.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36370.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57084.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>275862.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>279984.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>271478.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>366864.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>462855.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>763181.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>299938.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>302390.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.25569E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.515037E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.528096E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.192492E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.526529E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.845717E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.73497E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.978463E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6247706E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.571076E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6601761E7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1516765E7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5577027E7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7747488E7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.3259343E7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.5389835E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1348496416"/>
+        <c:axId val="1800578576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1348496416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1800578576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1800578576"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time ns</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1882,7 +3759,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1116613744"/>
+        <c:crossAx val="1348496416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1985,7 +3862,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2466,11 +4342,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1090281040"/>
-        <c:axId val="1090284304"/>
+        <c:axId val="1645503344"/>
+        <c:axId val="1645506608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1090281040"/>
+        <c:axId val="1645503344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2512,7 +4388,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090284304"/>
+        <c:crossAx val="1645506608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2520,7 +4396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1090284304"/>
+        <c:axId val="1645506608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2541,7 +4417,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2601,7 +4476,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090281040"/>
+        <c:crossAx val="1645503344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2704,7 +4579,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3185,11 +5059,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1090323600"/>
-        <c:axId val="1090326864"/>
+        <c:axId val="1644464128"/>
+        <c:axId val="1644467392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1090323600"/>
+        <c:axId val="1644464128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3232,7 +5106,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090326864"/>
+        <c:crossAx val="1644467392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3240,7 +5114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1090326864"/>
+        <c:axId val="1644467392"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3287,7 +5161,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3347,7 +5220,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090323600"/>
+        <c:crossAx val="1644464128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3979,11 +5852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1090372352"/>
-        <c:axId val="1090375344"/>
+        <c:axId val="1645530976"/>
+        <c:axId val="1645533968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1090372352"/>
+        <c:axId val="1645530976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4025,7 +5898,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090375344"/>
+        <c:crossAx val="1645533968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4033,7 +5906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1090375344"/>
+        <c:axId val="1645533968"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4084,7 +5957,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090372352"/>
+        <c:crossAx val="1645530976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4817,11 +6690,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1116643776"/>
-        <c:axId val="1116646768"/>
+        <c:axId val="1645578528"/>
+        <c:axId val="1645581520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1116643776"/>
+        <c:axId val="1645578528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4863,7 +6736,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1116646768"/>
+        <c:crossAx val="1645581520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4871,7 +6744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1116646768"/>
+        <c:axId val="1645581520"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4977,7 +6850,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1116643776"/>
+        <c:crossAx val="1645578528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5105,7 +6978,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5791,11 +7663,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1090404704"/>
-        <c:axId val="1090407696"/>
+        <c:axId val="1644523360"/>
+        <c:axId val="1644526352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1090404704"/>
+        <c:axId val="1644523360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5837,7 +7709,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090407696"/>
+        <c:crossAx val="1644526352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5845,7 +7717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1090407696"/>
+        <c:axId val="1644526352"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5892,7 +7764,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5952,7 +7823,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090404704"/>
+        <c:crossAx val="1644523360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6706,11 +8577,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1285608080"/>
-        <c:axId val="1285617152"/>
+        <c:axId val="1644567952"/>
+        <c:axId val="1644570944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1285608080"/>
+        <c:axId val="1644567952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6752,7 +8623,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285617152"/>
+        <c:crossAx val="1644570944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6760,7 +8631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1285617152"/>
+        <c:axId val="1644570944"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6867,7 +8738,1837 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285608080"/>
+        <c:crossAx val="1644567952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>insert O2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O2-insert'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'O2-insert'!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O2-insert'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>columns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'O2-insert'!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O2-insert'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time ns row store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'O2-insert'!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>86249.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>229153.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>366988.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>607256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>917022.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.136985E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.509708E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.84354E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>595460.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>892072.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.55082E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.778368E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0006367E7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8102798E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8876248E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8895241E7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.117196E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3604998E7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7471356E7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9157366E7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.9007799E7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4591013E8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.14663183E8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.40401149E8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.9597858E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.7038827E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.13527435E8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.80334073E8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.345028E8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.390006611E9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.820842973E9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.633658566E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O2-insert'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'O2-insert'!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>85635.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>219985.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>447437.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>471077.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>961159.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.140814E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.801249E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.866083E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>609082.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>924232.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.765331E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.284143E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0236717E7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5190543E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2580859E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9474821E7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.46711E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1415222E7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7337999E7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1923763E7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.8896724E7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5426038E8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1152355E8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.50791433E8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.1571292E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.02985085E8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.18238882E8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9772098E8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.76806117E8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.60280082E9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.567967117E9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3269607697E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1573976608"/>
+        <c:axId val="1694212032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1573976608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1694212032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1694212032"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1573976608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>scan O2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O2-scan'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'O2-scan'!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O2-scan'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>columns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'O2-scan'!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O2-scan'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ms rowstore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'O2-scan'!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>57327.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37251.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38386.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90951.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127026.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>365788.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>185502.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>702766.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>471241.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>320805.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.046732E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>513437.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>911982.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.622856E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.486058E6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.606499E6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.603951E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.532132E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.953627E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.208031E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.696352E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.554485E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0980315E7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3389151E7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8453333E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9606834E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8935232E7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9385851E7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.1304688E7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.56804048E8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.626233125E9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4148828743E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O2-scan'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> ms columnstore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'O2-scan'!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>48865.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33319.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35209.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92652.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72826.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39668.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66610.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84320.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>345247.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>286272.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>584481.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>364233.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>473756.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>680449.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>306934.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>354604.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.593385E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.736144E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.799378E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.612035E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.867647E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.853457E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.788902E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.953577E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8752281E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5109965E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9750577E7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.510517E7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7853852E7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.7941905E7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7600029E7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.626745E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1750321152"/>
+        <c:axId val="1750322928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1750321152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1750322928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1750322928"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1750321152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6956,6 +10657,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7235,6 +11016,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -7738,8 +11599,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7847,11 +11708,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7862,11 +11718,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7898,9 +11749,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8254,8 +12102,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8363,11 +12211,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8378,11 +12221,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8414,9 +12252,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8770,8 +12605,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8879,6 +12714,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8889,6 +12729,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8920,6 +12765,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9273,8 +13121,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9382,6 +13230,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9392,6 +13245,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9423,6 +13281,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9776,7 +13637,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10279,7 +14140,2019 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11017,6 +16890,146 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -11026,15 +17039,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_5" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17783,7 +23812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+    <sheetView topLeftCell="D7" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -18261,4 +24290,1940 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>86249</v>
+      </c>
+      <c r="D2">
+        <v>85635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>229153</v>
+      </c>
+      <c r="D3">
+        <v>219985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>366988</v>
+      </c>
+      <c r="D4">
+        <v>447437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>607256</v>
+      </c>
+      <c r="D5">
+        <v>471077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>917022</v>
+      </c>
+      <c r="D6">
+        <v>961159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>2136985</v>
+      </c>
+      <c r="D7">
+        <v>2140814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10000</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>3509708</v>
+      </c>
+      <c r="D8">
+        <v>3801249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>5843540</v>
+      </c>
+      <c r="D9">
+        <v>6866083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>100000</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>595460</v>
+      </c>
+      <c r="D10">
+        <v>609082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100000</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>892072</v>
+      </c>
+      <c r="D11">
+        <v>924232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100000</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1550820</v>
+      </c>
+      <c r="D12">
+        <v>1765331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>100000</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>2778368</v>
+      </c>
+      <c r="D13">
+        <v>3284143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>100000</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>10006367</v>
+      </c>
+      <c r="D14">
+        <v>10236717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100000</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>18102798</v>
+      </c>
+      <c r="D15">
+        <v>25190543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>100000</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>38876248</v>
+      </c>
+      <c r="D16">
+        <v>32580859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100000</v>
+      </c>
+      <c r="B17">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>78895241</v>
+      </c>
+      <c r="D17">
+        <v>69474821</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1000000</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>9117196</v>
+      </c>
+      <c r="D18">
+        <v>7467110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1000000</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>13604998</v>
+      </c>
+      <c r="D19">
+        <v>11415222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1000000</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>17471356</v>
+      </c>
+      <c r="D20">
+        <v>17337999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1000000</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>29157366</v>
+      </c>
+      <c r="D21">
+        <v>31923763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1000000</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>79007799</v>
+      </c>
+      <c r="D22">
+        <v>78896724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1000000</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>145910130</v>
+      </c>
+      <c r="D23">
+        <v>154260380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1000000</v>
+      </c>
+      <c r="B24">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>314663183</v>
+      </c>
+      <c r="D24">
+        <v>411523550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1000000</v>
+      </c>
+      <c r="B25">
+        <v>128</v>
+      </c>
+      <c r="C25">
+        <v>640401149</v>
+      </c>
+      <c r="D25">
+        <v>650791433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10000000</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>69597858</v>
+      </c>
+      <c r="D26">
+        <v>71571292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10000000</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>97038827</v>
+      </c>
+      <c r="D27">
+        <v>102985085</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10000000</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>213527435</v>
+      </c>
+      <c r="D28">
+        <v>218238882</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10000000</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>380334073</v>
+      </c>
+      <c r="D29">
+        <v>397720980</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10000000</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>734502800</v>
+      </c>
+      <c r="D30">
+        <v>776806117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10000000</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>1390006611</v>
+      </c>
+      <c r="D31">
+        <v>1602800820</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10000000</v>
+      </c>
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>2820842973</v>
+      </c>
+      <c r="D32">
+        <v>3567967117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10000000</v>
+      </c>
+      <c r="B33">
+        <v>128</v>
+      </c>
+      <c r="C33">
+        <v>6633658566</v>
+      </c>
+      <c r="D33">
+        <v>13269607697</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>57327</v>
+      </c>
+      <c r="D2">
+        <v>48865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>37251</v>
+      </c>
+      <c r="D3">
+        <v>33319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>38386</v>
+      </c>
+      <c r="D4">
+        <v>35209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>90951</v>
+      </c>
+      <c r="D5">
+        <v>92652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>127026</v>
+      </c>
+      <c r="D6">
+        <v>72826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>365788</v>
+      </c>
+      <c r="D7">
+        <v>39668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10000</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>185502</v>
+      </c>
+      <c r="D8">
+        <v>66610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>702766</v>
+      </c>
+      <c r="D9">
+        <v>84320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>100000</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>471241</v>
+      </c>
+      <c r="D10">
+        <v>345247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100000</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>320805</v>
+      </c>
+      <c r="D11">
+        <v>286272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100000</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1046732</v>
+      </c>
+      <c r="D12">
+        <v>584481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>100000</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>513437</v>
+      </c>
+      <c r="D13">
+        <v>364233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>100000</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>911982</v>
+      </c>
+      <c r="D14">
+        <v>473756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100000</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>2622856</v>
+      </c>
+      <c r="D15">
+        <v>680449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>100000</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>2486058</v>
+      </c>
+      <c r="D16">
+        <v>306934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100000</v>
+      </c>
+      <c r="B17">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>1606499</v>
+      </c>
+      <c r="D17">
+        <v>354604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1000000</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2603951</v>
+      </c>
+      <c r="D18">
+        <v>2593385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1000000</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3532132</v>
+      </c>
+      <c r="D19">
+        <v>2736144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1000000</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>4953627</v>
+      </c>
+      <c r="D20">
+        <v>2799378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1000000</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>3208031</v>
+      </c>
+      <c r="D21">
+        <v>2612035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1000000</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>6696352</v>
+      </c>
+      <c r="D22">
+        <v>2867647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1000000</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>9554485</v>
+      </c>
+      <c r="D23">
+        <v>2853457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1000000</v>
+      </c>
+      <c r="B24">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>10980315</v>
+      </c>
+      <c r="D24">
+        <v>2788902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1000000</v>
+      </c>
+      <c r="B25">
+        <v>128</v>
+      </c>
+      <c r="C25">
+        <v>13389151</v>
+      </c>
+      <c r="D25">
+        <v>2953577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10000000</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>28453333</v>
+      </c>
+      <c r="D26">
+        <v>28752281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10000000</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>29606834</v>
+      </c>
+      <c r="D27">
+        <v>25109965</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10000000</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>28935232</v>
+      </c>
+      <c r="D28">
+        <v>29750577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10000000</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>29385851</v>
+      </c>
+      <c r="D29">
+        <v>25105170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10000000</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>71304688</v>
+      </c>
+      <c r="D30">
+        <v>27853852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10000000</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>456804048</v>
+      </c>
+      <c r="D31">
+        <v>87941905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10000000</v>
+      </c>
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>2626233125</v>
+      </c>
+      <c r="D32">
+        <v>77600029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10000000</v>
+      </c>
+      <c r="B33">
+        <v>128</v>
+      </c>
+      <c r="C33">
+        <v>14148828743</v>
+      </c>
+      <c r="D33">
+        <v>76267450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection sqref="A1:D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>111952</v>
+      </c>
+      <c r="D2">
+        <v>75431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>150945</v>
+      </c>
+      <c r="D3">
+        <v>136592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>230190</v>
+      </c>
+      <c r="D4">
+        <v>208130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>376221</v>
+      </c>
+      <c r="D5">
+        <v>425442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>902158</v>
+      </c>
+      <c r="D6">
+        <v>795216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>1788347</v>
+      </c>
+      <c r="D7">
+        <v>1531869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10000</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>2989239</v>
+      </c>
+      <c r="D8">
+        <v>3271018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>5822983</v>
+      </c>
+      <c r="D9">
+        <v>8117100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>100000</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>824273</v>
+      </c>
+      <c r="D10">
+        <v>671049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100000</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>965572</v>
+      </c>
+      <c r="D11">
+        <v>940296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100000</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1506539</v>
+      </c>
+      <c r="D12">
+        <v>1550008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>100000</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>4250877</v>
+      </c>
+      <c r="D13">
+        <v>4643144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>100000</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>11111334</v>
+      </c>
+      <c r="D14">
+        <v>13986794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100000</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>23223926</v>
+      </c>
+      <c r="D15">
+        <v>21658771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>100000</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>28876021</v>
+      </c>
+      <c r="D16">
+        <v>38443995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100000</v>
+      </c>
+      <c r="B17">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>71945505</v>
+      </c>
+      <c r="D17">
+        <v>68399973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1000000</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>7146136</v>
+      </c>
+      <c r="D18">
+        <v>7684437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1000000</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>10065632</v>
+      </c>
+      <c r="D19">
+        <v>9722559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1000000</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>19519580</v>
+      </c>
+      <c r="D20">
+        <v>17391645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1000000</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>29234747</v>
+      </c>
+      <c r="D21">
+        <v>48830940</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1000000</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>94743537</v>
+      </c>
+      <c r="D22">
+        <v>85943913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1000000</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>156765789</v>
+      </c>
+      <c r="D23">
+        <v>154283052</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1000000</v>
+      </c>
+      <c r="B24">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>363960913</v>
+      </c>
+      <c r="D24">
+        <v>363867072</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1000000</v>
+      </c>
+      <c r="B25">
+        <v>128</v>
+      </c>
+      <c r="C25">
+        <v>681389931</v>
+      </c>
+      <c r="D25">
+        <v>697694855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10000000</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>62024136</v>
+      </c>
+      <c r="D26">
+        <v>61689393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10000000</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>92238062</v>
+      </c>
+      <c r="D27">
+        <v>98221018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10000000</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>220418873</v>
+      </c>
+      <c r="D28">
+        <v>212742862</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10000000</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>383261483</v>
+      </c>
+      <c r="D29">
+        <v>394143995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10000000</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>707746746</v>
+      </c>
+      <c r="D30">
+        <v>760100042</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10000000</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>1487219248</v>
+      </c>
+      <c r="D31">
+        <v>1534500582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10000000</v>
+      </c>
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>2822563948</v>
+      </c>
+      <c r="D32">
+        <v>3497000992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10000000</v>
+      </c>
+      <c r="B33">
+        <v>128</v>
+      </c>
+      <c r="C33">
+        <v>6354297775</v>
+      </c>
+      <c r="D33">
+        <v>13377616221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>58566</v>
+      </c>
+      <c r="D2">
+        <v>48235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>53336</v>
+      </c>
+      <c r="D3">
+        <v>53222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>87574</v>
+      </c>
+      <c r="D4">
+        <v>54447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>97737</v>
+      </c>
+      <c r="D5">
+        <v>99529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>60027</v>
+      </c>
+      <c r="D6">
+        <v>48147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>128459</v>
+      </c>
+      <c r="D7">
+        <v>34754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10000</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>366815</v>
+      </c>
+      <c r="D8">
+        <v>36370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>199155</v>
+      </c>
+      <c r="D9">
+        <v>57084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>100000</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>340700</v>
+      </c>
+      <c r="D10">
+        <v>275862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100000</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>313198</v>
+      </c>
+      <c r="D11">
+        <v>279984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100000</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>285772</v>
+      </c>
+      <c r="D12">
+        <v>271478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>100000</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>459747</v>
+      </c>
+      <c r="D13">
+        <v>366864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>100000</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>795651</v>
+      </c>
+      <c r="D14">
+        <v>462855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100000</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>1977552</v>
+      </c>
+      <c r="D15">
+        <v>763181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>100000</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>1255176</v>
+      </c>
+      <c r="D16">
+        <v>299938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100000</v>
+      </c>
+      <c r="B17">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>1429018</v>
+      </c>
+      <c r="D17">
+        <v>302390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1000000</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2761686</v>
+      </c>
+      <c r="D18">
+        <v>3255690</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1000000</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2593117</v>
+      </c>
+      <c r="D19">
+        <v>2515037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1000000</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>2781466</v>
+      </c>
+      <c r="D20">
+        <v>2528096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1000000</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>3732320</v>
+      </c>
+      <c r="D21">
+        <v>5192492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1000000</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>4861333</v>
+      </c>
+      <c r="D22">
+        <v>2526529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1000000</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>12077317</v>
+      </c>
+      <c r="D23">
+        <v>2845717</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1000000</v>
+      </c>
+      <c r="B24">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>14419596</v>
+      </c>
+      <c r="D24">
+        <v>2734970</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1000000</v>
+      </c>
+      <c r="B25">
+        <v>128</v>
+      </c>
+      <c r="C25">
+        <v>16195894</v>
+      </c>
+      <c r="D25">
+        <v>2978463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10000000</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>28464471</v>
+      </c>
+      <c r="D26">
+        <v>26247706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10000000</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>27924052</v>
+      </c>
+      <c r="D27">
+        <v>25710760</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10000000</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>28068011</v>
+      </c>
+      <c r="D28">
+        <v>26601761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10000000</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>33918182</v>
+      </c>
+      <c r="D29">
+        <v>31516765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10000000</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>46242585</v>
+      </c>
+      <c r="D30">
+        <v>25577027</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10000000</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>147797689</v>
+      </c>
+      <c r="D31">
+        <v>27747488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10000000</v>
+      </c>
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>1514645296</v>
+      </c>
+      <c r="D32">
+        <v>83259343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10000000</v>
+      </c>
+      <c r="B33">
+        <v>128</v>
+      </c>
+      <c r="C33">
+        <v>14697590291</v>
+      </c>
+      <c r="D33">
+        <v>75389835</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/tests/results/diagrams.xlsx
+++ b/tests/results/diagrams.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="insert columns" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,20 @@
     <sheet name="O2-scan" sheetId="7" r:id="rId7"/>
     <sheet name="O3-insert" sheetId="8" r:id="rId8"/>
     <sheet name="O3-scan" sheetId="9" r:id="rId9"/>
+    <sheet name="Tabelle2" sheetId="11" r:id="rId10"/>
+    <sheet name="Tabelle1" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'insert columns'!$A$1:$F$192</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'insert rows'!$A$1:$D$193</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'scan test'!$A$1:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Tabelle1!$A$1:$D$33</definedName>
     <definedName name="times_insert" localSheetId="0">'insert columns'!$A$2:$D$192</definedName>
     <definedName name="times_insert" localSheetId="1">'insert rows'!$A$1:$D$193</definedName>
     <definedName name="times_insert" localSheetId="5">'O2-insert'!$A$1:$D$33</definedName>
     <definedName name="times_insert" localSheetId="7">'O3-insert'!$A$1:$D$33</definedName>
+    <definedName name="times_insert" localSheetId="9">Tabelle2!$A$1:$H$9</definedName>
+    <definedName name="times_insert_1" localSheetId="10">Tabelle1!$A$1:$D$33</definedName>
     <definedName name="times_insert_5" localSheetId="4">'insert 5'!$A$1:$D$33</definedName>
     <definedName name="times_scan" localSheetId="6">'O2-scan'!$A$1:$D$33</definedName>
     <definedName name="times_scan" localSheetId="8">'O3-scan'!$A$1:$D$33</definedName>
@@ -81,7 +86,7 @@
     </textPr>
   </connection>
   <connection id="4" name="times_insert2" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/O2/times_insert.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/O2/times_insert.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -91,7 +96,7 @@
     </textPr>
   </connection>
   <connection id="5" name="times_insert3" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/O3/times_insert.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/O3/times_insert.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -100,7 +105,30 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="times_scan" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="6" name="times_insert4" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/build/times_insert.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="times_insert5" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/build/times_insert.csv" decimal="," thousands="." comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="times_scan" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/build/times_scan.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
@@ -110,7 +138,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="times_scan_2" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="9" name="times_scan_2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/times_scan_2.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
@@ -120,8 +148,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="times_scan1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/O2/times_scan.csv" decimal="," thousands="." comma="1">
+  <connection id="10" name="times_scan1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/O2/times_scan.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -130,8 +158,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="times_scan2" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/O3/times_scan.csv" decimal="," thousands="." tab="0" comma="1">
+  <connection id="11" name="times_scan2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/O3/times_scan.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -144,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t>rows</t>
   </si>
@@ -174,6 +202,24 @@
   </si>
   <si>
     <t xml:space="preserve"> ms columnstore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> time ns row store (inlined insert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> time ns col store (inlined insert)</t>
+  </si>
+  <si>
+    <t>time ns row store (row insert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> time ns row store (by field)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> time ns row store (inlined row insert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> time ns col store (by field)</t>
   </si>
 </sst>
 </file>
@@ -270,6 +316,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1767,11 +1814,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1644392304"/>
-        <c:axId val="1644394368"/>
+        <c:axId val="-191232208"/>
+        <c:axId val="-191230160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1644392304"/>
+        <c:axId val="-191232208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1861,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1644394368"/>
+        <c:crossAx val="-191230160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1822,7 +1869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1644394368"/>
+        <c:axId val="-191230160"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1869,6 +1916,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1928,7 +1976,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1644392304"/>
+        <c:crossAx val="-191232208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2682,11 +2730,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1693384800"/>
-        <c:axId val="1798284912"/>
+        <c:axId val="-190745600"/>
+        <c:axId val="-190742608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1693384800"/>
+        <c:axId val="-190745600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +2776,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1798284912"/>
+        <c:crossAx val="-190742608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2736,7 +2784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1798284912"/>
+        <c:axId val="-190742608"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2844,7 +2892,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1693384800"/>
+        <c:crossAx val="-190745600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3598,11 +3646,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1348496416"/>
-        <c:axId val="1800578576"/>
+        <c:axId val="-190700464"/>
+        <c:axId val="-190697472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1348496416"/>
+        <c:axId val="-190700464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3644,7 +3692,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1800578576"/>
+        <c:crossAx val="-190697472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3652,7 +3700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1800578576"/>
+        <c:axId val="-190697472"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3759,7 +3807,2251 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1348496416"/>
+        <c:crossAx val="-190700464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>insert inline comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>columns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time ns row store (row insert)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.321295E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.079459E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.158153E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.309615E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.680507E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.675427E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.628934E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.322544E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns row store (by field)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.024016E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.922547E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.622358E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.834688E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.648041E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7458707E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3408966E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6822185E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns row store (inlined insert)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>398361.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>685619.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.195568E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.301293E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.65851E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.546942E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8484015E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5999694E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns row store (inlined row insert)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>958798.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>710767.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>710280.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>710776.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.546494E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>985320.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.304443E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.885818E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store (by field)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.100819E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.573803E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.697926E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.649817E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1240055E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8841277E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5714909E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6887969E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store (inlined insert)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.360732E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.276759E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.699628E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.994973E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4918059E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7682364E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.547701E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.25011262E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-332929904"/>
+        <c:axId val="-332910352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-332929904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-332910352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-332910352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time ns for inserting</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> 10.000 rows</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-332929904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>columns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time ns row store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.0772143E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.185927E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3035268E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5857113E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3721912E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.64531727E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.32811636E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.03166437E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.58676605E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.63352454E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.03137588E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.39784375E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.43906508E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.515467955E9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.173039106E9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.517415546E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.6977836E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6589238E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6104814E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.51858101E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.05112231E8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.851251E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.25205787E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.580023714E9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.84114896E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.05727687E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.05402527E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.02198906E9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.080779044E9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.971005952E9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.200497852E9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6610494058E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-184828224"/>
+        <c:axId val="-184695264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-184828224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-184695264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-184695264"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-184828224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>columns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time ns row store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.0772143E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.185927E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3035268E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5857113E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3721912E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.64531727E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.32811636E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.03166437E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.58676605E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.63352454E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.03137588E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.39784375E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.43906508E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.515467955E9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.173039106E9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.517415546E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.6977836E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6589238E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6104814E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.51858101E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.05112231E8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.851251E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.25205787E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.580023714E9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.84114896E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.05727687E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.05402527E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.02198906E9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.080779044E9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.971005952E9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.200497852E9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6610494058E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-122781792"/>
+        <c:axId val="-120988128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-122781792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-120988128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-120988128"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-122781792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4342,11 +6634,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1645503344"/>
-        <c:axId val="1645506608"/>
+        <c:axId val="-224435984"/>
+        <c:axId val="-224432720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1645503344"/>
+        <c:axId val="-224435984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4388,7 +6680,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1645506608"/>
+        <c:crossAx val="-224432720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4396,7 +6688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1645506608"/>
+        <c:axId val="-224432720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4476,7 +6768,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1645503344"/>
+        <c:crossAx val="-224435984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5059,11 +7351,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1644464128"/>
-        <c:axId val="1644467392"/>
+        <c:axId val="-191153904"/>
+        <c:axId val="-191150640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1644464128"/>
+        <c:axId val="-191153904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5106,7 +7398,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1644467392"/>
+        <c:crossAx val="-191150640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5114,7 +7406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1644467392"/>
+        <c:axId val="-191150640"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5220,7 +7512,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1644464128"/>
+        <c:crossAx val="-191153904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5852,11 +8144,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1645530976"/>
-        <c:axId val="1645533968"/>
+        <c:axId val="-190840832"/>
+        <c:axId val="-190837840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1645530976"/>
+        <c:axId val="-190840832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5898,7 +8190,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1645533968"/>
+        <c:crossAx val="-190837840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5906,7 +8198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1645533968"/>
+        <c:axId val="-190837840"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5957,7 +8249,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1645530976"/>
+        <c:crossAx val="-190840832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6690,11 +8982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1645578528"/>
-        <c:axId val="1645581520"/>
+        <c:axId val="-191130960"/>
+        <c:axId val="-191127968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1645578528"/>
+        <c:axId val="-191130960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6736,7 +9028,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1645581520"/>
+        <c:crossAx val="-191127968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6744,7 +9036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1645581520"/>
+        <c:axId val="-191127968"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6850,7 +9142,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1645578528"/>
+        <c:crossAx val="-191130960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6978,6 +9270,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7663,11 +9956,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1644523360"/>
-        <c:axId val="1644526352"/>
+        <c:axId val="-191084928"/>
+        <c:axId val="-191081936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1644523360"/>
+        <c:axId val="-191084928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7709,7 +10002,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1644526352"/>
+        <c:crossAx val="-191081936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7717,7 +10010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1644526352"/>
+        <c:axId val="-191081936"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -7764,6 +10057,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7823,7 +10117,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1644523360"/>
+        <c:crossAx val="-191084928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8577,11 +10871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1644567952"/>
-        <c:axId val="1644570944"/>
+        <c:axId val="-191029760"/>
+        <c:axId val="-191026768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1644567952"/>
+        <c:axId val="-191029760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8623,7 +10917,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1644570944"/>
+        <c:crossAx val="-191026768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8631,7 +10925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1644570944"/>
+        <c:axId val="-191026768"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -8738,7 +11032,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1644567952"/>
+        <c:crossAx val="-191029760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9492,11 +11786,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1573976608"/>
-        <c:axId val="1694212032"/>
+        <c:axId val="-190983760"/>
+        <c:axId val="-190980768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1573976608"/>
+        <c:axId val="-190983760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9538,7 +11832,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1694212032"/>
+        <c:crossAx val="-190980768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9546,7 +11840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1694212032"/>
+        <c:axId val="-190980768"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -9653,7 +11947,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1573976608"/>
+        <c:crossAx val="-190983760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10407,11 +12701,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1750321152"/>
-        <c:axId val="1750322928"/>
+        <c:axId val="-190803184"/>
+        <c:axId val="-190800192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1750321152"/>
+        <c:axId val="-190803184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10453,7 +12747,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1750322928"/>
+        <c:crossAx val="-190800192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10461,7 +12755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1750322928"/>
+        <c:axId val="-190800192"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -10568,7 +12862,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1750321152"/>
+        <c:crossAx val="-190803184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10737,6 +13031,126 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12605,6 +15019,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -16682,6 +20605,106 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101599</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>575733</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16894,16 +20917,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17034,16 +21057,24 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17055,7 +21086,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17063,7 +21094,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20049,6 +24080,758 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100000</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1321295</v>
+      </c>
+      <c r="D2">
+        <v>1024016</v>
+      </c>
+      <c r="E2">
+        <v>398361</v>
+      </c>
+      <c r="F2">
+        <v>958798</v>
+      </c>
+      <c r="G2">
+        <v>1100819</v>
+      </c>
+      <c r="H2">
+        <v>1360732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>100000</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1079459</v>
+      </c>
+      <c r="D3">
+        <v>1922547</v>
+      </c>
+      <c r="E3">
+        <v>685619</v>
+      </c>
+      <c r="F3">
+        <v>710767</v>
+      </c>
+      <c r="G3">
+        <v>1573803</v>
+      </c>
+      <c r="H3">
+        <v>2276759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>100000</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1158153</v>
+      </c>
+      <c r="D4">
+        <v>2622358</v>
+      </c>
+      <c r="E4">
+        <v>1195568</v>
+      </c>
+      <c r="F4">
+        <v>710280</v>
+      </c>
+      <c r="G4">
+        <v>2697926</v>
+      </c>
+      <c r="H4">
+        <v>4699628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100000</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1309615</v>
+      </c>
+      <c r="D5">
+        <v>4834688</v>
+      </c>
+      <c r="E5">
+        <v>2301293</v>
+      </c>
+      <c r="F5">
+        <v>710776</v>
+      </c>
+      <c r="G5">
+        <v>4649817</v>
+      </c>
+      <c r="H5">
+        <v>6994973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>100000</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>1680507</v>
+      </c>
+      <c r="D6">
+        <v>8648041</v>
+      </c>
+      <c r="E6">
+        <v>6658510</v>
+      </c>
+      <c r="F6">
+        <v>1546494</v>
+      </c>
+      <c r="G6">
+        <v>11240055</v>
+      </c>
+      <c r="H6">
+        <v>14918059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>100000</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>2675427</v>
+      </c>
+      <c r="D7">
+        <v>17458707</v>
+      </c>
+      <c r="E7">
+        <v>9546942</v>
+      </c>
+      <c r="F7">
+        <v>985320</v>
+      </c>
+      <c r="G7">
+        <v>18841277</v>
+      </c>
+      <c r="H7">
+        <v>27682364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>100000</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>3628934</v>
+      </c>
+      <c r="D8">
+        <v>33408966</v>
+      </c>
+      <c r="E8">
+        <v>18484015</v>
+      </c>
+      <c r="F8">
+        <v>1304443</v>
+      </c>
+      <c r="G8">
+        <v>35714909</v>
+      </c>
+      <c r="H8">
+        <v>55477010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>100000</v>
+      </c>
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>7322544</v>
+      </c>
+      <c r="D9">
+        <v>66822185</v>
+      </c>
+      <c r="E9">
+        <v>35999694</v>
+      </c>
+      <c r="F9">
+        <v>1885818</v>
+      </c>
+      <c r="G9">
+        <v>76887969</v>
+      </c>
+      <c r="H9">
+        <v>125011262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView topLeftCell="D27" workbookViewId="0">
+      <selection sqref="A1:D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>189362</v>
+      </c>
+      <c r="D2">
+        <v>215560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>274221</v>
+      </c>
+      <c r="D3">
+        <v>344999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>328829</v>
+      </c>
+      <c r="D4">
+        <v>614101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>412547</v>
+      </c>
+      <c r="D5">
+        <v>1183900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>768724</v>
+      </c>
+      <c r="D6">
+        <v>3274435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>1073262</v>
+      </c>
+      <c r="D7">
+        <v>4845010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10000</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>27512883</v>
+      </c>
+      <c r="D8">
+        <v>16722080</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>3344117</v>
+      </c>
+      <c r="D9">
+        <v>31095704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>100000</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2675355</v>
+      </c>
+      <c r="D10">
+        <v>2753158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100000</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2909307</v>
+      </c>
+      <c r="D11">
+        <v>3226982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100000</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>6138342</v>
+      </c>
+      <c r="D12">
+        <v>8955809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>100000</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>10668648</v>
+      </c>
+      <c r="D13">
+        <v>16353995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>100000</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>9639111</v>
+      </c>
+      <c r="D14">
+        <v>50946237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100000</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>25763292</v>
+      </c>
+      <c r="D15">
+        <v>57116273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>100000</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>15554354</v>
+      </c>
+      <c r="D16">
+        <v>98319454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100000</v>
+      </c>
+      <c r="B17">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>105018161</v>
+      </c>
+      <c r="D17">
+        <v>162997440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1000000</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>20772143</v>
+      </c>
+      <c r="D18">
+        <v>26977836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1000000</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>41859270</v>
+      </c>
+      <c r="D19">
+        <v>56589238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1000000</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>53035268</v>
+      </c>
+      <c r="D20">
+        <v>66104814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1000000</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>55857113</v>
+      </c>
+      <c r="D21">
+        <v>151858101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1000000</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>93721912</v>
+      </c>
+      <c r="D22">
+        <v>305112231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1000000</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>264531727</v>
+      </c>
+      <c r="D23">
+        <v>485125100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1000000</v>
+      </c>
+      <c r="B24">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>332811636</v>
+      </c>
+      <c r="D24">
+        <v>825205787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1000000</v>
+      </c>
+      <c r="B25">
+        <v>128</v>
+      </c>
+      <c r="C25">
+        <v>603166437</v>
+      </c>
+      <c r="D25">
+        <v>1580023714</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10000000</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>258676605</v>
+      </c>
+      <c r="D26">
+        <v>184114896</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10000000</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>263352454</v>
+      </c>
+      <c r="D27">
+        <v>305727687</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10000000</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>303137588</v>
+      </c>
+      <c r="D28">
+        <v>505402527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10000000</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>439784375</v>
+      </c>
+      <c r="D29">
+        <v>1021989060</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10000000</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>843906508</v>
+      </c>
+      <c r="D30">
+        <v>2080779044</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10000000</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>1515467955</v>
+      </c>
+      <c r="D31">
+        <v>3971005952</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10000000</v>
+      </c>
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>3173039106</v>
+      </c>
+      <c r="D32">
+        <v>8200497852</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10000000</v>
+      </c>
+      <c r="B33">
+        <v>128</v>
+      </c>
+      <c r="C33">
+        <v>6517415546</v>
+      </c>
+      <c r="D33">
+        <v>16610494058</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D33">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1000000"/>
+        <filter val="10000000"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
@@ -23258,7 +28041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="50" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -23812,7 +28595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
+    <sheetView topLeftCell="F25" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -24294,10 +29077,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="D5" zoomScale="69" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24306,9 +29089,10 @@
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24322,7 +29106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -24335,8 +29119,16 @@
       <c r="D2">
         <v>85635</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <f>C2/1000000000</f>
+        <v>8.6248999999999994E-5</v>
+      </c>
+      <c r="F2">
+        <f>D2/1000000000</f>
+        <v>8.5635000000000003E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -24349,8 +29141,16 @@
       <c r="D3">
         <v>219985</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f t="shared" ref="E3:F32" si="0">C3/1000000000</f>
+        <v>2.2915300000000001E-4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>2.1998499999999999E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -24363,8 +29163,16 @@
       <c r="D4">
         <v>447437</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3.66988E-4</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4.4743700000000002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -24377,8 +29185,16 @@
       <c r="D5">
         <v>471077</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>6.0725600000000003E-4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4.7107699999999998E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -24391,8 +29207,16 @@
       <c r="D6">
         <v>961159</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>9.1702199999999998E-4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>9.6115899999999995E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -24405,8 +29229,16 @@
       <c r="D7">
         <v>2140814</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.1369850000000001E-3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2.140814E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -24419,8 +29251,16 @@
       <c r="D8">
         <v>3801249</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3.5097079999999998E-3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>3.801249E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -24433,8 +29273,16 @@
       <c r="D9">
         <v>6866083</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5.8435400000000004E-3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>6.8660830000000003E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>100000</v>
       </c>
@@ -24447,8 +29295,16 @@
       <c r="D10">
         <v>609082</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.9546000000000002E-4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>6.0908200000000005E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100000</v>
       </c>
@@ -24461,8 +29317,16 @@
       <c r="D11">
         <v>924232</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8.9207200000000005E-4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>9.2423199999999998E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>100000</v>
       </c>
@@ -24475,8 +29339,16 @@
       <c r="D12">
         <v>1765331</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.5508200000000001E-3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1.765331E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>100000</v>
       </c>
@@ -24489,8 +29361,16 @@
       <c r="D13">
         <v>3284143</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2.7783679999999998E-3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>3.2841429999999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>100000</v>
       </c>
@@ -24503,8 +29383,16 @@
       <c r="D14">
         <v>10236717</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.0006367E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.0236716999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>100000</v>
       </c>
@@ -24517,8 +29405,16 @@
       <c r="D15">
         <v>25190543</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.8102798E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>2.5190542999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>100000</v>
       </c>
@@ -24531,8 +29427,16 @@
       <c r="D16">
         <v>32580859</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3.8876248000000002E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3.2580858999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>100000</v>
       </c>
@@ -24545,8 +29449,16 @@
       <c r="D17">
         <v>69474821</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>7.8895241000000005E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>6.9474821000000006E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1000000</v>
       </c>
@@ -24559,8 +29471,16 @@
       <c r="D18">
         <v>7467110</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>9.1171959999999993E-3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>7.4671099999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1000000</v>
       </c>
@@ -24573,8 +29493,16 @@
       <c r="D19">
         <v>11415222</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.3604998E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.1415221999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1000000</v>
       </c>
@@ -24587,8 +29515,16 @@
       <c r="D20">
         <v>17337999</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1.7471356E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1.7337999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1000000</v>
       </c>
@@ -24601,8 +29537,16 @@
       <c r="D21">
         <v>31923763</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2.9157366000000001E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>3.1923763000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1000000</v>
       </c>
@@ -24615,8 +29559,16 @@
       <c r="D22">
         <v>78896724</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>7.9007799000000004E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>7.8896724000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1000000</v>
       </c>
@@ -24629,8 +29581,16 @@
       <c r="D23">
         <v>154260380</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.14591013</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.15426038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1000000</v>
       </c>
@@ -24643,8 +29603,16 @@
       <c r="D24">
         <v>411523550</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.31466318300000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.41152355000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1000000</v>
       </c>
@@ -24657,8 +29625,16 @@
       <c r="D25">
         <v>650791433</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.640401149</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.65079143299999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10000000</v>
       </c>
@@ -24671,8 +29647,16 @@
       <c r="D26">
         <v>71571292</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>6.9597857999999999E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>7.1571291999999995E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10000000</v>
       </c>
@@ -24685,8 +29669,16 @@
       <c r="D27">
         <v>102985085</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>9.7038826999999994E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.102985085</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10000000</v>
       </c>
@@ -24699,8 +29691,16 @@
       <c r="D28">
         <v>218238882</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.21352743499999999</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.218238882</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10000000</v>
       </c>
@@ -24713,8 +29713,16 @@
       <c r="D29">
         <v>397720980</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.38033407299999999</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.39772098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10000000</v>
       </c>
@@ -24727,8 +29735,16 @@
       <c r="D30">
         <v>776806117</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.73450280000000001</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.77680611700000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10000000</v>
       </c>
@@ -24741,8 +29757,16 @@
       <c r="D31">
         <v>1602800820</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1.390006611</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1.6028008199999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10000000</v>
       </c>
@@ -24755,8 +29779,16 @@
       <c r="D32">
         <v>3567967117</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>2.820842973</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>3.5679671169999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10000000</v>
       </c>
@@ -24768,6 +29800,14 @@
       </c>
       <c r="D33">
         <v>13269607697</v>
+      </c>
+      <c r="E33">
+        <f>C33/1000000000</f>
+        <v>6.6336585660000003</v>
+      </c>
+      <c r="F33">
+        <f>D33/1000000000</f>
+        <v>13.269607697</v>
       </c>
     </row>
   </sheetData>
@@ -24780,7 +29820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="E2" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -25264,7 +30304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+    <sheetView topLeftCell="D16" workbookViewId="0">
       <selection sqref="A1:D33"/>
     </sheetView>
   </sheetViews>
@@ -25748,7 +30788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/tests/results/diagrams.xlsx
+++ b/tests/results/diagrams.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxklenk/dev/hpi/epic-battle-db/tests/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="insert columns" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="O2-scan" sheetId="7" r:id="rId7"/>
     <sheet name="O3-insert" sheetId="8" r:id="rId8"/>
     <sheet name="O3-scan" sheetId="9" r:id="rId9"/>
-    <sheet name="Tabelle2" sheetId="11" r:id="rId10"/>
+    <sheet name="Compare Inserts" sheetId="11" r:id="rId10"/>
     <sheet name="Tabelle1" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
@@ -29,12 +29,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'insert rows'!$A$1:$D$193</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'scan test'!$A$1:$D$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Tabelle1!$A$1:$D$33</definedName>
+    <definedName name="times_insert" localSheetId="9">'Compare Inserts'!$A$1:$H$9</definedName>
     <definedName name="times_insert" localSheetId="0">'insert columns'!$A$2:$D$192</definedName>
     <definedName name="times_insert" localSheetId="1">'insert rows'!$A$1:$D$193</definedName>
     <definedName name="times_insert" localSheetId="5">'O2-insert'!$A$1:$D$33</definedName>
     <definedName name="times_insert" localSheetId="7">'O3-insert'!$A$1:$D$33</definedName>
-    <definedName name="times_insert" localSheetId="9">Tabelle2!$A$1:$H$9</definedName>
+    <definedName name="times_insert_1" localSheetId="9">'Compare Inserts'!$A$59:$H$67</definedName>
     <definedName name="times_insert_1" localSheetId="10">Tabelle1!$A$1:$D$33</definedName>
+    <definedName name="times_insert_2" localSheetId="9">'Compare Inserts'!$A$70:$H$78</definedName>
     <definedName name="times_insert_5" localSheetId="4">'insert 5'!$A$1:$D$33</definedName>
     <definedName name="times_scan" localSheetId="6">'O2-scan'!$A$1:$D$33</definedName>
     <definedName name="times_scan" localSheetId="8">'O3-scan'!$A$1:$D$33</definedName>
@@ -106,7 +108,7 @@
     </textPr>
   </connection>
   <connection id="6" name="times_insert4" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/build/times_insert.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/build/times_insert.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -116,7 +118,7 @@
     </textPr>
   </connection>
   <connection id="7" name="times_insert5" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/build/times_insert.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/maxklenk/dev/hpi/epic-battle-db/build/times_insert.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
         <textField/>
@@ -128,7 +130,33 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="times_scan" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="8" name="times_insert51" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/maxklenk/dev/hpi/epic-battle-db/build/times_insert.csv" decimal="," thousands="." comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="times_insert52" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/maxklenk/dev/hpi/epic-battle-db/build/times_insert.csv" decimal="," thousands="." comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="times_scan" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/build/times_scan.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
@@ -138,7 +166,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="times_scan_2" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="11" name="times_scan_2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/times_scan_2.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
@@ -148,7 +176,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="times_scan1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="12" name="times_scan1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/O2/times_scan.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
@@ -158,7 +186,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" name="times_scan2" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="13" name="times_scan2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/O3/times_scan.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
@@ -172,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>rows</t>
   </si>
@@ -221,6 +249,15 @@
   <si>
     <t xml:space="preserve"> time ns col store (by field)</t>
   </si>
+  <si>
+    <t>Bandwidth (MB/ms)</t>
+  </si>
+  <si>
+    <t>Bandwidth (byte/ns)</t>
+  </si>
+  <si>
+    <t>=(ROWS * COLS * SIZE(4 byte))/TIME</t>
+  </si>
 </sst>
 </file>
 
@@ -255,11 +292,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -342,7 +381,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1814,11 +1853,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-191232208"/>
-        <c:axId val="-191230160"/>
+        <c:axId val="2137528704"/>
+        <c:axId val="2137531104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-191232208"/>
+        <c:axId val="2137528704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,10 +1897,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-191230160"/>
+        <c:crossAx val="2137531104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1869,7 +1908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-191230160"/>
+        <c:axId val="2137531104"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1942,7 +1981,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1973,10 +2012,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-191232208"/>
+        <c:crossAx val="2137528704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2015,7 +2054,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -2053,7 +2092,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2104,7 +2143,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2130,7 +2168,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2730,11 +2768,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-190745600"/>
-        <c:axId val="-190742608"/>
+        <c:axId val="2136769472"/>
+        <c:axId val="2136772560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-190745600"/>
+        <c:axId val="2136769472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2773,10 +2811,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-190742608"/>
+        <c:crossAx val="2136772560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2784,7 +2822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-190742608"/>
+        <c:axId val="2136772560"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2831,7 +2869,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2857,7 +2894,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2889,10 +2926,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-190745600"/>
+        <c:crossAx val="2136769472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2931,7 +2968,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -2969,7 +3006,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3020,7 +3057,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3046,7 +3082,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3646,11 +3682,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-190700464"/>
-        <c:axId val="-190697472"/>
+        <c:axId val="2137690576"/>
+        <c:axId val="2137733504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-190700464"/>
+        <c:axId val="2137690576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3689,10 +3725,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-190697472"/>
+        <c:crossAx val="2137733504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3700,7 +3736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-190697472"/>
+        <c:axId val="2137733504"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3747,7 +3783,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3773,7 +3808,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3804,10 +3839,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-190700464"/>
+        <c:crossAx val="2137690576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3846,7 +3881,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3884,7 +3919,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3961,7 +3996,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3976,11 +4011,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$A$1</c:f>
+              <c:f>'Compare Inserts'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rows</c:v>
+                  <c:v>time ns row store (row insert)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4009,35 +4044,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$A$2:$A$9</c:f>
+              <c:f>'Compare Inserts'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100000.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100000.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100000.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100000.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000.0</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100000.0</c:v>
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.587403E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.640509E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.764156E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.737417E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.776439E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.837372E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8435381E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.450389E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4049,11 +4117,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$B$1</c:f>
+              <c:f>'Compare Inserts'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>columns</c:v>
+                  <c:v> time ns row store (by field)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4082,9 +4150,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$B$2:$B$9</c:f>
+              <c:f>'Compare Inserts'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4111,6 +4179,39 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.669745E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.322927E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.527444E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.617014E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.26702E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3052823E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4781703E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6560831E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4122,11 +4223,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$C$1</c:f>
+              <c:f>'Compare Inserts'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>time ns row store (row insert)</c:v>
+                  <c:v> time ns row store (inlined insert)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4155,35 +4256,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$C$2:$C$9</c:f>
+              <c:f>'Compare Inserts'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.321295E6</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.079459E6</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.158153E6</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.309615E6</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.680507E6</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.675427E6</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.628934E6</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.322544E6</c:v>
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>338773.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>536641.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>961910.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.918697E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.910421E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.69973E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.823765E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3422579E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4195,11 +4329,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$D$1</c:f>
+              <c:f>'Compare Inserts'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns row store (by field)</c:v>
+                  <c:v> time ns row store (inlined row insert)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4228,35 +4362,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$D$2:$D$9</c:f>
+              <c:f>'Compare Inserts'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.024016E6</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.922547E6</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.622358E6</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.834688E6</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.648041E6</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7458707E7</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3408966E7</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6822185E7</c:v>
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>848271.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>944621.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.025142E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>914026.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25981E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.33676E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6728171E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3728559E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4268,11 +4435,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$E$1</c:f>
+              <c:f>'Compare Inserts'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns row store (inlined insert)</c:v>
+                  <c:v> time ns col store (by field)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4301,35 +4468,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$E$2:$E$9</c:f>
+              <c:f>'Compare Inserts'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>398361.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>685619.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.195568E6</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.301293E6</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.65851E6</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.546942E6</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8484015E7</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5999694E7</c:v>
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.661601E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.400658E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.705243E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.345545E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2444252E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8357708E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.201353E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.73527057E8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4341,11 +4541,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle2!$F$1</c:f>
+              <c:f>'Compare Inserts'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns row store (inlined row insert)</c:v>
+                  <c:v> time ns col store (inlined insert)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4374,193 +4574,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$F$2:$F$9</c:f>
+              <c:f>'Compare Inserts'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>958798.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>710767.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>710280.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>710776.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.546494E6</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>985320.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.304443E6</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.885818E6</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle2!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> time ns col store (by field)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$G$2:$G$9</c:f>
+              <c:f>'Compare Inserts'!$H$2:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.100819E6</c:v>
+                  <c:v>320876.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.573803E6</c:v>
+                  <c:v>524517.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.697926E6</c:v>
+                  <c:v>987366.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.649817E6</c:v>
+                  <c:v>1.955217E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1240055E7</c:v>
+                  <c:v>4.235425E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8841277E7</c:v>
+                  <c:v>1.0742689E7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5714909E7</c:v>
+                  <c:v>5.1476258E7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6887969E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle2!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> time ns col store (inlined insert)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle2!$H$2:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.360732E6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.276759E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.699628E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.994973E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4918059E7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7682364E7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.547701E7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.25011262E8</c:v>
+                  <c:v>1.24354571E8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4577,11 +4652,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-332929904"/>
-        <c:axId val="-332910352"/>
+        <c:axId val="2135150816"/>
+        <c:axId val="2135147712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-332929904"/>
+        <c:axId val="2135150816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4620,10 +4695,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-332910352"/>
+        <c:crossAx val="2135147712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4631,7 +4706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-332910352"/>
+        <c:axId val="2135147712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4708,10 +4783,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4739,10 +4815,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-332929904"/>
+        <c:crossAx val="2135150816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4781,7 +4857,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4819,7 +4895,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4845,6 +4921,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>insert inline comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4871,7 +4972,1932 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Inserts'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time ns row store (row insert)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.587403E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.640509E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.764156E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.737417E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.776439E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.837372E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8435381E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.450389E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Inserts'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns row store (by field)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.669745E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.322927E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.527444E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.617014E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.26702E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3052823E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4781703E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6560831E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Inserts'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns row store (inlined insert)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>338773.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>536641.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>961910.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.918697E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.910421E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.69973E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.823765E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3422579E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Inserts'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns row store (inlined row insert)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>848271.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>944621.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.025142E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>914026.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25981E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.33676E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6728171E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3728559E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Inserts'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store (by field)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.661601E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.400658E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.705243E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.345545E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2444252E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8357708E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.201353E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.73527057E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Inserts'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store (inlined insert)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>320876.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>524517.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>987366.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.955217E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.235425E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0742689E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1476258E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.24354571E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2078793936"/>
+        <c:axId val="-2098453584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2078793936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2098453584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2098453584"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time ns for inserting</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> 10.000 rows</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2078793936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>insert inline bandwidth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Inserts'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time ns row store (row insert)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$B$23:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$C$23:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.240310574291783</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46506264404828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.864934227046814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.756491281310129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.435814922437528</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.302231519166328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.324304743145802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.992668306950448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Inserts'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns row store (by field)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$B$23:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$D$23:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.228459870556582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.328438841653225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.337028775231676</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.400650151424167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.481722121592398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.529524355867392</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.545179411778958</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56409029853237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Inserts'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns row store (inlined insert)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$B$23:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$E$23:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.126033439980459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.421694304246228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.586301115748875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.590536605050198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.560833379577289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.403150586282563</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.33866273889454</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.460932293704804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Inserts'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns row store (inlined row insert)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$B$23:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$F$23:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.449702661723081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.807667258217846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.488456141929606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.338808537722121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.844790583500686</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.223913131857786</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.459457970629305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.057778771985269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Inserts'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store (by field)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$B$23:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$G$23:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.229579620235243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.317804307454456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.411816149777491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.415456962349288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.490468661756448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.430466074691227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.297683351759155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.281386233617735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Inserts'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store (inlined insert)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$B$23:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Inserts'!$H$23:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.188838450250252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.454556197654223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.545403534504935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.560828190681648</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.441063323043142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.136310587600553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.474278112834076</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.392652434143334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2072293488"/>
+        <c:axId val="-2072121024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2072293488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2072121024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2072121024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>MB/ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0;\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2072293488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5279,11 +7305,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-184828224"/>
-        <c:axId val="-184695264"/>
+        <c:axId val="2137764496"/>
+        <c:axId val="2137767616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-184828224"/>
+        <c:axId val="2137764496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5322,10 +7348,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-184695264"/>
+        <c:crossAx val="2137767616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5333,7 +7359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-184695264"/>
+        <c:axId val="2137767616"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5381,10 +7407,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-184828224"/>
+        <c:crossAx val="2137764496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5398,7 +7424,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5424,7 +7449,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5454,7 +7479,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5465,7 +7490,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5506,7 +7531,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5914,11 +7939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-122781792"/>
-        <c:axId val="-120988128"/>
+        <c:axId val="2135112560"/>
+        <c:axId val="2135109424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-122781792"/>
+        <c:axId val="2135112560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5957,10 +7982,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-120988128"/>
+        <c:crossAx val="2135109424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5968,7 +7993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-120988128"/>
+        <c:axId val="2135109424"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6016,7 +8041,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6048,10 +8073,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-122781792"/>
+        <c:crossAx val="2135112560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6090,7 +8115,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6128,7 +8153,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6179,7 +8204,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6634,11 +8659,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-224435984"/>
-        <c:axId val="-224432720"/>
+        <c:axId val="2137587376"/>
+        <c:axId val="2137590768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-224435984"/>
+        <c:axId val="2137587376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6677,10 +8702,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-224432720"/>
+        <c:crossAx val="2137590768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6688,7 +8713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-224432720"/>
+        <c:axId val="2137590768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6734,7 +8759,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6765,10 +8790,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-224435984"/>
+        <c:crossAx val="2137587376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6807,7 +8832,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6845,7 +8870,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6896,7 +8921,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7351,11 +9376,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-191153904"/>
-        <c:axId val="-191150640"/>
+        <c:axId val="2133200272"/>
+        <c:axId val="2133196864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-191153904"/>
+        <c:axId val="2133200272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7395,10 +9420,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-191150640"/>
+        <c:crossAx val="2133196864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7406,7 +9431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-191150640"/>
+        <c:axId val="2133196864"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -7478,7 +9503,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7509,10 +9534,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-191153904"/>
+        <c:crossAx val="2133200272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7551,7 +9576,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -7589,7 +9614,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7640,7 +9665,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8144,11 +10169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-190840832"/>
-        <c:axId val="-190837840"/>
+        <c:axId val="2136486192"/>
+        <c:axId val="2136489280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-190840832"/>
+        <c:axId val="2136486192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8187,10 +10212,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-190837840"/>
+        <c:crossAx val="2136489280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8198,7 +10223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-190837840"/>
+        <c:axId val="2136489280"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -8246,10 +10271,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-190840832"/>
+        <c:crossAx val="2136486192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8288,7 +10313,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8318,7 +10343,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8394,7 +10419,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8982,11 +11007,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-191130960"/>
-        <c:axId val="-191127968"/>
+        <c:axId val="2136564416"/>
+        <c:axId val="2136567504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-191130960"/>
+        <c:axId val="2136564416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9025,10 +11050,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-191127968"/>
+        <c:crossAx val="2136567504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9036,7 +11061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-191127968"/>
+        <c:axId val="2136567504"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -9108,7 +11133,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9139,10 +11164,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-191130960"/>
+        <c:crossAx val="2136564416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9181,7 +11206,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9219,7 +11244,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9270,7 +11295,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9296,7 +11320,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9956,11 +11980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-191084928"/>
-        <c:axId val="-191081936"/>
+        <c:axId val="2135229232"/>
+        <c:axId val="2135226128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-191084928"/>
+        <c:axId val="2135229232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9999,10 +12023,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-191081936"/>
+        <c:crossAx val="2135226128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10010,7 +12034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-191081936"/>
+        <c:axId val="2135226128"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -10057,7 +12081,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10083,7 +12106,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10114,10 +12137,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-191084928"/>
+        <c:crossAx val="2135229232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10156,7 +12179,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -10194,7 +12217,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10245,7 +12268,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10271,7 +12293,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10871,11 +12893,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-191029760"/>
-        <c:axId val="-191026768"/>
+        <c:axId val="2137713984"/>
+        <c:axId val="2137717120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-191029760"/>
+        <c:axId val="2137713984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10914,10 +12936,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-191026768"/>
+        <c:crossAx val="2137717120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10925,7 +12947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-191026768"/>
+        <c:axId val="2137717120"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -10972,7 +12994,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10998,7 +13019,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11029,10 +13050,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-191029760"/>
+        <c:crossAx val="2137713984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11071,7 +13092,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11109,7 +13130,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11186,7 +13207,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11786,11 +13807,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-190983760"/>
-        <c:axId val="-190980768"/>
+        <c:axId val="2136636512"/>
+        <c:axId val="2136639600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-190983760"/>
+        <c:axId val="2136636512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11829,10 +13850,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-190980768"/>
+        <c:crossAx val="2136639600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11840,7 +13861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-190980768"/>
+        <c:axId val="2136639600"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -11913,7 +13934,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11944,10 +13965,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-190983760"/>
+        <c:crossAx val="2136636512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11986,7 +14007,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -12024,7 +14045,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12075,7 +14096,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12101,7 +14121,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12701,11 +14721,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-190803184"/>
-        <c:axId val="-190800192"/>
+        <c:axId val="2136701984"/>
+        <c:axId val="2136705120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-190803184"/>
+        <c:axId val="2136701984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12744,10 +14764,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-190800192"/>
+        <c:crossAx val="2136705120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12755,7 +14775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-190800192"/>
+        <c:axId val="2136705120"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -12802,7 +14822,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12828,7 +14847,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12859,10 +14878,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-190803184"/>
+        <c:crossAx val="2136701984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12901,7 +14920,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -12939,7 +14958,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13151,6 +15170,86 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16528,6 +18627,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -20617,15 +23722,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>101599</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>355599</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>118534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>575733</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>728133</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>16934</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20640,6 +23745,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>433659</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>30975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>806193</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>146203</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>18406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>372535</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>117332</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21058,10 +24227,18 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -21070,11 +24247,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21086,7 +24263,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21094,7 +24271,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24082,21 +27259,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="41" zoomScalePageLayoutView="41" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -24133,22 +27311,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1321295</v>
+        <v>1587403</v>
       </c>
       <c r="D2">
-        <v>1024016</v>
+        <v>1669745</v>
       </c>
       <c r="E2">
-        <v>398361</v>
+        <v>338773</v>
       </c>
       <c r="F2">
-        <v>958798</v>
+        <v>848271</v>
       </c>
       <c r="G2">
-        <v>1100819</v>
+        <v>1661601</v>
       </c>
       <c r="H2">
-        <v>1360732</v>
+        <v>320876</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -24159,22 +27337,22 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1079459</v>
+        <v>1640509</v>
       </c>
       <c r="D3">
-        <v>1922547</v>
+        <v>2322927</v>
       </c>
       <c r="E3">
-        <v>685619</v>
+        <v>536641</v>
       </c>
       <c r="F3">
-        <v>710767</v>
+        <v>944621</v>
       </c>
       <c r="G3">
-        <v>1573803</v>
+        <v>2400658</v>
       </c>
       <c r="H3">
-        <v>2276759</v>
+        <v>524517</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -24185,22 +27363,22 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1158153</v>
+        <v>1764156</v>
       </c>
       <c r="D4">
-        <v>2622358</v>
+        <v>4527444</v>
       </c>
       <c r="E4">
-        <v>1195568</v>
+        <v>961910</v>
       </c>
       <c r="F4">
-        <v>710280</v>
+        <v>1025142</v>
       </c>
       <c r="G4">
-        <v>2697926</v>
+        <v>3705243</v>
       </c>
       <c r="H4">
-        <v>4699628</v>
+        <v>987366</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -24211,22 +27389,22 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>1309615</v>
+        <v>1737417</v>
       </c>
       <c r="D5">
-        <v>4834688</v>
+        <v>7617014</v>
       </c>
       <c r="E5">
-        <v>2301293</v>
+        <v>1918697</v>
       </c>
       <c r="F5">
-        <v>710776</v>
+        <v>914026</v>
       </c>
       <c r="G5">
-        <v>4649817</v>
+        <v>7345545</v>
       </c>
       <c r="H5">
-        <v>6994973</v>
+        <v>1955217</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -24237,22 +27415,22 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>1680507</v>
+        <v>1776439</v>
       </c>
       <c r="D6">
-        <v>8648041</v>
+        <v>12670200</v>
       </c>
       <c r="E6">
-        <v>6658510</v>
+        <v>3910421</v>
       </c>
       <c r="F6">
-        <v>1546494</v>
+        <v>1259810</v>
       </c>
       <c r="G6">
-        <v>11240055</v>
+        <v>12444252</v>
       </c>
       <c r="H6">
-        <v>14918059</v>
+        <v>4235425</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -24263,22 +27441,22 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>2675427</v>
+        <v>2837372</v>
       </c>
       <c r="D7">
-        <v>17458707</v>
+        <v>23052823</v>
       </c>
       <c r="E7">
-        <v>9546942</v>
+        <v>8699730</v>
       </c>
       <c r="F7">
-        <v>985320</v>
+        <v>2336760</v>
       </c>
       <c r="G7">
-        <v>18841277</v>
+        <v>28357708</v>
       </c>
       <c r="H7">
-        <v>27682364</v>
+        <v>10742689</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -24289,22 +27467,22 @@
         <v>64</v>
       </c>
       <c r="C8">
-        <v>3628934</v>
+        <v>18435381</v>
       </c>
       <c r="D8">
-        <v>33408966</v>
+        <v>44781703</v>
       </c>
       <c r="E8">
-        <v>18484015</v>
+        <v>18237650</v>
       </c>
       <c r="F8">
-        <v>1304443</v>
+        <v>16728171</v>
       </c>
       <c r="G8">
-        <v>35714909</v>
+        <v>82013530</v>
       </c>
       <c r="H8">
-        <v>55477010</v>
+        <v>51476258</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -24315,22 +27493,581 @@
         <v>128</v>
       </c>
       <c r="C9">
-        <v>7322544</v>
+        <v>24503890</v>
       </c>
       <c r="D9">
-        <v>66822185</v>
+        <v>86560831</v>
       </c>
       <c r="E9">
-        <v>35999694</v>
+        <v>33422579</v>
       </c>
       <c r="F9">
-        <v>1885818</v>
+        <v>23728559</v>
       </c>
       <c r="G9">
-        <v>76887969</v>
+        <v>173527057</v>
       </c>
       <c r="H9">
-        <v>125011262</v>
+        <v>124354571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>A2</f>
+        <v>100000</v>
+      </c>
+      <c r="B13">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>($A2*$B2*4)/C2</f>
+        <v>0.25198390074858118</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:H13" si="0">($A2*$B2*4)/D2</f>
+        <v>0.23955753722873852</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.1807316403609496</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.47154741821894181</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.24073167986779015</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1.2465874668096086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" ref="A14:B14" si="1">A3</f>
+        <v>100000</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C20" si="2">(A3*B3*4)/C3</f>
+        <v>0.48765352704556941</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:H14" si="3">($A3*$B3*4)/D3</f>
+        <v>0.34439308682537162</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>1.4907545267692928</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0.8469005029530362</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0.33324196949336388</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>1.5252127195114744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" ref="A15:B15" si="4">A4</f>
+        <v>100000</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>0.90694927205984055</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:H15" si="5">($A4*$B4*4)/D4</f>
+        <v>0.35340028501732984</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>1.663357278747492</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>1.5607593874799783</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>0.43182053106908236</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>1.6204730565970471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" ref="A16:B16" si="6">A5</f>
+        <v>100000</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>1.8418146017910495</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:H16" si="7">($A5*$B5*4)/D5</f>
+        <v>0.42011213317974733</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="7"/>
+        <v>1.6677985111771165</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="7"/>
+        <v>3.5009945012505113</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="7"/>
+        <v>0.43563819975236689</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>1.6366469808722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" ref="A17:B17" si="8">A6</f>
+        <v>100000</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>3.6027130681098534</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:H17" si="9">($A6*$B6*4)/D6</f>
+        <v>0.50512225537087019</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="9"/>
+        <v>1.6366524218236349</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="9"/>
+        <v>5.0801311308848156</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="9"/>
+        <v>0.51429366746992911</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="9"/>
+        <v>1.5110644150232857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" ref="A18:B18" si="10">A7</f>
+        <v>100000</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>4.5112167174413509</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:H18" si="11">($A7*$B7*4)/D7</f>
+        <v>0.55524653097800647</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="11"/>
+        <v>1.4713100291618246</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="11"/>
+        <v>5.4776699361509102</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="11"/>
+        <v>0.45137639473542784</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="11"/>
+        <v>1.1915080107038378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" ref="A19:B19" si="12">A8</f>
+        <v>100000</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>1.3886341703488525</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:H19" si="13">($A8*$B8*4)/D8</f>
+        <v>0.57166204688553268</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="13"/>
+        <v>1.4036896200990807</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="13"/>
+        <v>1.5303526010105946</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="13"/>
+        <v>0.31214361825420756</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="13"/>
+        <v>0.49731664644310392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" ref="A20:B20" si="14">A9</f>
+        <v>100000</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="14"/>
+        <v>128</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>2.0894641626288726</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:H20" si="15">($A9*$B9*4)/D9</f>
+        <v>0.59149154887387811</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="15"/>
+        <v>1.5318985408038082</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="15"/>
+        <v>2.1577374336132253</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="15"/>
+        <v>0.29505485130194997</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="15"/>
+        <v>0.41172591878428016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>A13</f>
+        <v>100000</v>
+      </c>
+      <c r="B23">
+        <f>B13</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <f>C13*1000000/1048576</f>
+        <v>0.24031057429178351</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:H23" si="16">D13*1000000/1048576</f>
+        <v>0.22845987055658198</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="16"/>
+        <v>1.1260334399804588</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="16"/>
+        <v>0.44970266172308138</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="16"/>
+        <v>0.22957962023524298</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="16"/>
+        <v>1.1888384502502525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" ref="A24:B24" si="17">A14</f>
+        <v>100000</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" ref="C24:H30" si="18">C14*1000000/1048576</f>
+        <v>0.46506264404828018</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="18"/>
+        <v>0.32843884165322457</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="18"/>
+        <v>1.421694304246228</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="18"/>
+        <v>0.80766725821784613</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="18"/>
+        <v>0.3178043074544562</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="18"/>
+        <v>1.4545561976542229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" ref="A25:B25" si="19">A15</f>
+        <v>100000</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="18"/>
+        <v>0.86493422704681444</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="18"/>
+        <v>0.33702877523167596</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="18"/>
+        <v>1.5863011157488747</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="18"/>
+        <v>1.4884561419296058</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="18"/>
+        <v>0.41181614977749098</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="18"/>
+        <v>1.5454035345049353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" ref="A26:B26" si="20">A16</f>
+        <v>100000</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="18"/>
+        <v>1.7564912813101288</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="18"/>
+        <v>0.40065015142416699</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="18"/>
+        <v>1.5905366050501981</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="18"/>
+        <v>3.3388085377221213</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="18"/>
+        <v>0.41545696234928786</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="18"/>
+        <v>1.5608281906816481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" ref="A27:B27" si="21">A17</f>
+        <v>100000</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="18"/>
+        <v>3.4358149224375278</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="18"/>
+        <v>0.48172212159239786</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="18"/>
+        <v>1.5608333795772886</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="18"/>
+        <v>4.8447905835006866</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="18"/>
+        <v>0.49046866175644788</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="18"/>
+        <v>1.441063323043142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" ref="A28:B28" si="22">A18</f>
+        <v>100000</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="22"/>
+        <v>32</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="18"/>
+        <v>4.3022315191663276</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="18"/>
+        <v>0.52952435586739199</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="18"/>
+        <v>1.4031505862825628</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="18"/>
+        <v>5.2239131318577865</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="18"/>
+        <v>0.43046607469122683</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="18"/>
+        <v>1.1363105876005533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" ref="A29:B29" si="23">A19</f>
+        <v>100000</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="23"/>
+        <v>64</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="18"/>
+        <v>1.3243047431458019</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="18"/>
+        <v>0.54517941177895801</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="18"/>
+        <v>1.3386627388945396</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="18"/>
+        <v>1.4594579706293054</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="18"/>
+        <v>0.29768335175915484</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="18"/>
+        <v>0.47427811283407584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" ref="A30:B30" si="24">A20</f>
+        <v>100000</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="24"/>
+        <v>128</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="18"/>
+        <v>1.9926683069504476</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="18"/>
+        <v>0.56409029853236969</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="18"/>
+        <v>1.4609322937048037</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="18"/>
+        <v>2.0577787719852689</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="18"/>
+        <v>0.2813862336177349</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="18"/>
+        <v>0.39265243414333362</v>
       </c>
     </row>
   </sheetData>
@@ -24344,7 +28081,7 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="D27" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:D33"/>
     </sheetView>
   </sheetViews>
@@ -29079,7 +32816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" zoomScale="69" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="69" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F33"/>
     </sheetView>
   </sheetViews>

--- a/tests/results/diagrams.xlsx
+++ b/tests/results/diagrams.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="insert columns" sheetId="1" r:id="rId1"/>
@@ -242,7 +242,7 @@
     </textPr>
   </connection>
   <connection id="17" name="times_scan3" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/maxklenk/dev/hpi/epic-battle-db/build/times_scan.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/maxklenk/dev/hpi/epic-battle-db/build/times_scan.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>rows</t>
   </si>
@@ -315,6 +315,33 @@
   </si>
   <si>
     <t>=(ROWS * SIZE(4 byte))/TIME</t>
+  </si>
+  <si>
+    <t>Bandwidth (GB/s)</t>
+  </si>
+  <si>
+    <t>rowstore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> columnstore</t>
+  </si>
+  <si>
+    <t>row store (row insert)</t>
+  </si>
+  <si>
+    <t>row store (by field)</t>
+  </si>
+  <si>
+    <t>row store (inlined insert)</t>
+  </si>
+  <si>
+    <t>row store (inlined row insert)</t>
+  </si>
+  <si>
+    <t>col store (by field)</t>
+  </si>
+  <si>
+    <t>col store (inlined insert)</t>
   </si>
 </sst>
 </file>
@@ -1911,11 +1938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2137528704"/>
-        <c:axId val="2137531104"/>
+        <c:axId val="-2056338000"/>
+        <c:axId val="2141329696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2137528704"/>
+        <c:axId val="-2056338000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,7 +1985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137531104"/>
+        <c:crossAx val="2141329696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1966,7 +1993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137531104"/>
+        <c:axId val="2141329696"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2073,7 +2100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137528704"/>
+        <c:crossAx val="-2056338000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2826,11 +2853,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2136769472"/>
-        <c:axId val="2136772560"/>
+        <c:axId val="2144406560"/>
+        <c:axId val="2144424192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2136769472"/>
+        <c:axId val="2144406560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2872,7 +2899,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136772560"/>
+        <c:crossAx val="2144424192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2880,7 +2907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136772560"/>
+        <c:axId val="2144424192"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2987,7 +3014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136769472"/>
+        <c:crossAx val="2144406560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3740,11 +3767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2137690576"/>
-        <c:axId val="2137733504"/>
+        <c:axId val="-2127996896"/>
+        <c:axId val="-2127896336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2137690576"/>
+        <c:axId val="-2127996896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3786,7 +3813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137733504"/>
+        <c:crossAx val="-2127896336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3794,7 +3821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137733504"/>
+        <c:axId val="-2127896336"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3900,7 +3927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137690576"/>
+        <c:crossAx val="-2127996896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4028,7 +4055,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4710,11 +4736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2072079232"/>
-        <c:axId val="-2044859888"/>
+        <c:axId val="-2058571120"/>
+        <c:axId val="-2058928384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2072079232"/>
+        <c:axId val="-2058571120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4757,7 +4783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044859888"/>
+        <c:crossAx val="-2058928384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4765,7 +4791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2044859888"/>
+        <c:axId val="-2058928384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4816,7 +4842,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4877,7 +4902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2072079232"/>
+        <c:crossAx val="-2058571120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5005,7 +5030,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5687,11 +5711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2045459312"/>
-        <c:axId val="-2045462368"/>
+        <c:axId val="-2057199936"/>
+        <c:axId val="-2056976144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2045459312"/>
+        <c:axId val="-2057199936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5734,7 +5758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045462368"/>
+        <c:crossAx val="-2056976144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5742,7 +5766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2045462368"/>
+        <c:axId val="-2056976144"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5795,7 +5819,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5856,7 +5879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045459312"/>
+        <c:crossAx val="-2057199936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5984,7 +6007,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6666,11 +6688,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2045545568"/>
-        <c:axId val="-2045548624"/>
+        <c:axId val="-2058745328"/>
+        <c:axId val="-2058533360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2045545568"/>
+        <c:axId val="-2058745328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6713,7 +6735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045548624"/>
+        <c:crossAx val="-2058533360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6721,7 +6743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2045548624"/>
+        <c:axId val="-2058533360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6767,7 +6789,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6828,7 +6849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045545568"/>
+        <c:crossAx val="-2058745328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7001,7 +7022,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>time ns row store (row insert)</c:v>
+                  <c:v>row store (row insert)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7107,7 +7128,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns row store (by field)</c:v>
+                  <c:v>row store (by field)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7213,7 +7234,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns row store (inlined insert)</c:v>
+                  <c:v>row store (inlined insert)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7319,7 +7340,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns row store (inlined row insert)</c:v>
+                  <c:v>row store (inlined row insert)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7425,7 +7446,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns col store (by field)</c:v>
+                  <c:v>col store (by field)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7531,7 +7552,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns col store (inlined insert)</c:v>
+                  <c:v>col store (inlined insert)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7638,16 +7659,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135150816"/>
-        <c:axId val="2135147712"/>
+        <c:axId val="-2059106768"/>
+        <c:axId val="-2128114784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2135150816"/>
+        <c:axId val="-2059106768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7684,7 +7706,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135147712"/>
+        <c:crossAx val="-2128114784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7692,7 +7714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135147712"/>
+        <c:axId val="-2128114784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7804,7 +7826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135150816"/>
+        <c:crossAx val="-2059106768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7977,7 +7999,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>time ns row store (row insert)</c:v>
+                  <c:v>row store (row insert)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8083,7 +8105,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns row store (by field)</c:v>
+                  <c:v>row store (by field)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8189,7 +8211,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns row store (inlined insert)</c:v>
+                  <c:v>row store (inlined insert)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8295,7 +8317,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns row store (inlined row insert)</c:v>
+                  <c:v>row store (inlined row insert)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8401,7 +8423,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns col store (by field)</c:v>
+                  <c:v>col store (by field)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8507,7 +8529,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns col store (inlined insert)</c:v>
+                  <c:v>col store (inlined insert)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8614,11 +8636,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2078793936"/>
-        <c:axId val="-2098453584"/>
+        <c:axId val="-2056679376"/>
+        <c:axId val="-2056676400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2078793936"/>
+        <c:axId val="-2056679376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8661,7 +8683,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098453584"/>
+        <c:crossAx val="-2056676400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8669,7 +8691,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098453584"/>
+        <c:axId val="-2056676400"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -8783,7 +8805,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078793936"/>
+        <c:crossAx val="-2056679376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8906,7 +8928,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>insert inline bandwidth</a:t>
+              <a:t>Insert Bandwidth (100k lines, 64bit)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8956,7 +8978,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>time ns row store (row insert)</c:v>
+                  <c:v>row store (row insert)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8987,7 +9009,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (64bit)'!$B$23:$B$30</c:f>
+              <c:f>'Compare Inserts (64bit)'!$B$33:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9020,33 +9042,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (64bit)'!$C$23:$C$30</c:f>
+              <c:f>'Compare Inserts (64bit)'!$C$33:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.266085111138586</c:v>
+                  <c:v>0.259848741346275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.547778987831592</c:v>
+                  <c:v>0.534940417804289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.283771209987287</c:v>
+                  <c:v>1.25368282225321</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.22443487253312</c:v>
+                  <c:v>2.172299680208125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.571774728316852</c:v>
+                  <c:v>1.534936258121926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.756796808808246</c:v>
+                  <c:v>3.668746883601802</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.837447332294047</c:v>
+                  <c:v>3.747507160443405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.864035735602657</c:v>
+                  <c:v>5.72659739804947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9062,7 +9084,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns row store (by field)</c:v>
+                  <c:v>row store (by field)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9093,7 +9115,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (64bit)'!$B$23:$B$30</c:f>
+              <c:f>'Compare Inserts (64bit)'!$B$33:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9126,33 +9148,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (64bit)'!$D$23:$D$30</c:f>
+              <c:f>'Compare Inserts (64bit)'!$D$33:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.301243469496579</c:v>
+                  <c:v>0.294183075680253</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.396108922049131</c:v>
+                  <c:v>0.386825119188604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.551438717412933</c:v>
+                  <c:v>0.538514372473567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.621656510474277</c:v>
+                  <c:v>0.607086436010036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.569411076894601</c:v>
+                  <c:v>0.556065504779884</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.483288569769595</c:v>
+                  <c:v>0.471961493915621</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.564331773623606</c:v>
+                  <c:v>0.551105247679303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.630433778335362</c:v>
+                  <c:v>0.615657986655626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9168,7 +9190,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns row store (inlined insert)</c:v>
+                  <c:v>row store (inlined insert)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9199,7 +9221,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (64bit)'!$B$23:$B$30</c:f>
+              <c:f>'Compare Inserts (64bit)'!$B$33:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9232,33 +9254,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (64bit)'!$E$23:$E$30</c:f>
+              <c:f>'Compare Inserts (64bit)'!$E$33:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.145496255634097</c:v>
+                  <c:v>1.118648687142673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.415663815553869</c:v>
+                  <c:v>1.382484194876825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.484348324479391</c:v>
+                  <c:v>1.449558910624405</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.498733838958779</c:v>
+                  <c:v>1.463607264608182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.492976686042985</c:v>
+                  <c:v>1.457985044963852</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.374077675093991</c:v>
+                  <c:v>1.341872729583976</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.240632900032705</c:v>
+                  <c:v>1.211555566438189</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.183194212007467</c:v>
+                  <c:v>1.155463097663542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9274,7 +9296,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns row store (inlined row insert)</c:v>
+                  <c:v>row store (inlined row insert)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9305,7 +9327,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (64bit)'!$B$23:$B$30</c:f>
+              <c:f>'Compare Inserts (64bit)'!$B$33:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9338,33 +9360,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (64bit)'!$F$23:$F$30</c:f>
+              <c:f>'Compare Inserts (64bit)'!$F$33:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.377552244473839</c:v>
+                  <c:v>0.368703363743984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.838741560386489</c:v>
+                  <c:v>0.819083555064931</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.979971512942853</c:v>
+                  <c:v>1.933565930608255</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.22229112574796</c:v>
+                  <c:v>3.146768677488242</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.058166199771621</c:v>
+                  <c:v>2.986490429464474</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.056192847269296</c:v>
+                  <c:v>3.961125827411422</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.824073614850853</c:v>
+                  <c:v>4.711009389502786</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.160904756247545</c:v>
+                  <c:v>5.039946051022993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9380,7 +9402,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns col store (by field)</c:v>
+                  <c:v>col store (by field)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9411,7 +9433,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (64bit)'!$B$23:$B$30</c:f>
+              <c:f>'Compare Inserts (64bit)'!$B$33:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9444,33 +9466,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (64bit)'!$G$23:$G$30</c:f>
+              <c:f>'Compare Inserts (64bit)'!$G$33:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.326433105050916</c:v>
+                  <c:v>0.318782329151285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.464591117095387</c:v>
+                  <c:v>0.453702262788464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.506688724401223</c:v>
+                  <c:v>0.494813207423069</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.605207900553198</c:v>
+                  <c:v>0.591023340383983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.494696313490525</c:v>
+                  <c:v>0.483101868643091</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.403706311768487</c:v>
+                  <c:v>0.394244445086413</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.614644083115458</c:v>
+                  <c:v>0.600238362417439</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46161213513066</c:v>
+                  <c:v>0.450793100713535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9486,7 +9508,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> time ns col store (inlined insert)</c:v>
+                  <c:v>col store (inlined insert)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9517,7 +9539,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (64bit)'!$B$23:$B$30</c:f>
+              <c:f>'Compare Inserts (64bit)'!$B$33:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9550,33 +9572,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (64bit)'!$H$23:$H$30</c:f>
+              <c:f>'Compare Inserts (64bit)'!$H$33:$H$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.929092842525141</c:v>
+                  <c:v>0.907317229028458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.190093909643958</c:v>
+                  <c:v>1.162201083636677</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.355495795719634</c:v>
+                  <c:v>1.323726363007455</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.064210168372665</c:v>
+                  <c:v>1.039267742551431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.989014108504949</c:v>
+                  <c:v>0.965834090336864</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.164896098156774</c:v>
+                  <c:v>1.137593845856224</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.933044448520129</c:v>
+                  <c:v>0.911176219257938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.849511053949834</c:v>
+                  <c:v>0.829600638622884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9593,11 +9615,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2072293488"/>
-        <c:axId val="-2072121024"/>
+        <c:axId val="-2058172288"/>
+        <c:axId val="-2058269296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2072293488"/>
+        <c:axId val="-2058172288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9640,7 +9662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2072121024"/>
+        <c:crossAx val="-2058269296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9648,7 +9670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2072121024"/>
+        <c:axId val="-2058269296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9689,7 +9711,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>MB/ms</a:t>
+                  <a:t>GB/S</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9755,7 +9777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2072293488"/>
+        <c:crossAx val="-2058172288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9877,9 +9899,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Scan comparison</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Scan Timing (10 mio lines, single thread, 64bit)</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -9928,7 +9955,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ns rowstore</c:v>
+                  <c:v>rowstore</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10034,7 +10061,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> ns columnstore</c:v>
+                  <c:v> columnstore</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10141,11 +10168,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2043709744"/>
-        <c:axId val="-2043878000"/>
+        <c:axId val="-2058449888"/>
+        <c:axId val="-2059234784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2043709744"/>
+        <c:axId val="-2058449888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10187,7 +10214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2043878000"/>
+        <c:crossAx val="-2059234784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10195,7 +10222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2043878000"/>
+        <c:axId val="-2059234784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10216,6 +10243,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ns</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -10276,7 +10328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2043709744"/>
+        <c:crossAx val="-2058449888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10379,6 +10431,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scan</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Bandwidth (10 mio lines, single thread, 64bit)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10419,11 +10502,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$1</c:f>
+              <c:f>'Compate Scan (64bit)'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rows</c:v>
+                  <c:v>rowstore</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10452,59 +10535,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compate Scan (64bit)'!$B$33:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$33</c:f>
+              <c:f>'Compate Scan (64bit)'!$C$33:$C$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0E6</c:v>
+                  <c:v>0.524258203383992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0E6</c:v>
+                  <c:v>0.70729947153599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0E6</c:v>
+                  <c:v>0.574272266972526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0E6</c:v>
+                  <c:v>0.519999318046039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0E6</c:v>
+                  <c:v>0.515977568741924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>0.183420506600059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0E6</c:v>
+                  <c:v>0.16445364109454</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0E6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0E7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0E7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0E7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0E7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0E7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0E7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0E7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0E7</c:v>
+                  <c:v>0.0925288647060473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10516,11 +10608,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$1</c:f>
+              <c:f>'Compate Scan (64bit)'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>columns</c:v>
+                  <c:v> columnstore</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10549,253 +10641,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compate Scan (64bit)'!$B$33:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$33</c:f>
+              <c:f>'Compate Scan (64bit)'!$D$33:$D$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.753238577129757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>0.519786912967106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>0.704454459927477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>0.763947047699211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>0.794650106765329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>0.762976142389278</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0</c:v>
+                  <c:v>0.816293584590593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>time ns row store</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>2.0772143E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.185927E7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3035268E7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5857113E7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.3721912E7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.64531727E8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.32811636E8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.03166437E8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.58676605E8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.63352454E8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.03137588E8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.39784375E8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.43906508E8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.515467955E9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.173039106E9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.517415546E9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> time ns col store</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$D$2:$D$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>2.6977836E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.6589238E7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.6104814E7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.51858101E8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.05112231E8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.851251E8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.25205787E8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.580023714E9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.84114896E8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.05727687E8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.05402527E8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.02198906E9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.080779044E9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.971005952E9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.200497852E9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6610494058E10</c:v>
+                  <c:v>0.76791413308321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10812,11 +10719,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2137764496"/>
-        <c:axId val="2137767616"/>
+        <c:axId val="-2078175616"/>
+        <c:axId val="-2078202352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2137764496"/>
+        <c:axId val="-2078175616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10858,7 +10765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137767616"/>
+        <c:crossAx val="-2078202352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10866,9 +10773,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137767616"/>
+        <c:axId val="-2078202352"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -10887,6 +10793,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>GB/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10917,10 +10879,49 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137764496"/>
+        <c:crossAx val="-2078175616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -10929,37 +10930,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -11492,11 +11462,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2137587376"/>
-        <c:axId val="2137590768"/>
+        <c:axId val="-2127898144"/>
+        <c:axId val="-2127887776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2137587376"/>
+        <c:axId val="-2127898144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11538,7 +11508,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137590768"/>
+        <c:crossAx val="-2127887776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11546,7 +11516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137590768"/>
+        <c:axId val="-2127887776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11626,7 +11596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137587376"/>
+        <c:crossAx val="-2127898144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11729,7 +11699,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12163,11 +12132,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135112560"/>
-        <c:axId val="2135109424"/>
+        <c:axId val="-2056516832"/>
+        <c:axId val="-2056513808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2135112560"/>
+        <c:axId val="-2056516832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12209,7 +12178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135109424"/>
+        <c:crossAx val="-2056513808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12217,7 +12186,640 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135109424"/>
+        <c:axId val="-2056513808"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2056516832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>columns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time ns row store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.0772143E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.185927E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3035268E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5857113E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3721912E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.64531727E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.32811636E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.03166437E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.58676605E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.63352454E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.03137588E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.39784375E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.43906508E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.515467955E9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.173039106E9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.517415546E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.6977836E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6589238E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6104814E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.51858101E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.05112231E8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.851251E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.25205787E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.580023714E9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.84114896E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.05727687E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.05402527E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.02198906E9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.080779044E9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.971005952E9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.200497852E9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6610494058E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2064617824"/>
+        <c:axId val="-2064614624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2064617824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2064614624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2064614624"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -12239,7 +12841,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12300,7 +12901,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135112560"/>
+        <c:crossAx val="-2064617824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12883,11 +13484,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2133200272"/>
-        <c:axId val="2133196864"/>
+        <c:axId val="2142097040"/>
+        <c:axId val="2142057168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133200272"/>
+        <c:axId val="2142097040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12930,7 +13531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133196864"/>
+        <c:crossAx val="2142057168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12938,7 +13539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133196864"/>
+        <c:axId val="2142057168"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -13044,7 +13645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133200272"/>
+        <c:crossAx val="2142097040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13676,11 +14277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2136486192"/>
-        <c:axId val="2136489280"/>
+        <c:axId val="-2059736288"/>
+        <c:axId val="-2060444320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2136486192"/>
+        <c:axId val="-2059736288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13722,7 +14323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136489280"/>
+        <c:crossAx val="-2060444320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13730,7 +14331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136489280"/>
+        <c:axId val="-2060444320"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -13751,6 +14352,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13781,7 +14383,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136486192"/>
+        <c:crossAx val="-2059736288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14514,11 +15116,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2136564416"/>
-        <c:axId val="2136567504"/>
+        <c:axId val="-2128056176"/>
+        <c:axId val="-2128000048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2136564416"/>
+        <c:axId val="-2128056176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14560,7 +15162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136567504"/>
+        <c:crossAx val="-2128000048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14568,7 +15170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136567504"/>
+        <c:axId val="-2128000048"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -14674,7 +15276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136564416"/>
+        <c:crossAx val="-2128056176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14802,7 +15404,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15488,11 +16089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135229232"/>
-        <c:axId val="2135226128"/>
+        <c:axId val="-2056727552"/>
+        <c:axId val="-2057984336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2135229232"/>
+        <c:axId val="-2056727552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15534,7 +16135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135226128"/>
+        <c:crossAx val="-2057984336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15542,7 +16143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135226128"/>
+        <c:axId val="-2057984336"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -15589,7 +16190,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15649,7 +16249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135229232"/>
+        <c:crossAx val="-2056727552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16402,11 +17002,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2137713984"/>
-        <c:axId val="2137717120"/>
+        <c:axId val="-2058373680"/>
+        <c:axId val="-2058737760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2137713984"/>
+        <c:axId val="-2058373680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16448,7 +17048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137717120"/>
+        <c:crossAx val="-2058737760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16456,7 +17056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137717120"/>
+        <c:axId val="-2058737760"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -16562,7 +17162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137713984"/>
+        <c:crossAx val="-2058373680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16690,7 +17290,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17316,11 +17915,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2136636512"/>
-        <c:axId val="2136639600"/>
+        <c:axId val="-2059694688"/>
+        <c:axId val="-2127881424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2136636512"/>
+        <c:axId val="-2059694688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17362,7 +17961,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136639600"/>
+        <c:crossAx val="-2127881424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17370,7 +17969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136639600"/>
+        <c:axId val="-2127881424"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -17417,7 +18016,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17477,7 +18075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136636512"/>
+        <c:crossAx val="-2059694688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18230,11 +18828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2136701984"/>
-        <c:axId val="2136705120"/>
+        <c:axId val="-2058629168"/>
+        <c:axId val="-2058633664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2136701984"/>
+        <c:axId val="-2058629168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18276,7 +18874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136705120"/>
+        <c:crossAx val="-2058633664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18284,7 +18882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136705120"/>
+        <c:axId val="-2058633664"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -18390,7 +18988,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136701984"/>
+        <c:crossAx val="-2058629168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18998,6 +19596,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25830,6 +26468,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -29626,6 +30767,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -33094,8 +34265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="58" zoomScaleNormal="41" zoomScalePageLayoutView="41" workbookViewId="0">
-      <selection activeCell="AF49" sqref="AF49"/>
+    <sheetView zoomScale="74" zoomScaleNormal="41" zoomScalePageLayoutView="41" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33911,10 +35082,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="87" zoomScaleNormal="41" zoomScalePageLayoutView="41" workbookViewId="0">
-      <selection activeCell="C35" sqref="C34:C35"/>
+    <sheetView topLeftCell="AC1" zoomScaleNormal="41" zoomScalePageLayoutView="41" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33937,22 +35108,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -34720,6 +35891,283 @@
       <c r="H30" s="2">
         <f t="shared" si="18"/>
         <v>0.84951105394983362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f>A23</f>
+        <v>100000</v>
+      </c>
+      <c r="B33">
+        <f>B23</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <f>C23*1000/1024</f>
+        <v>0.25984874134627528</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" ref="D33:H33" si="25">D23*1000/1024</f>
+        <v>0.29418307568025343</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="25"/>
+        <v>1.1186486871426726</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="25"/>
+        <v>0.36870336374398377</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="25"/>
+        <v>0.31878232915128479</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="25"/>
+        <v>0.90731722902845802</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" ref="A34:B34" si="26">A24</f>
+        <v>100000</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" ref="C34:H40" si="27">C24*1000/1024</f>
+        <v>0.53494041780428947</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="27"/>
+        <v>0.38682511918860424</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="27"/>
+        <v>1.3824841948768252</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="27"/>
+        <v>0.81908355506493102</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="27"/>
+        <v>0.45370226278846382</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="27"/>
+        <v>1.1622010836366774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" ref="A35:B35" si="28">A25</f>
+        <v>100000</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="27"/>
+        <v>1.2536828222532104</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="27"/>
+        <v>0.53851437247356726</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="27"/>
+        <v>1.4495589106244053</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="27"/>
+        <v>1.9335659306082547</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="27"/>
+        <v>0.49481320742306939</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="27"/>
+        <v>1.3237263630074547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" ref="A36:B36" si="29">A26</f>
+        <v>100000</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="29"/>
+        <v>8</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="27"/>
+        <v>2.1722996802081247</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="27"/>
+        <v>0.60708643601003598</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="27"/>
+        <v>1.4636072646081824</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="27"/>
+        <v>3.1467686774882417</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="27"/>
+        <v>0.59102334038398285</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0392677425514307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" ref="A37:B37" si="30">A27</f>
+        <v>100000</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="30"/>
+        <v>16</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="27"/>
+        <v>1.5349362581219259</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="27"/>
+        <v>0.55606550477988403</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="27"/>
+        <v>1.4579850449638523</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="27"/>
+        <v>2.9864904294644741</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="27"/>
+        <v>0.48310186864309063</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="27"/>
+        <v>0.96583409033686396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" ref="A38:B38" si="31">A28</f>
+        <v>100000</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="31"/>
+        <v>32</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="27"/>
+        <v>3.6687468836018025</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="27"/>
+        <v>0.47196149391562053</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="27"/>
+        <v>1.3418727295839759</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="27"/>
+        <v>3.9611258274114216</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="27"/>
+        <v>0.39424444508641288</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="27"/>
+        <v>1.1375938458562245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" ref="A39:B39" si="32">A29</f>
+        <v>100000</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="32"/>
+        <v>64</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="27"/>
+        <v>3.7475071604434049</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="27"/>
+        <v>0.55110524767930302</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="27"/>
+        <v>1.211555566438189</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="27"/>
+        <v>4.7110093895027862</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="27"/>
+        <v>0.60023836241743911</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="27"/>
+        <v>0.91117621925793801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" ref="A40:B40" si="33">A30</f>
+        <v>100000</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="33"/>
+        <v>128</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="27"/>
+        <v>5.7265973980494698</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="27"/>
+        <v>0.61565798665562654</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="27"/>
+        <v>1.1554630976635416</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="27"/>
+        <v>5.0399460510229934</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="27"/>
+        <v>0.45079310071353534</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="27"/>
+        <v>0.82960063862288436</v>
       </c>
     </row>
   </sheetData>
@@ -34730,18 +36178,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="1" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -34752,10 +36197,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -34889,11 +36334,11 @@
         <f>B2</f>
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <f>($A13*4)/C2</f>
         <v>0.56291795954849022</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <f>($A13*4)/D2</f>
         <v>0.80878376371447047</v>
       </c>
@@ -34907,11 +36352,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <f t="shared" ref="C14:D20" si="1">($A14*4)/C3</f>
         <v>0.75945702468129006</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <f t="shared" si="1"/>
         <v>0.55811694802062917</v>
       </c>
@@ -34925,11 +36370,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f t="shared" si="1"/>
         <v>0.61662015141169479</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <f t="shared" si="1"/>
         <v>0.75640221672746444</v>
       </c>
@@ -34943,11 +36388,11 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <f t="shared" si="1"/>
         <v>0.55834501623751054</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <f t="shared" si="1"/>
         <v>0.82028189643596539</v>
       </c>
@@ -34961,11 +36406,11 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <f t="shared" si="1"/>
         <v>0.55402669580403863</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <f t="shared" si="1"/>
         <v>0.8532490550799996</v>
       </c>
@@ -34979,11 +36424,11 @@
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
         <v>0.19694626931575154</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <f t="shared" si="1"/>
         <v>0.81923939479754726</v>
       </c>
@@ -34997,11 +36442,11 @@
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <f t="shared" si="1"/>
         <v>0.17658075255229269</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <f t="shared" si="1"/>
         <v>0.87648856243780215</v>
       </c>
@@ -35015,19 +36460,25 @@
         <f t="shared" si="7"/>
         <v>128</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <f t="shared" si="1"/>
         <v>9.935211196212046E-2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <f t="shared" si="1"/>
         <v>0.82454152193214481</v>
       </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -35038,11 +36489,11 @@
         <f>B13</f>
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <f>C13*1000000/1024/1024</f>
         <v>0.53684040026520752</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <f>D13*1000000/1024/1024</f>
         <v>0.77131630298087162</v>
       </c>
@@ -35056,11 +36507,11 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <f t="shared" ref="C24:D30" si="9">C14*1000000/1024/1024</f>
         <v>0.7242746588528538</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <f t="shared" si="9"/>
         <v>0.53226179887831604</v>
       </c>
@@ -35074,11 +36525,11 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <f t="shared" si="9"/>
         <v>0.58805480137986643</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <f t="shared" si="9"/>
         <v>0.72136136696573683</v>
       </c>
@@ -35092,11 +36543,11 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <f t="shared" si="9"/>
         <v>0.53247930167914437</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <f t="shared" si="9"/>
         <v>0.78228177684399169</v>
       </c>
@@ -35110,11 +36561,11 @@
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <f t="shared" si="9"/>
         <v>0.52836103039172999</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <f t="shared" si="9"/>
         <v>0.81372170932769738</v>
       </c>
@@ -35128,11 +36579,11 @@
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <f t="shared" si="9"/>
         <v>0.18782259875846055</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <f t="shared" si="9"/>
         <v>0.78128756980662084</v>
       </c>
@@ -35146,11 +36597,11 @@
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <f t="shared" si="9"/>
         <v>0.16840052848080891</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <f t="shared" si="9"/>
         <v>0.83588463062076779</v>
       </c>
@@ -35164,13 +36615,166 @@
         <f>B20</f>
         <v>128</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <f t="shared" si="9"/>
         <v>9.4749557458992439E-2</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <f t="shared" si="9"/>
         <v>0.78634407227720715</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f>A23</f>
+        <v>10000000</v>
+      </c>
+      <c r="B33">
+        <f>B23</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <f>C23*1000/1024</f>
+        <v>0.52425820338399176</v>
+      </c>
+      <c r="D33" s="2">
+        <f>D23*1000/1024</f>
+        <v>0.75323857712975739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" ref="A34:B34" si="10">A24</f>
+        <v>10000000</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" ref="C34:D34" si="11">C24*1000/1024</f>
+        <v>0.70729947153599004</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="11"/>
+        <v>0.51978691296710555</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" ref="A35:B35" si="12">A25</f>
+        <v>10000000</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" ref="C35:D35" si="13">C25*1000/1024</f>
+        <v>0.57427226697252576</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="13"/>
+        <v>0.70445445992747735</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" ref="A36:B36" si="14">A26</f>
+        <v>10000000</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" ref="C36:D36" si="15">C26*1000/1024</f>
+        <v>0.51999931804603938</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="15"/>
+        <v>0.76394704769921062</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" ref="A37:B37" si="16">A27</f>
+        <v>10000000</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" ref="C37:D37" si="17">C27*1000/1024</f>
+        <v>0.5159775687419238</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="17"/>
+        <v>0.79465010676532943</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" ref="A38:B38" si="18">A28</f>
+        <v>10000000</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="18"/>
+        <v>32</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" ref="C38:D38" si="19">C28*1000/1024</f>
+        <v>0.18342050660005912</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="19"/>
+        <v>0.76297614238927813</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" ref="A39:B39" si="20">A29</f>
+        <v>10000000</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="20"/>
+        <v>64</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" ref="C39:D39" si="21">C29*1000/1024</f>
+        <v>0.16445364109453994</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="21"/>
+        <v>0.81629358459059354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" ref="A40:B40" si="22">A30</f>
+        <v>10000000</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="22"/>
+        <v>128</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" ref="C40:D40" si="23">C30*1000/1024</f>
+        <v>9.2528864706047306E-2</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="23"/>
+        <v>0.7679141330832101</v>
       </c>
     </row>
   </sheetData>

--- a/tests/results/diagrams.xlsx
+++ b/tests/results/diagrams.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="insert columns" sheetId="1" r:id="rId1"/>
@@ -31,16 +31,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'insert rows'!$A$1:$D$193</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'scan test'!$A$1:$D$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Tabelle1!$A$1:$D$33</definedName>
-    <definedName name="times_insert" localSheetId="9">'Compare Inserts (32bit)'!$A$1:$H$9</definedName>
+    <definedName name="times_insert" localSheetId="9">'Compare Inserts (32bit)'!$A$2:$H$10</definedName>
     <definedName name="times_insert" localSheetId="10">'Compare Inserts (64bit)'!$A$1:$H$9</definedName>
     <definedName name="times_insert" localSheetId="0">'insert columns'!$A$2:$D$192</definedName>
     <definedName name="times_insert" localSheetId="1">'insert rows'!$A$1:$D$193</definedName>
     <definedName name="times_insert" localSheetId="5">'O2-insert'!$A$1:$D$33</definedName>
     <definedName name="times_insert" localSheetId="7">'O3-insert'!$A$1:$D$33</definedName>
-    <definedName name="times_insert_1" localSheetId="9">'Compare Inserts (32bit)'!$A$59:$H$67</definedName>
+    <definedName name="times_insert_1" localSheetId="9">'Compare Inserts (32bit)'!$A$60:$H$68</definedName>
     <definedName name="times_insert_1" localSheetId="10">'Compare Inserts (64bit)'!$A$59:$H$67</definedName>
     <definedName name="times_insert_1" localSheetId="12">Tabelle1!$A$1:$D$33</definedName>
-    <definedName name="times_insert_2" localSheetId="9">'Compare Inserts (32bit)'!$A$70:$H$78</definedName>
+    <definedName name="times_insert_2" localSheetId="9">'Compare Inserts (32bit)'!$A$71:$H$79</definedName>
     <definedName name="times_insert_2" localSheetId="10">'Compare Inserts (64bit)'!$A$70:$H$78</definedName>
     <definedName name="times_insert_5" localSheetId="4">'insert 5'!$A$1:$D$33</definedName>
     <definedName name="times_scan" localSheetId="11">'Compate Scan (64bit)'!$A$1:$D$9</definedName>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>rows</t>
   </si>
@@ -343,13 +343,30 @@
   <si>
     <t>col store (inlined insert)</t>
   </si>
+  <si>
+    <t>RAW data</t>
+  </si>
+  <si>
+    <t>Fields per Second</t>
+  </si>
+  <si>
+    <t>=(ROWS * COLS) / TIME * 1.000.000.000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -377,10 +394,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1938,11 +1957,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2056338000"/>
-        <c:axId val="2141329696"/>
+        <c:axId val="-2138240512"/>
+        <c:axId val="-2138237200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2056338000"/>
+        <c:axId val="-2138240512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1985,7 +2004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141329696"/>
+        <c:crossAx val="-2138237200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1993,7 +2012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141329696"/>
+        <c:axId val="-2138237200"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2100,7 +2119,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056338000"/>
+        <c:crossAx val="-2138240512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2853,11 +2872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2144406560"/>
-        <c:axId val="2144424192"/>
+        <c:axId val="-2137296192"/>
+        <c:axId val="-2137293104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2144406560"/>
+        <c:axId val="-2137296192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2899,7 +2918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2144424192"/>
+        <c:crossAx val="-2137293104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2907,7 +2926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144424192"/>
+        <c:axId val="-2137293104"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3014,7 +3033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2144406560"/>
+        <c:crossAx val="-2137296192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3767,11 +3786,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2127996896"/>
-        <c:axId val="-2127896336"/>
+        <c:axId val="-2136722768"/>
+        <c:axId val="-2136719632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127996896"/>
+        <c:axId val="-2136722768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3813,7 +3832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127896336"/>
+        <c:crossAx val="-2136719632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3821,7 +3840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127896336"/>
+        <c:axId val="-2136719632"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3927,7 +3946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127996896"/>
+        <c:crossAx val="-2136722768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4055,6 +4074,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4095,7 +4115,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$C$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4130,7 +4150,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$2:$B$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4163,7 +4183,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$C$2:$C$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4201,7 +4221,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$D$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4236,7 +4256,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$2:$B$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4269,7 +4289,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$D$2:$D$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4307,7 +4327,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$E$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4342,7 +4362,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$2:$B$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4375,7 +4395,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$E$2:$E$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4413,7 +4433,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$F$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4448,7 +4468,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$2:$B$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4481,7 +4501,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$F$2:$F$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4519,7 +4539,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$G$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4554,7 +4574,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$2:$B$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4587,7 +4607,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$G$2:$G$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4625,7 +4645,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$H$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4660,7 +4680,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$2:$B$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4693,7 +4713,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$H$2:$H$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4736,11 +4756,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2058571120"/>
-        <c:axId val="-2058928384"/>
+        <c:axId val="-2137277200"/>
+        <c:axId val="-2137274160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2058571120"/>
+        <c:axId val="-2137277200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4783,7 +4803,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058928384"/>
+        <c:crossAx val="-2137274160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4791,7 +4811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058928384"/>
+        <c:axId val="-2137274160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4842,6 +4862,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4902,7 +4923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058571120"/>
+        <c:crossAx val="-2137277200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5030,6 +5051,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5070,7 +5092,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$C$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5105,7 +5127,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$2:$B$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5138,7 +5160,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$C$2:$C$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5176,7 +5198,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$D$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5211,7 +5233,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$2:$B$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5244,7 +5266,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$D$2:$D$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5282,7 +5304,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$E$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5317,7 +5339,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$2:$B$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5350,7 +5372,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$E$2:$E$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5388,7 +5410,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$F$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5423,7 +5445,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$2:$B$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5456,7 +5478,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$F$2:$F$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5494,7 +5516,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$G$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5529,7 +5551,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$2:$B$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5562,7 +5584,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$G$2:$G$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5600,7 +5622,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$H$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5635,7 +5657,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$2:$B$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5668,7 +5690,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$H$2:$H$9</c:f>
+              <c:f>'Compare Inserts (32bit)'!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5711,11 +5733,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2057199936"/>
-        <c:axId val="-2056976144"/>
+        <c:axId val="-2137181872"/>
+        <c:axId val="-2137178832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2057199936"/>
+        <c:axId val="-2137181872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5758,7 +5780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056976144"/>
+        <c:crossAx val="-2137178832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5766,7 +5788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2056976144"/>
+        <c:axId val="-2137178832"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5819,6 +5841,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5879,7 +5902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2057199936"/>
+        <c:crossAx val="-2137181872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6047,7 +6070,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$C$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6082,7 +6105,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$23:$B$30</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$24:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6115,7 +6138,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$C$23:$C$30</c:f>
+              <c:f>'Compare Inserts (32bit)'!$C$24:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6153,7 +6176,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$D$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6188,7 +6211,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$23:$B$30</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$24:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6221,7 +6244,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$D$23:$D$30</c:f>
+              <c:f>'Compare Inserts (32bit)'!$D$24:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6259,7 +6282,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$E$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6294,7 +6317,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$23:$B$30</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$24:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6327,7 +6350,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$E$23:$E$30</c:f>
+              <c:f>'Compare Inserts (32bit)'!$E$24:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6365,7 +6388,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$F$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6400,7 +6423,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$23:$B$30</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$24:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6433,7 +6456,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$F$23:$F$30</c:f>
+              <c:f>'Compare Inserts (32bit)'!$F$24:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6471,7 +6494,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$G$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6506,7 +6529,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$23:$B$30</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$24:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6539,7 +6562,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$G$23:$G$30</c:f>
+              <c:f>'Compare Inserts (32bit)'!$G$24:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6577,7 +6600,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Inserts (32bit)'!$H$1</c:f>
+              <c:f>'Compare Inserts (32bit)'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6612,7 +6635,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$B$23:$B$30</c:f>
+              <c:f>'Compare Inserts (32bit)'!$B$24:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6645,7 +6668,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare Inserts (32bit)'!$H$23:$H$30</c:f>
+              <c:f>'Compare Inserts (32bit)'!$H$24:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6688,11 +6711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2058745328"/>
-        <c:axId val="-2058533360"/>
+        <c:axId val="-2137116624"/>
+        <c:axId val="-2137113520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2058745328"/>
+        <c:axId val="-2137116624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6735,7 +6758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058533360"/>
+        <c:crossAx val="-2137113520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6743,7 +6766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058533360"/>
+        <c:axId val="-2137113520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6849,7 +6872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058745328"/>
+        <c:crossAx val="-2137116624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7659,11 +7682,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2059106768"/>
-        <c:axId val="-2128114784"/>
+        <c:axId val="-2136654848"/>
+        <c:axId val="-2136651808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2059106768"/>
+        <c:axId val="-2136654848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7706,7 +7729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128114784"/>
+        <c:crossAx val="-2136651808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7714,7 +7737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128114784"/>
+        <c:axId val="-2136651808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7826,7 +7849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059106768"/>
+        <c:crossAx val="-2136654848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8636,11 +8659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2056679376"/>
-        <c:axId val="-2056676400"/>
+        <c:axId val="-2137800240"/>
+        <c:axId val="-2137803296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2056679376"/>
+        <c:axId val="-2137800240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8683,7 +8706,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056676400"/>
+        <c:crossAx val="-2137803296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8691,7 +8714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2056676400"/>
+        <c:axId val="-2137803296"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -8805,7 +8828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056679376"/>
+        <c:crossAx val="-2137800240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9615,11 +9638,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2058172288"/>
-        <c:axId val="-2058269296"/>
+        <c:axId val="-2137865472"/>
+        <c:axId val="-2137868528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2058172288"/>
+        <c:axId val="-2137865472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9662,7 +9685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058269296"/>
+        <c:crossAx val="-2137868528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9670,7 +9693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058269296"/>
+        <c:axId val="-2137868528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9777,7 +9800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058172288"/>
+        <c:crossAx val="-2137865472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10168,11 +10191,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2058449888"/>
-        <c:axId val="-2059234784"/>
+        <c:axId val="2131886704"/>
+        <c:axId val="2131883664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2058449888"/>
+        <c:axId val="2131886704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10214,7 +10237,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059234784"/>
+        <c:crossAx val="2131883664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10222,7 +10245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2059234784"/>
+        <c:axId val="2131883664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10328,7 +10351,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058449888"/>
+        <c:crossAx val="2131886704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10719,11 +10742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2078175616"/>
-        <c:axId val="-2078202352"/>
+        <c:axId val="2131812256"/>
+        <c:axId val="2131809216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2078175616"/>
+        <c:axId val="2131812256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10765,7 +10788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078202352"/>
+        <c:crossAx val="2131809216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10773,7 +10796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078202352"/>
+        <c:axId val="2131809216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10879,7 +10902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078175616"/>
+        <c:crossAx val="2131812256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11462,11 +11485,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2127898144"/>
-        <c:axId val="-2127887776"/>
+        <c:axId val="-2138092944"/>
+        <c:axId val="-2138089552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127898144"/>
+        <c:axId val="-2138092944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11508,7 +11531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127887776"/>
+        <c:crossAx val="-2138089552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11516,7 +11539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127887776"/>
+        <c:axId val="-2138089552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11596,7 +11619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127898144"/>
+        <c:crossAx val="-2138092944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12132,11 +12155,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2056516832"/>
-        <c:axId val="-2056513808"/>
+        <c:axId val="-2136689808"/>
+        <c:axId val="-2136633856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2056516832"/>
+        <c:axId val="-2136689808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12178,7 +12201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056513808"/>
+        <c:crossAx val="-2136633856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12186,7 +12209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2056513808"/>
+        <c:axId val="-2136633856"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -12237,7 +12260,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056516832"/>
+        <c:crossAx val="-2136689808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12765,11 +12788,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2064617824"/>
-        <c:axId val="-2064614624"/>
+        <c:axId val="-2137932080"/>
+        <c:axId val="-2137935216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2064617824"/>
+        <c:axId val="-2137932080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12811,7 +12834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2064614624"/>
+        <c:crossAx val="-2137935216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12819,7 +12842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2064614624"/>
+        <c:axId val="-2137935216"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -12901,7 +12924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2064617824"/>
+        <c:crossAx val="-2137932080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13484,11 +13507,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2142097040"/>
-        <c:axId val="2142057168"/>
+        <c:axId val="2131956464"/>
+        <c:axId val="2131953056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142097040"/>
+        <c:axId val="2131956464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13531,7 +13554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142057168"/>
+        <c:crossAx val="2131953056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13539,7 +13562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142057168"/>
+        <c:axId val="2131953056"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -13645,7 +13668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142097040"/>
+        <c:crossAx val="2131956464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14277,11 +14300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2059736288"/>
-        <c:axId val="-2060444320"/>
+        <c:axId val="-2137491632"/>
+        <c:axId val="-2137488544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2059736288"/>
+        <c:axId val="-2137491632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14323,7 +14346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2060444320"/>
+        <c:crossAx val="-2137488544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14331,7 +14354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060444320"/>
+        <c:axId val="-2137488544"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -14383,7 +14406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059736288"/>
+        <c:crossAx val="-2137491632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15116,11 +15139,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2128056176"/>
-        <c:axId val="-2128000048"/>
+        <c:axId val="2131993200"/>
+        <c:axId val="-2137405648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2128056176"/>
+        <c:axId val="2131993200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15162,7 +15185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128000048"/>
+        <c:crossAx val="-2137405648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15170,7 +15193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128000048"/>
+        <c:axId val="-2137405648"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -15246,6 +15269,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -15276,7 +15300,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128056176"/>
+        <c:crossAx val="2131993200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16089,11 +16113,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2056727552"/>
-        <c:axId val="-2057984336"/>
+        <c:axId val="-2138846912"/>
+        <c:axId val="-2138113312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2056727552"/>
+        <c:axId val="-2138846912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16135,7 +16159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2057984336"/>
+        <c:crossAx val="-2138113312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16143,7 +16167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057984336"/>
+        <c:axId val="-2138113312"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -16249,7 +16273,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056727552"/>
+        <c:crossAx val="-2138846912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17002,11 +17026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2058373680"/>
-        <c:axId val="-2058737760"/>
+        <c:axId val="-2138969744"/>
+        <c:axId val="-2138972896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2058373680"/>
+        <c:axId val="-2138969744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17048,7 +17072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058737760"/>
+        <c:crossAx val="-2138972896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17056,7 +17080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058737760"/>
+        <c:axId val="-2138972896"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -17162,7 +17186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058373680"/>
+        <c:crossAx val="-2138969744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17915,11 +17939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2059694688"/>
-        <c:axId val="-2127881424"/>
+        <c:axId val="-2139038240"/>
+        <c:axId val="-2139041344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2059694688"/>
+        <c:axId val="-2139038240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17961,7 +17985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127881424"/>
+        <c:crossAx val="-2139041344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17969,7 +17993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127881424"/>
+        <c:axId val="-2139041344"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -18075,7 +18099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059694688"/>
+        <c:crossAx val="-2139038240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18828,11 +18852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2058629168"/>
-        <c:axId val="-2058633664"/>
+        <c:axId val="-2137378880"/>
+        <c:axId val="-2137375744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2058629168"/>
+        <c:axId val="-2137378880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18874,7 +18898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058633664"/>
+        <c:crossAx val="-2137375744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18882,7 +18906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058633664"/>
+        <c:axId val="-2137375744"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -18988,7 +19012,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058629168"/>
+        <c:crossAx val="-2137378880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30546,13 +30570,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>355599</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>118534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>728133</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>16934</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -30578,13 +30602,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>433659</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>30975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>806193</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>146203</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -30610,13 +30634,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>18406</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>372535</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>117332</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -31219,19 +31243,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34263,10 +34287,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="41" zoomScalePageLayoutView="41" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A13" zoomScale="74" zoomScaleNormal="41" zoomScalePageLayoutView="41" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34282,55 +34306,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>100000</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1587403</v>
-      </c>
-      <c r="D2">
-        <v>1669745</v>
-      </c>
-      <c r="E2">
-        <v>338773</v>
-      </c>
-      <c r="F2">
-        <v>848271</v>
-      </c>
-      <c r="G2">
-        <v>1661601</v>
-      </c>
-      <c r="H2">
-        <v>320876</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -34338,25 +34341,25 @@
         <v>100000</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1640509</v>
+        <v>1587403</v>
       </c>
       <c r="D3">
-        <v>2322927</v>
+        <v>1669745</v>
       </c>
       <c r="E3">
-        <v>536641</v>
+        <v>338773</v>
       </c>
       <c r="F3">
-        <v>944621</v>
+        <v>848271</v>
       </c>
       <c r="G3">
-        <v>2400658</v>
+        <v>1661601</v>
       </c>
       <c r="H3">
-        <v>524517</v>
+        <v>320876</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -34364,25 +34367,25 @@
         <v>100000</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1764156</v>
+        <v>1640509</v>
       </c>
       <c r="D4">
-        <v>4527444</v>
+        <v>2322927</v>
       </c>
       <c r="E4">
-        <v>961910</v>
+        <v>536641</v>
       </c>
       <c r="F4">
-        <v>1025142</v>
+        <v>944621</v>
       </c>
       <c r="G4">
-        <v>3705243</v>
+        <v>2400658</v>
       </c>
       <c r="H4">
-        <v>987366</v>
+        <v>524517</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -34390,25 +34393,25 @@
         <v>100000</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1737417</v>
+        <v>1764156</v>
       </c>
       <c r="D5">
-        <v>7617014</v>
+        <v>4527444</v>
       </c>
       <c r="E5">
-        <v>1918697</v>
+        <v>961910</v>
       </c>
       <c r="F5">
-        <v>914026</v>
+        <v>1025142</v>
       </c>
       <c r="G5">
-        <v>7345545</v>
+        <v>3705243</v>
       </c>
       <c r="H5">
-        <v>1955217</v>
+        <v>987366</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -34416,25 +34419,25 @@
         <v>100000</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>1776439</v>
+        <v>1737417</v>
       </c>
       <c r="D6">
-        <v>12670200</v>
+        <v>7617014</v>
       </c>
       <c r="E6">
-        <v>3910421</v>
+        <v>1918697</v>
       </c>
       <c r="F6">
-        <v>1259810</v>
+        <v>914026</v>
       </c>
       <c r="G6">
-        <v>12444252</v>
+        <v>7345545</v>
       </c>
       <c r="H6">
-        <v>4235425</v>
+        <v>1955217</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -34442,25 +34445,25 @@
         <v>100000</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>2837372</v>
+        <v>1776439</v>
       </c>
       <c r="D7">
-        <v>23052823</v>
+        <v>12670200</v>
       </c>
       <c r="E7">
-        <v>8699730</v>
+        <v>3910421</v>
       </c>
       <c r="F7">
-        <v>2336760</v>
+        <v>1259810</v>
       </c>
       <c r="G7">
-        <v>28357708</v>
+        <v>12444252</v>
       </c>
       <c r="H7">
-        <v>10742689</v>
+        <v>4235425</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -34468,25 +34471,25 @@
         <v>100000</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>18435381</v>
+        <v>2837372</v>
       </c>
       <c r="D8">
-        <v>44781703</v>
+        <v>23052823</v>
       </c>
       <c r="E8">
-        <v>18237650</v>
+        <v>8699730</v>
       </c>
       <c r="F8">
-        <v>16728171</v>
+        <v>2336760</v>
       </c>
       <c r="G8">
-        <v>82013530</v>
+        <v>28357708</v>
       </c>
       <c r="H8">
-        <v>51476258</v>
+        <v>10742689</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -34494,137 +34497,129 @@
         <v>100000</v>
       </c>
       <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>18435381</v>
+      </c>
+      <c r="D9">
+        <v>44781703</v>
+      </c>
+      <c r="E9">
+        <v>18237650</v>
+      </c>
+      <c r="F9">
+        <v>16728171</v>
+      </c>
+      <c r="G9">
+        <v>82013530</v>
+      </c>
+      <c r="H9">
+        <v>51476258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>100000</v>
+      </c>
+      <c r="B10">
         <v>128</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>24503890</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>86560831</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>33422579</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>23728559</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>173527057</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>124354571</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f>A2</f>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>A3</f>
         <v>100000</v>
       </c>
-      <c r="B13">
-        <f>B2</f>
+      <c r="B14">
+        <f>B3</f>
         <v>1</v>
       </c>
-      <c r="C13">
-        <f>($A2*$B2*4)/C2</f>
+      <c r="C14">
+        <f>($A3*$B3*4)/C3</f>
         <v>0.25198390074858118</v>
       </c>
-      <c r="D13">
-        <f t="shared" ref="D13:H20" si="0">($A2*$B2*4)/D2</f>
+      <c r="D14">
+        <f t="shared" ref="D14:H21" si="0">($A3*$B3*4)/D3</f>
         <v>0.23955753722873852</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>1.1807316403609496</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>0.47154741821894181</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <f t="shared" si="0"/>
         <v>0.24073167986779015</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>1.2465874668096086</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" ref="A14:B20" si="1">A3</f>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" ref="A15:B21" si="1">A4</f>
         <v>100000</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C14">
-        <f t="shared" ref="C14:C20" si="2">(A3*B3*4)/C3</f>
+      <c r="C15">
+        <f t="shared" ref="C15:C21" si="2">(A4*B4*4)/C4</f>
         <v>0.48765352704556941</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>0.34439308682537162</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>1.4907545267692928</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>0.8469005029530362</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <f t="shared" si="0"/>
         <v>0.33324196949336388</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>1.5252127195114744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="2"/>
-        <v>0.90694927205984055</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0.35340028501732984</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>1.663357278747492</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>1.5607593874799783</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0.43182053106908236</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>1.6204730565970471</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -34634,31 +34629,31 @@
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
-        <v>1.8418146017910495</v>
+        <v>0.90694927205984055</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>0.42011213317974733</v>
+        <v>0.35340028501732984</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1.6677985111771165</v>
+        <v>1.663357278747492</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>3.5009945012505113</v>
+        <v>1.5607593874799783</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.43563819975236689</v>
+        <v>0.43182053106908236</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>1.6366469808722</v>
+        <v>1.6204730565970471</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -34668,31 +34663,31 @@
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>3.6027130681098534</v>
+        <v>1.8418146017910495</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0.50512225537087019</v>
+        <v>0.42011213317974733</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1.6366524218236349</v>
+        <v>1.6677985111771165</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>5.0801311308848156</v>
+        <v>3.5009945012505113</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>0.51429366746992911</v>
+        <v>0.43563819975236689</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1.5110644150232857</v>
+        <v>1.6366469808722</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -34702,31 +34697,31 @@
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>4.5112167174413509</v>
+        <v>3.6027130681098534</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>0.55524653097800647</v>
+        <v>0.50512225537087019</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>1.4713100291618246</v>
+        <v>1.6366524218236349</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>5.4776699361509102</v>
+        <v>5.0801311308848156</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>0.45137639473542784</v>
+        <v>0.51429366746992911</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.1915080107038378</v>
+        <v>1.5110644150232857</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -34736,31 +34731,31 @@
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>1.3886341703488525</v>
+        <v>4.5112167174413509</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>0.57166204688553268</v>
+        <v>0.55524653097800647</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1.4036896200990807</v>
+        <v>1.4713100291618246</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>1.5303526010105946</v>
+        <v>5.4776699361509102</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>0.31214361825420756</v>
+        <v>0.45137639473542784</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>0.49731664644310392</v>
+        <v>1.1915080107038378</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -34770,138 +34765,138 @@
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>2.0894641626288726</v>
+        <v>1.3886341703488525</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>0.59149154887387811</v>
+        <v>0.57166204688553268</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>1.5318985408038082</v>
+        <v>1.4036896200990807</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>2.1577374336132253</v>
+        <v>1.5303526010105946</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>0.29505485130194997</v>
+        <v>0.31214361825420756</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
+        <v>0.49731664644310392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>2.0894641626288726</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.59149154887387811</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1.5318985408038082</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>2.1577374336132253</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0.29505485130194997</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
         <v>0.41172591878428016</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f>A13</f>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>A14</f>
         <v>100000</v>
       </c>
-      <c r="B23">
-        <f>B13</f>
+      <c r="B24">
+        <f>B14</f>
         <v>1</v>
       </c>
-      <c r="C23" s="2">
-        <f>C13*1000000/1048576</f>
+      <c r="C24" s="2">
+        <f>C14*1000000/1048576</f>
         <v>0.24031057429178351</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" ref="D23:H23" si="3">D13*1000000/1048576</f>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:H24" si="3">D14*1000000/1048576</f>
         <v>0.22845987055658198</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <f t="shared" si="3"/>
         <v>1.1260334399804588</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="2">
         <f t="shared" si="3"/>
         <v>0.44970266172308138</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G24" s="2">
         <f t="shared" si="3"/>
         <v>0.22957962023524298</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H24" s="2">
         <f t="shared" si="3"/>
         <v>1.1888384502502525</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <f t="shared" ref="A24:B30" si="4">A14</f>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" ref="A25:B31" si="4">A15</f>
         <v>100000</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C24" s="2">
-        <f t="shared" ref="C24:H30" si="5">C14*1000000/1048576</f>
+      <c r="C25" s="2">
+        <f t="shared" ref="C25:H31" si="5">C15*1000000/1048576</f>
         <v>0.46506264404828018</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="2">
         <f t="shared" si="5"/>
         <v>0.32843884165322457</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="2">
         <f t="shared" si="5"/>
         <v>1.421694304246228</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="2">
         <f t="shared" si="5"/>
         <v>0.80766725821784613</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G25" s="2">
         <f t="shared" si="5"/>
         <v>0.3178043074544562</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H25" s="2">
         <f t="shared" si="5"/>
         <v>1.4545561976542229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <f t="shared" si="4"/>
-        <v>100000</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="5"/>
-        <v>0.86493422704681444</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="5"/>
-        <v>0.33702877523167596</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="5"/>
-        <v>1.5863011157488747</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="5"/>
-        <v>1.4884561419296058</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="5"/>
-        <v>0.41181614977749098</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="5"/>
-        <v>1.5454035345049353</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -34911,31 +34906,31 @@
       </c>
       <c r="B26">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="5"/>
-        <v>1.7564912813101288</v>
+        <v>0.86493422704681444</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="5"/>
-        <v>0.40065015142416699</v>
+        <v>0.33702877523167596</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="5"/>
-        <v>1.5905366050501981</v>
+        <v>1.5863011157488747</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="5"/>
-        <v>3.3388085377221213</v>
+        <v>1.4884561419296058</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="5"/>
-        <v>0.41545696234928786</v>
+        <v>0.41181614977749098</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="5"/>
-        <v>1.5608281906816481</v>
+        <v>1.5454035345049353</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -34945,31 +34940,31 @@
       </c>
       <c r="B27">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="5"/>
-        <v>3.4358149224375278</v>
+        <v>1.7564912813101288</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="5"/>
-        <v>0.48172212159239786</v>
+        <v>0.40065015142416699</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="5"/>
-        <v>1.5608333795772886</v>
+        <v>1.5905366050501981</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="5"/>
-        <v>4.8447905835006866</v>
+        <v>3.3388085377221213</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="5"/>
-        <v>0.49046866175644788</v>
+        <v>0.41545696234928786</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="5"/>
-        <v>1.441063323043142</v>
+        <v>1.5608281906816481</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -34979,31 +34974,31 @@
       </c>
       <c r="B28">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="5"/>
-        <v>4.3022315191663276</v>
+        <v>3.4358149224375278</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="5"/>
-        <v>0.52952435586739199</v>
+        <v>0.48172212159239786</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="5"/>
-        <v>1.4031505862825628</v>
+        <v>1.5608333795772886</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="5"/>
-        <v>5.2239131318577865</v>
+        <v>4.8447905835006866</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="5"/>
-        <v>0.43046607469122683</v>
+        <v>0.49046866175644788</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="5"/>
-        <v>1.1363105876005533</v>
+        <v>1.441063323043142</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -35013,31 +35008,31 @@
       </c>
       <c r="B29">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="5"/>
-        <v>1.3243047431458019</v>
+        <v>4.3022315191663276</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="5"/>
-        <v>0.54517941177895801</v>
+        <v>0.52952435586739199</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="5"/>
-        <v>1.3386627388945396</v>
+        <v>1.4031505862825628</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="5"/>
-        <v>1.4594579706293054</v>
+        <v>5.2239131318577865</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="5"/>
-        <v>0.29768335175915484</v>
+        <v>0.43046607469122683</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="5"/>
-        <v>0.47427811283407584</v>
+        <v>1.1363105876005533</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -35047,31 +35042,347 @@
       </c>
       <c r="B30">
         <f t="shared" si="4"/>
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="5"/>
-        <v>1.9926683069504476</v>
+        <v>1.3243047431458019</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="5"/>
-        <v>0.56409029853236969</v>
+        <v>0.54517941177895801</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="5"/>
-        <v>1.4609322937048037</v>
+        <v>1.3386627388945396</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="5"/>
-        <v>2.0577787719852689</v>
+        <v>1.4594579706293054</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="5"/>
-        <v>0.2813862336177349</v>
+        <v>0.29768335175915484</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="5"/>
+        <v>0.47427811283407584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9926683069504476</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="5"/>
+        <v>0.56409029853236969</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4609322937048037</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0577787719852689</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2813862336177349</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="5"/>
         <v>0.39265243414333362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f>A24</f>
+        <v>100000</v>
+      </c>
+      <c r="B35">
+        <f>B24</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
+        <f>($A35*$B35)/C3*1000000000</f>
+        <v>62995975.187145293</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" ref="D35:H35" si="6">($A35*$B35)/D3*1000000000</f>
+        <v>59889384.307184629</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="6"/>
+        <v>295182910.09023738</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="6"/>
+        <v>117886854.55473545</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="6"/>
+        <v>60182919.966947541</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="6"/>
+        <v>311646866.70240217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" ref="A36:B36" si="7">A25</f>
+        <v>100000</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" ref="C36:H42" si="8">($A36*$B36)/C4*1000000000</f>
+        <v>121913381.76139235</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="8"/>
+        <v>86098271.706342906</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="8"/>
+        <v>372688631.69232321</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="8"/>
+        <v>211725125.73825905</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="8"/>
+        <v>83310492.373340964</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="8"/>
+        <v>381303179.87786859</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" ref="A37:B37" si="9">A26</f>
+        <v>100000</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="8"/>
+        <v>226737318.01496014</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="8"/>
+        <v>88350071.254332453</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="8"/>
+        <v>415839319.68687296</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="8"/>
+        <v>390189846.86999458</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="8"/>
+        <v>107955132.76727059</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="8"/>
+        <v>405118264.14926177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" ref="A38:B38" si="10">A27</f>
+        <v>100000</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="8"/>
+        <v>460453650.44776237</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="8"/>
+        <v>105028033.29493684</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="8"/>
+        <v>416949627.79427916</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="8"/>
+        <v>875248625.31262779</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="8"/>
+        <v>108909549.93809173</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="8"/>
+        <v>409161745.21805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" ref="A39:B39" si="11">A28</f>
+        <v>100000</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="8"/>
+        <v>900678267.02746332</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="8"/>
+        <v>126280563.84271754</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="8"/>
+        <v>409163105.45590872</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="8"/>
+        <v>1270032782.7212038</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="8"/>
+        <v>128573416.86748227</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="8"/>
+        <v>377766103.75582141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" ref="A40:B40" si="12">A29</f>
+        <v>100000</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="8"/>
+        <v>1127804179.3603377</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="8"/>
+        <v>138811632.74450162</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="8"/>
+        <v>367827507.29045618</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="8"/>
+        <v>1369417484.0377276</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="8"/>
+        <v>112844098.68385696</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="8"/>
+        <v>297877002.67595947</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" ref="A41:B41" si="13">A30</f>
+        <v>100000</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="13"/>
+        <v>64</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="8"/>
+        <v>347158542.5872131</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="8"/>
+        <v>142915511.72138318</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="8"/>
+        <v>350922405.0247702</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="8"/>
+        <v>382588150.25264865</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="8"/>
+        <v>78035904.563551888</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="8"/>
+        <v>124329161.61077598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" ref="A42:B42" si="14">A31</f>
+        <v>100000</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="14"/>
+        <v>128</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="8"/>
+        <v>522366040.65721816</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="8"/>
+        <v>147872887.21846953</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="8"/>
+        <v>382974635.20095205</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="8"/>
+        <v>539434358.40330637</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="8"/>
+        <v>73763712.825487494</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="8"/>
+        <v>102931479.69607005</v>
       </c>
     </row>
   </sheetData>
@@ -35082,15 +35393,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScaleNormal="41" zoomScalePageLayoutView="41" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="74" zoomScaleNormal="41" zoomScalePageLayoutView="41" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
@@ -36170,6 +36481,288 @@
         <v>0.82960063862288436</v>
       </c>
     </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f>A33</f>
+        <v>100000</v>
+      </c>
+      <c r="B45">
+        <f>B33</f>
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <f>($A45*$B45)/C2*1000000000</f>
+        <v>69752615.374313459</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" ref="D45:H45" si="34">($A45*$B45)/D2*1000000000</f>
+        <v>78969168.067711323</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="34"/>
+        <v>300284970.43694466</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="34"/>
+        <v>98973055.575350165</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="34"/>
+        <v>85572479.890467227</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="34"/>
+        <v>243556114.11091056</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" ref="A46:B46" si="35">A34</f>
+        <v>100000</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" ref="C46:H52" si="36">($A46*$B46)/C3*1000000000</f>
+        <v>143596974.98612496</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="36"/>
+        <v>103837577.26164733</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="36"/>
+        <v>371107775.26455349</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="36"/>
+        <v>219871067.60595587</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="36"/>
+        <v>121789773.79985312</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="36"/>
+        <v>311975977.84970558</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" ref="A47:B47" si="37">A35</f>
+        <v>100000</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="36"/>
+        <v>336532920.07090747</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="36"/>
+        <v>144556351.13749585</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="36"/>
+        <v>389113007.17232549</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="36"/>
+        <v>519037652.2888912</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" si="36"/>
+        <v>132825408.9694342</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="36"/>
+        <v>355335089.87312764</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" ref="A48:B48" si="38">A36</f>
+        <v>100000</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="38"/>
+        <v>8</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="36"/>
+        <v>583122255.22532213</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="36"/>
+        <v>162963524.28176883</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="36"/>
+        <v>392884083.48001009</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="36"/>
+        <v>844704284.86807299</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" si="36"/>
+        <v>158651619.88261765</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="36"/>
+        <v>278976310.37788391</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" ref="A49:B49" si="39">A37</f>
+        <v>100000</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="39"/>
+        <v>16</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="36"/>
+        <v>412031314.37989289</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="36"/>
+        <v>149267697.34145835</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="36"/>
+        <v>391374880.38605219</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="36"/>
+        <v>801679920.27293193</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="36"/>
+        <v>129681670.40366013</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="36"/>
+        <v>259264114.45992127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" ref="A50:B50" si="40">A38</f>
+        <v>100000</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="40"/>
+        <v>32</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="36"/>
+        <v>984821742.64822876</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="36"/>
+        <v>126691198.83368082</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="36"/>
+        <v>360206218.05983925</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="36"/>
+        <v>1063306617.7545623</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="36"/>
+        <v>105829187.39223818</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="36"/>
+        <v>305370522.75520939</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" ref="A51:B51" si="41">A39</f>
+        <v>100000</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="41"/>
+        <v>64</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="36"/>
+        <v>1005963793.4768906</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="36"/>
+        <v>147936188.46478665</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="36"/>
+        <v>325224470.94617349</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" si="36"/>
+        <v>1264601953.691462</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="36"/>
+        <v>161125258.52421853</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="36"/>
+        <v>244592003.9128606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" ref="A52:B52" si="42">A40</f>
+        <v>100000</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="42"/>
+        <v>128</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="36"/>
+        <v>1537221783.8738229</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="36"/>
+        <v>165264432.38794503</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="36"/>
+        <v>310167263.51248533</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" si="36"/>
+        <v>1352900216.4217565</v>
+      </c>
+      <c r="G52" s="4">
+        <f t="shared" si="36"/>
+        <v>121008851.55169177</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" si="36"/>
+        <v>222694225.72662517</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -36180,7 +36773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>

--- a/tests/results/diagrams.xlsx
+++ b/tests/results/diagrams.xlsx
@@ -23,27 +23,31 @@
     <sheet name="O3-scan" sheetId="9" r:id="rId9"/>
     <sheet name="Compare Inserts (32bit)" sheetId="12" r:id="rId10"/>
     <sheet name="Compare Inserts (64bit)" sheetId="11" r:id="rId11"/>
-    <sheet name="Compate Scan (64bit)" sheetId="13" r:id="rId12"/>
-    <sheet name="Tabelle1" sheetId="10" r:id="rId13"/>
+    <sheet name="Compare Update (64bit)" sheetId="14" r:id="rId12"/>
+    <sheet name="Compate Scan (64bit)" sheetId="13" r:id="rId13"/>
+    <sheet name="Tabelle1" sheetId="10" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'insert columns'!$A$1:$F$192</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'insert rows'!$A$1:$D$193</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'scan test'!$A$1:$D$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Tabelle1!$A$1:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Tabelle1!$A$1:$D$33</definedName>
     <definedName name="times_insert" localSheetId="9">'Compare Inserts (32bit)'!$A$2:$H$10</definedName>
     <definedName name="times_insert" localSheetId="10">'Compare Inserts (64bit)'!$A$1:$H$9</definedName>
+    <definedName name="times_insert" localSheetId="11">'Compare Update (64bit)'!$A$1:$E$9</definedName>
     <definedName name="times_insert" localSheetId="0">'insert columns'!$A$2:$D$192</definedName>
     <definedName name="times_insert" localSheetId="1">'insert rows'!$A$1:$D$193</definedName>
     <definedName name="times_insert" localSheetId="5">'O2-insert'!$A$1:$D$33</definedName>
     <definedName name="times_insert" localSheetId="7">'O3-insert'!$A$1:$D$33</definedName>
     <definedName name="times_insert_1" localSheetId="9">'Compare Inserts (32bit)'!$A$60:$H$68</definedName>
     <definedName name="times_insert_1" localSheetId="10">'Compare Inserts (64bit)'!$A$59:$H$67</definedName>
-    <definedName name="times_insert_1" localSheetId="12">Tabelle1!$A$1:$D$33</definedName>
+    <definedName name="times_insert_1" localSheetId="11">'Compare Update (64bit)'!$A$59:$H$67</definedName>
+    <definedName name="times_insert_1" localSheetId="13">Tabelle1!$A$1:$D$33</definedName>
     <definedName name="times_insert_2" localSheetId="9">'Compare Inserts (32bit)'!$A$71:$H$79</definedName>
     <definedName name="times_insert_2" localSheetId="10">'Compare Inserts (64bit)'!$A$70:$H$78</definedName>
+    <definedName name="times_insert_2" localSheetId="11">'Compare Update (64bit)'!$A$70:$H$78</definedName>
     <definedName name="times_insert_5" localSheetId="4">'insert 5'!$A$1:$D$33</definedName>
-    <definedName name="times_scan" localSheetId="11">'Compate Scan (64bit)'!$A$1:$D$9</definedName>
+    <definedName name="times_scan" localSheetId="12">'Compate Scan (64bit)'!$A$1:$D$9</definedName>
     <definedName name="times_scan" localSheetId="6">'O2-scan'!$A$1:$D$33</definedName>
     <definedName name="times_scan" localSheetId="8">'O3-scan'!$A$1:$D$33</definedName>
     <definedName name="times_scan" localSheetId="2">'scan test'!$A$1:$D$32</definedName>
@@ -162,7 +166,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="times_insert52" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="10" name="times_insert512" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/maxklenk/dev/hpi/epic-battle-db/build/times_insert.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -175,7 +179,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" name="times_insert521" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="11" name="times_insert52" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/maxklenk/dev/hpi/epic-battle-db/build/times_insert.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -188,7 +192,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" name="times_insert53" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="12" name="times_insert521" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/maxklenk/dev/hpi/epic-battle-db/build/times_insert.csv" decimal="," thousands="." comma="1">
       <textFields count="7">
         <textField/>
@@ -201,7 +205,46 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" name="times_scan" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="13" name="times_insert522" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/maxklenk/dev/hpi/epic-battle-db/build/times_insert.csv" decimal="," thousands="." comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="14" name="times_insert53" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/maxklenk/dev/hpi/epic-battle-db/build/times_insert.csv" decimal="," thousands="." comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="15" name="times_insert54" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/maxklenk/dev/hpi/epic-battle-db/build/times_updates.csv" decimal="," thousands="." comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="16" name="times_scan" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/build/times_scan.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
@@ -211,7 +254,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" name="times_scan_2" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="17" name="times_scan_2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/times_scan_2.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
@@ -221,7 +264,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" name="times_scan1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="18" name="times_scan1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/O2/times_scan.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
@@ -231,7 +274,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="16" name="times_scan2" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="19" name="times_scan2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/O3/times_scan.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
@@ -241,7 +284,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="17" name="times_scan3" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="20" name="times_scan3" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/maxklenk/dev/hpi/epic-battle-db/build/times_scan.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
@@ -255,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>rows</t>
   </si>
@@ -351,6 +394,12 @@
   </si>
   <si>
     <t>=(ROWS * COLS) / TIME * 1.000.000.000</t>
+  </si>
+  <si>
+    <t>time ns row store (row update)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> time ns col store (inlined update)</t>
   </si>
 </sst>
 </file>
@@ -9922,6 +9971,3327 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>update comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time ns row store (row update)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.949141E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.290324E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.530195E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.942194E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.992632E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.313461E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.119776E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3964104E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store (inlined update)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.980263E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.826539E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.319746E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6649191E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5729557E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5798272E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5517226E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.15769455E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2040625200"/>
+        <c:axId val="-2040622144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2040625200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2040622144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2040622144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time ns for inserting</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> 10.000 rows</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2040625200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>insert inline comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time ns row store (row update)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.949141E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.290324E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.530195E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.942194E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.992632E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.313461E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.119776E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3964104E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store (inlined update)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.980263E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.826539E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.319746E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6649191E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5729557E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5798272E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5517226E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.15769455E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2041326224"/>
+        <c:axId val="-2041329296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2041326224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2041329296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2041329296"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time ns for inserting</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> 10.000 rows</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2041326224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insert rows'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'insert rows'!$A$2:$A$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.097152E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.194304E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.388608E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insert rows'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>columns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'insert rows'!$B$2:$B$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insert rows'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time ns row store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'insert rows'!$C$2:$C$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5939.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24179.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38376.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25824.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57230.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106607.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>238222.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>461808.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>748715.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.356438E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.130891E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.784235E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.698346E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4320113E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3662145E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5424923E7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5107619E8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.07353725E8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.45208405E8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.040651651E9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.84591031E9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.978604324E9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.885520998E9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1005671812E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insert rows'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'insert rows'!$D$2:$D$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4331.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8962.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9704.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17601.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56992.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88137.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>189611.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>476962.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>787655.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.939701E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.267477E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.947681E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7508378E7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.505299E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0781913E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.31958478E8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.63384482E8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2465472E8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.150823107E9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.352567917E9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.101430442E9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.687774663E9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7633443865E10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6451145329E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2138092944"/>
+        <c:axId val="-2138089552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2138092944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2138089552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2138089552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2138092944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Insert Bandwidth (100k lines, 64bit)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time ns row store (row update)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$33:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$C$33:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.191124721016177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.325306838548774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.588933311220979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.012928528427946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.991713139984824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.763657525842502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.936270398365207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.414735082201658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> time ns col store (inlined update)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$33:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$D$33:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.188120986882142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.194708079466166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.179105963016751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.179001624689724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.166821673090967</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.157271777318065</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.153647681036264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.151008006206023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$33:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$E$33:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$33:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$F$33:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$33:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$G$33:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Update (64bit)'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$B$33:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare Update (64bit)'!$H$33:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2041415920"/>
+        <c:axId val="-2041418992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2041415920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2041418992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2041418992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>GB/S</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0;\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2041415920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -10439,7 +13809,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -10990,724 +14360,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'insert rows'!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rows</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'insert rows'!$A$2:$A$193</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>131072.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>262144.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>524288.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.048576E6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.097152E6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.194304E6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.388608E6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'insert rows'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>columns</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'insert rows'!$B$2:$B$193</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>128.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'insert rows'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>time ns row store</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'insert rows'!$C$2:$C$193</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>5939.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24179.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>38376.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25824.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>57230.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>106607.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>238222.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>461808.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>748715.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.356438E6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.130891E6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.784235E6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.698346E6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4320113E7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.3662145E7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.5424923E7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.5107619E8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.07353725E8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.45208405E8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.040651651E9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.84591031E9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.978604324E9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.885520998E9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.1005671812E10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'insert rows'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> time ns col store</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'insert rows'!$D$2:$D$193</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>4331.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8962.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9704.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17601.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56992.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>88137.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>189611.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>476962.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>787655.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.939701E6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.267477E6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.947681E6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7508378E7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.505299E7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.0781913E7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.31958478E8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.63384482E8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.2465472E8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.150823107E9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.352567917E9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.101430442E9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.687774663E9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.7633443865E10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.6451145329E10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-2138092944"/>
-        <c:axId val="-2138089552"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2138092944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2138089552"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2138089552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2138092944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -12340,7 +14993,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -19660,6 +22313,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -26995,6 +29768,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -30768,6 +35050,107 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>355599</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>728133</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>433659</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>30975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>806193</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>146203</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>18406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>372535</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>117332</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -30829,7 +35212,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -31239,11 +35622,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_2" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31255,7 +35638,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31263,23 +35646,35 @@
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_insert_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan_2" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan_2" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31291,7 +35686,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31299,7 +35694,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="times_scan" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35395,8 +39790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="74" zoomScaleNormal="41" zoomScalePageLayoutView="41" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="74" zoomScaleNormal="41" zoomScalePageLayoutView="41" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36771,6 +41166,859 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" zoomScale="74" zoomScaleNormal="41" zoomScalePageLayoutView="41" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100000</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1949141</v>
+      </c>
+      <c r="D2">
+        <v>1980263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>100000</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2290324</v>
+      </c>
+      <c r="D3">
+        <v>3826539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>100000</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2530195</v>
+      </c>
+      <c r="D4">
+        <v>8319746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100000</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2942194</v>
+      </c>
+      <c r="D5">
+        <v>16649191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>100000</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>2992632</v>
+      </c>
+      <c r="D6">
+        <v>35729557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>100000</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>4313461</v>
+      </c>
+      <c r="D7">
+        <v>75798272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>100000</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>8119776</v>
+      </c>
+      <c r="D8">
+        <v>155172260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>100000</v>
+      </c>
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>13964104</v>
+      </c>
+      <c r="D9">
+        <v>315769455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>A2</f>
+        <v>100000</v>
+      </c>
+      <c r="B13">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>($A2*$B2*4)/C2</f>
+        <v>0.20521860655540056</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:H20" si="0">($A2*$B2*4)/D2</f>
+        <v>0.20199337158751135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" ref="A14:B20" si="1">A3</f>
+        <v>100000</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C20" si="2">(A3*B3*4)/C3</f>
+        <v>0.34929555818303437</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.20906620839353787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>0.63236232780477397</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.19231356341888323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>1.0876237256958583</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.19220153099330772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>2.1385856998120718</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.17912340754742634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>2.9674546727094553</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.16886928504122098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>3.1527963332978644</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.16497794128924848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>3.6665438756399982</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.16214361202225847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>A13</f>
+        <v>100000</v>
+      </c>
+      <c r="B23">
+        <f>B13</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <f>C13*1000000/1048576</f>
+        <v>0.19571171432056481</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:H23" si="3">D13*1000000/1048576</f>
+        <v>0.19263589056731353</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" ref="A24:B30" si="4">A14</f>
+        <v>100000</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" ref="C24:H30" si="5">C14*1000000/1048576</f>
+        <v>0.33311420267394481</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19938107337335384</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="5"/>
+        <v>0.60306771069028275</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="5"/>
+        <v>0.18340450612915346</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0372388131102164</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="5"/>
+        <v>0.18329766368227743</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0395142553444594</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.17082539324514995</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="5"/>
+        <v>2.8299853064627221</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1610462999736986</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="5"/>
+        <v>3.0067408879259725</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="5"/>
+        <v>0.15733522538113448</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="5"/>
+        <v>3.4966887241744979</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="5"/>
+        <v>0.15463219835496755</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f>A23</f>
+        <v>100000</v>
+      </c>
+      <c r="B33">
+        <f>B23</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <f>C23*1000/1024</f>
+        <v>0.19112472101617656</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" ref="D33:H33" si="6">D23*1000/1024</f>
+        <v>0.18812098688214213</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" ref="A34:B40" si="7">A24</f>
+        <v>100000</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" ref="C34:H40" si="8">C24*1000/1024</f>
+        <v>0.32530683854877424</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="8"/>
+        <v>0.19470807946616586</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="8"/>
+        <v>0.58893331122097925</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="8"/>
+        <v>0.17910596301675141</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="8"/>
+        <v>1.0129285284279457</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="8"/>
+        <v>0.17900162468972405</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="8"/>
+        <v>1.9917131399848236</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="8"/>
+        <v>0.16682167309096674</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="8"/>
+        <v>2.7636575258425018</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="8"/>
+        <v>0.15727177731806505</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="8"/>
+        <v>2.9362703983652074</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="8"/>
+        <v>0.15364768103626414</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="8"/>
+        <v>3.4147350822016582</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.151008006206023</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f>A33</f>
+        <v>100000</v>
+      </c>
+      <c r="B45">
+        <f>B33</f>
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <f>($A45*$B45)/C2*1000000000</f>
+        <v>51304651.638850138</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" ref="D45:H45" si="9">($A45*$B45)/D2*1000000000</f>
+        <v>50498342.89687784</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" ref="A46:B52" si="10">A34</f>
+        <v>100000</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" ref="C46:H52" si="11">($A46*$B46)/C3*1000000000</f>
+        <v>87323889.54575859</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="11"/>
+        <v>52266552.09838447</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="10"/>
+        <v>100000</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="11"/>
+        <v>158090581.95119348</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="11"/>
+        <v>48078390.854720809</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="10"/>
+        <v>100000</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="11"/>
+        <v>271905931.42396456</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="11"/>
+        <v>48050382.748326927</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="10"/>
+        <v>100000</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="11"/>
+        <v>534646424.95301795</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="11"/>
+        <v>44780851.886856586</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="10"/>
+        <v>100000</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="11"/>
+        <v>741863668.17736387</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="11"/>
+        <v>42217321.260305248</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="10"/>
+        <v>100000</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="11"/>
+        <v>788199083.32446611</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="11"/>
+        <v>41244485.322312117</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="10"/>
+        <v>100000</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="10"/>
+        <v>128</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="11"/>
+        <v>916635968.90999949</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="11"/>
+        <v>40535903.005564615</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37377,7 +42625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D33"/>
